--- a/csv-validator/PackageValidation/ValidationServices/SchemaSource/structured-schema-description.xlsx
+++ b/csv-validator/PackageValidation/ValidationServices/SchemaSource/structured-schema-description.xlsx
@@ -14,6 +14,9 @@
     <sheet name="Model_game_file" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Fields_structure" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Fields_structure!$A$1:$T$274</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10020" uniqueCount="1471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10020" uniqueCount="1472">
   <si>
     <t xml:space="preserve">FieldName</t>
   </si>
@@ -3344,6 +3347,9 @@
     <t xml:space="preserve">TypeLocation</t>
   </si>
   <si>
+    <t xml:space="preserve">MistoNazev</t>
+  </si>
+  <si>
     <t xml:space="preserve">Type of location where the game of chance is operated
 Single- or two-letter code referring to the type of location where the game of chance is operated by the operator delivering the automated data output.
 The type of the location where the game of chance is operated cannot be modified. If the type of the location where a game of chance is operated is modified, a new entry shall be provided specifying a different unique identifier of the gaming room, point of sale or betting office.</t>
@@ -5075,6 +5081,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -5134,7 +5141,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5145,6 +5152,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -5161,6 +5172,10 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25102,7 +25117,7 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.89"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -25165,7 +25180,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -25512,7 +25527,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -26947,7 +26962,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -26957,83 +26972,103 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:T274"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C109" activeCellId="0" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="72.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="7.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="38.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="77.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="149.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="4.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="45.47"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="21" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="3" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>610</v>
       </c>
@@ -27070,7 +27105,7 @@
       <c r="N2" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="4" t="s">
         <v>665</v>
       </c>
       <c r="Q2" s="0" t="s">
@@ -27086,7 +27121,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>610</v>
       </c>
@@ -27126,7 +27161,7 @@
       <c r="O3" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="4" t="s">
         <v>675</v>
       </c>
       <c r="Q3" s="0" t="s">
@@ -27142,7 +27177,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>610</v>
       </c>
@@ -27173,7 +27208,7 @@
       <c r="N4" s="0" t="s">
         <v>681</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="4" t="s">
         <v>682</v>
       </c>
       <c r="Q4" s="0" t="s">
@@ -27189,7 +27224,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>610</v>
       </c>
@@ -27217,7 +27252,7 @@
       <c r="N5" s="0" t="s">
         <v>681</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="4" t="s">
         <v>686</v>
       </c>
       <c r="Q5" s="0" t="s">
@@ -27233,7 +27268,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>599</v>
       </c>
@@ -27270,7 +27305,7 @@
       <c r="N6" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="4" t="s">
         <v>690</v>
       </c>
       <c r="Q6" s="0" t="s">
@@ -27286,7 +27321,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>599</v>
       </c>
@@ -27326,7 +27361,7 @@
       <c r="O7" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="4" t="s">
         <v>697</v>
       </c>
       <c r="Q7" s="0" t="s">
@@ -27342,7 +27377,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>599</v>
       </c>
@@ -27373,7 +27408,7 @@
       <c r="L8" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="4" t="s">
         <v>703</v>
       </c>
       <c r="Q8" s="0" t="s">
@@ -27389,7 +27424,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>599</v>
       </c>
@@ -27423,7 +27458,7 @@
       <c r="N9" s="0" t="s">
         <v>707</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="4" t="s">
         <v>708</v>
       </c>
       <c r="Q9" s="0" t="s">
@@ -27439,7 +27474,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>610</v>
       </c>
@@ -27476,7 +27511,7 @@
       <c r="N10" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="P10" s="4" t="s">
         <v>712</v>
       </c>
       <c r="Q10" s="0" t="s">
@@ -27492,7 +27527,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>610</v>
       </c>
@@ -27523,7 +27558,7 @@
       <c r="L11" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="P11" s="4" t="s">
         <v>715</v>
       </c>
       <c r="Q11" s="0" t="s">
@@ -27539,7 +27574,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>610</v>
       </c>
@@ -27570,7 +27605,7 @@
       <c r="L12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="P12" s="4" t="s">
         <v>708</v>
       </c>
       <c r="Q12" s="0" t="s">
@@ -27586,7 +27621,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>610</v>
       </c>
@@ -27617,7 +27652,7 @@
       <c r="L13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="P13" s="4" t="s">
         <v>718</v>
       </c>
       <c r="Q13" s="0" t="s">
@@ -27633,7 +27668,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>610</v>
       </c>
@@ -27673,7 +27708,7 @@
       <c r="O14" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="4" t="s">
         <v>697</v>
       </c>
       <c r="Q14" s="0" t="s">
@@ -27689,7 +27724,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>610</v>
       </c>
@@ -27717,7 +27752,7 @@
       <c r="N15" s="0" t="s">
         <v>681</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="P15" s="4" t="s">
         <v>723</v>
       </c>
       <c r="Q15" s="0" t="s">
@@ -27733,7 +27768,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>610</v>
       </c>
@@ -27770,7 +27805,7 @@
       <c r="N16" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="P16" s="4" t="s">
         <v>727</v>
       </c>
       <c r="Q16" s="0" t="s">
@@ -27786,7 +27821,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>610</v>
       </c>
@@ -27826,7 +27861,7 @@
       <c r="O17" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="P17" s="4" t="s">
         <v>732</v>
       </c>
       <c r="Q17" s="0" t="s">
@@ -27842,7 +27877,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>610</v>
       </c>
@@ -27882,7 +27917,7 @@
       <c r="O18" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="P18" s="4" t="s">
         <v>697</v>
       </c>
       <c r="Q18" s="0" t="s">
@@ -27898,7 +27933,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>610</v>
       </c>
@@ -27935,7 +27970,7 @@
       <c r="N19" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="P19" s="4" t="s">
         <v>736</v>
       </c>
       <c r="Q19" s="0" t="s">
@@ -27951,7 +27986,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>610</v>
       </c>
@@ -27985,7 +28020,7 @@
       <c r="N20" s="0" t="s">
         <v>707</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="P20" s="4" t="s">
         <v>739</v>
       </c>
       <c r="Q20" s="0" t="s">
@@ -28001,7 +28036,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>610</v>
       </c>
@@ -28032,7 +28067,7 @@
       <c r="L21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="P21" s="4" t="s">
         <v>740</v>
       </c>
       <c r="Q21" s="0" t="s">
@@ -28048,7 +28083,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>610</v>
       </c>
@@ -28088,7 +28123,7 @@
       <c r="O22" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="P22" s="4" t="s">
         <v>741</v>
       </c>
       <c r="Q22" s="0" t="s">
@@ -28104,7 +28139,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>610</v>
       </c>
@@ -28138,7 +28173,7 @@
       <c r="O23" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="P23" s="4" t="s">
         <v>747</v>
       </c>
       <c r="Q23" s="0" t="s">
@@ -28154,7 +28189,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>610</v>
       </c>
@@ -28191,7 +28226,7 @@
       <c r="O24" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="P24" s="4" t="s">
         <v>751</v>
       </c>
       <c r="Q24" s="0" t="s">
@@ -28207,7 +28242,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>610</v>
       </c>
@@ -28241,7 +28276,7 @@
       <c r="O25" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P25" s="3" t="s">
+      <c r="P25" s="4" t="s">
         <v>755</v>
       </c>
       <c r="Q25" s="0" t="s">
@@ -28257,7 +28292,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>610</v>
       </c>
@@ -28288,7 +28323,7 @@
       <c r="O26" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P26" s="3" t="s">
+      <c r="P26" s="4" t="s">
         <v>759</v>
       </c>
       <c r="Q26" s="0" t="s">
@@ -28304,7 +28339,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>610</v>
       </c>
@@ -28335,7 +28370,7 @@
       <c r="O27" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P27" s="3" t="s">
+      <c r="P27" s="4" t="s">
         <v>759</v>
       </c>
       <c r="Q27" s="0" t="s">
@@ -28351,7 +28386,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>610</v>
       </c>
@@ -28382,7 +28417,7 @@
       <c r="O28" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P28" s="3" t="s">
+      <c r="P28" s="4" t="s">
         <v>766</v>
       </c>
       <c r="Q28" s="0" t="s">
@@ -28398,7 +28433,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>610</v>
       </c>
@@ -28429,7 +28464,7 @@
       <c r="O29" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="P29" s="4" t="s">
         <v>770</v>
       </c>
       <c r="Q29" s="0" t="s">
@@ -28445,7 +28480,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>610</v>
       </c>
@@ -28476,7 +28511,7 @@
       <c r="N30" s="0" t="s">
         <v>681</v>
       </c>
-      <c r="P30" s="3" t="s">
+      <c r="P30" s="4" t="s">
         <v>774</v>
       </c>
       <c r="Q30" s="0" t="s">
@@ -28492,7 +28527,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>610</v>
       </c>
@@ -28526,7 +28561,7 @@
       <c r="O31" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P31" s="3" t="s">
+      <c r="P31" s="4" t="s">
         <v>778</v>
       </c>
       <c r="Q31" s="0" t="s">
@@ -28542,7 +28577,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>610</v>
       </c>
@@ -28579,7 +28614,7 @@
       <c r="O32" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P32" s="3" t="s">
+      <c r="P32" s="4" t="s">
         <v>780</v>
       </c>
       <c r="Q32" s="0" t="s">
@@ -28595,7 +28630,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>610</v>
       </c>
@@ -28632,7 +28667,7 @@
       <c r="O33" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P33" s="3" t="s">
+      <c r="P33" s="4" t="s">
         <v>781</v>
       </c>
       <c r="Q33" s="0" t="s">
@@ -28648,7 +28683,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>610</v>
       </c>
@@ -28685,7 +28720,7 @@
       <c r="N34" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="P34" s="3" t="s">
+      <c r="P34" s="4" t="s">
         <v>785</v>
       </c>
       <c r="Q34" s="0" t="s">
@@ -28701,7 +28736,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>610</v>
       </c>
@@ -28741,7 +28776,7 @@
       <c r="O35" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P35" s="3" t="s">
+      <c r="P35" s="4" t="s">
         <v>788</v>
       </c>
       <c r="Q35" s="0" t="s">
@@ -28757,7 +28792,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>610</v>
       </c>
@@ -28797,7 +28832,7 @@
       <c r="O36" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P36" s="3" t="s">
+      <c r="P36" s="4" t="s">
         <v>792</v>
       </c>
       <c r="Q36" s="0" t="s">
@@ -28813,7 +28848,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>610</v>
       </c>
@@ -28844,7 +28879,7 @@
       <c r="M37" s="0" t="s">
         <v>746</v>
       </c>
-      <c r="P37" s="3" t="s">
+      <c r="P37" s="4" t="s">
         <v>797</v>
       </c>
       <c r="Q37" s="0" t="s">
@@ -28860,7 +28895,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>610</v>
       </c>
@@ -28891,7 +28926,7 @@
       <c r="O38" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P38" s="3" t="s">
+      <c r="P38" s="4" t="s">
         <v>800</v>
       </c>
       <c r="Q38" s="0" t="s">
@@ -28907,7 +28942,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>610</v>
       </c>
@@ -28941,7 +28976,7 @@
       <c r="M39" s="0" t="s">
         <v>746</v>
       </c>
-      <c r="P39" s="3" t="s">
+      <c r="P39" s="4" t="s">
         <v>806</v>
       </c>
       <c r="Q39" s="0" t="s">
@@ -28957,7 +28992,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>610</v>
       </c>
@@ -28991,7 +29026,7 @@
       <c r="N40" s="0" t="s">
         <v>681</v>
       </c>
-      <c r="P40" s="3" t="s">
+      <c r="P40" s="4" t="s">
         <v>810</v>
       </c>
       <c r="Q40" s="0" t="s">
@@ -29007,7 +29042,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>610</v>
       </c>
@@ -29035,7 +29070,7 @@
       <c r="M41" s="0" t="s">
         <v>746</v>
       </c>
-      <c r="P41" s="3" t="s">
+      <c r="P41" s="4" t="s">
         <v>815</v>
       </c>
       <c r="Q41" s="0" t="s">
@@ -29051,7 +29086,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>610</v>
       </c>
@@ -29079,7 +29114,7 @@
       <c r="M42" s="0" t="s">
         <v>746</v>
       </c>
-      <c r="P42" s="3" t="s">
+      <c r="P42" s="4" t="s">
         <v>819</v>
       </c>
       <c r="Q42" s="0" t="s">
@@ -29095,7 +29130,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>610</v>
       </c>
@@ -29123,7 +29158,7 @@
       <c r="I43" s="0" t="s">
         <v>662</v>
       </c>
-      <c r="P43" s="3" t="s">
+      <c r="P43" s="4" t="s">
         <v>821</v>
       </c>
       <c r="Q43" s="0" t="s">
@@ -29139,7 +29174,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>610</v>
       </c>
@@ -29176,7 +29211,7 @@
       <c r="N44" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="P44" s="3" t="s">
+      <c r="P44" s="4" t="s">
         <v>825</v>
       </c>
       <c r="Q44" s="0" t="s">
@@ -29192,7 +29227,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>610</v>
       </c>
@@ -29232,7 +29267,7 @@
       <c r="O45" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P45" s="3" t="s">
+      <c r="P45" s="4" t="s">
         <v>828</v>
       </c>
       <c r="Q45" s="0" t="s">
@@ -29248,7 +29283,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>610</v>
       </c>
@@ -29279,7 +29314,7 @@
       <c r="L46" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="P46" s="3" t="s">
+      <c r="P46" s="4" t="s">
         <v>830</v>
       </c>
       <c r="Q46" s="0" t="s">
@@ -29295,7 +29330,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>610</v>
       </c>
@@ -29329,7 +29364,7 @@
       <c r="O47" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P47" s="3" t="s">
+      <c r="P47" s="4" t="s">
         <v>834</v>
       </c>
       <c r="Q47" s="0" t="s">
@@ -29345,7 +29380,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>610</v>
       </c>
@@ -29379,7 +29414,7 @@
       <c r="O48" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P48" s="3" t="s">
+      <c r="P48" s="4" t="s">
         <v>838</v>
       </c>
       <c r="Q48" s="0" t="s">
@@ -29395,7 +29430,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>610</v>
       </c>
@@ -29426,7 +29461,7 @@
       <c r="L49" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="P49" s="3" t="s">
+      <c r="P49" s="4" t="s">
         <v>840</v>
       </c>
       <c r="Q49" s="0" t="s">
@@ -29442,7 +29477,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>599</v>
       </c>
@@ -29479,7 +29514,7 @@
       <c r="N50" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="P50" s="3" t="s">
+      <c r="P50" s="4" t="s">
         <v>843</v>
       </c>
       <c r="Q50" s="0" t="s">
@@ -29495,7 +29530,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>599</v>
       </c>
@@ -29535,7 +29570,7 @@
       <c r="O51" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P51" s="3" t="s">
+      <c r="P51" s="4" t="s">
         <v>848</v>
       </c>
       <c r="Q51" s="0" t="s">
@@ -29551,7 +29586,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>599</v>
       </c>
@@ -29591,7 +29626,7 @@
       <c r="O52" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P52" s="3" t="s">
+      <c r="P52" s="4" t="s">
         <v>851</v>
       </c>
       <c r="Q52" s="0" t="s">
@@ -29607,7 +29642,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>599</v>
       </c>
@@ -29638,7 +29673,7 @@
       <c r="O53" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P53" s="3" t="s">
+      <c r="P53" s="4" t="s">
         <v>854</v>
       </c>
       <c r="Q53" s="0" t="s">
@@ -29654,7 +29689,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>599</v>
       </c>
@@ -29685,7 +29720,7 @@
       <c r="N54" s="0" t="s">
         <v>681</v>
       </c>
-      <c r="P54" s="3" t="s">
+      <c r="P54" s="4" t="s">
         <v>857</v>
       </c>
       <c r="Q54" s="0" t="s">
@@ -29701,7 +29736,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>599</v>
       </c>
@@ -29732,7 +29767,7 @@
       <c r="O55" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P55" s="3" t="s">
+      <c r="P55" s="4" t="s">
         <v>861</v>
       </c>
       <c r="Q55" s="0" t="s">
@@ -29748,7 +29783,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>599</v>
       </c>
@@ -29779,7 +29814,7 @@
       <c r="M56" s="0" t="s">
         <v>746</v>
       </c>
-      <c r="P56" s="3" t="s">
+      <c r="P56" s="4" t="s">
         <v>865</v>
       </c>
       <c r="Q56" s="0" t="s">
@@ -29795,7 +29830,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>599</v>
       </c>
@@ -29823,7 +29858,7 @@
       <c r="M57" s="0" t="s">
         <v>746</v>
       </c>
-      <c r="P57" s="3" t="s">
+      <c r="P57" s="4" t="s">
         <v>869</v>
       </c>
       <c r="Q57" s="0" t="s">
@@ -29839,7 +29874,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>599</v>
       </c>
@@ -29870,7 +29905,7 @@
       <c r="M58" s="0" t="s">
         <v>746</v>
       </c>
-      <c r="P58" s="3" t="s">
+      <c r="P58" s="4" t="s">
         <v>873</v>
       </c>
       <c r="Q58" s="0" t="s">
@@ -29886,7 +29921,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>599</v>
       </c>
@@ -29914,7 +29949,7 @@
       <c r="M59" s="0" t="s">
         <v>746</v>
       </c>
-      <c r="P59" s="3" t="s">
+      <c r="P59" s="4" t="s">
         <v>877</v>
       </c>
       <c r="Q59" s="0" t="s">
@@ -29930,7 +29965,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>599</v>
       </c>
@@ -29961,7 +29996,7 @@
       <c r="O60" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P60" s="3" t="s">
+      <c r="P60" s="4" t="s">
         <v>881</v>
       </c>
       <c r="Q60" s="0" t="s">
@@ -29977,7 +30012,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>599</v>
       </c>
@@ -30008,7 +30043,7 @@
       <c r="O61" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P61" s="3" t="s">
+      <c r="P61" s="4" t="s">
         <v>885</v>
       </c>
       <c r="Q61" s="0" t="s">
@@ -30024,7 +30059,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>599</v>
       </c>
@@ -30055,7 +30090,7 @@
       <c r="O62" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P62" s="3" t="s">
+      <c r="P62" s="4" t="s">
         <v>889</v>
       </c>
       <c r="Q62" s="0" t="s">
@@ -30071,7 +30106,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>599</v>
       </c>
@@ -30105,7 +30140,7 @@
       <c r="O63" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P63" s="3" t="s">
+      <c r="P63" s="4" t="s">
         <v>891</v>
       </c>
       <c r="Q63" s="0" t="s">
@@ -30121,7 +30156,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>599</v>
       </c>
@@ -30152,7 +30187,7 @@
       <c r="O64" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P64" s="3" t="s">
+      <c r="P64" s="4" t="s">
         <v>897</v>
       </c>
       <c r="Q64" s="0" t="s">
@@ -30168,7 +30203,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>599</v>
       </c>
@@ -30199,7 +30234,7 @@
       <c r="O65" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P65" s="3" t="s">
+      <c r="P65" s="4" t="s">
         <v>901</v>
       </c>
       <c r="Q65" s="0" t="s">
@@ -30215,7 +30250,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>610</v>
       </c>
@@ -30252,7 +30287,7 @@
       <c r="N66" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="P66" s="3" t="s">
+      <c r="P66" s="4" t="s">
         <v>905</v>
       </c>
       <c r="Q66" s="0" t="s">
@@ -30268,7 +30303,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>610</v>
       </c>
@@ -30308,7 +30343,7 @@
       <c r="O67" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P67" s="3" t="s">
+      <c r="P67" s="4" t="s">
         <v>908</v>
       </c>
       <c r="Q67" s="0" t="s">
@@ -30324,7 +30359,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>610</v>
       </c>
@@ -30355,7 +30390,7 @@
       <c r="N68" s="0" t="s">
         <v>681</v>
       </c>
-      <c r="P68" s="3" t="s">
+      <c r="P68" s="4" t="s">
         <v>912</v>
       </c>
       <c r="Q68" s="0" t="s">
@@ -30371,7 +30406,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>610</v>
       </c>
@@ -30402,7 +30437,7 @@
       <c r="O69" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P69" s="3" t="s">
+      <c r="P69" s="4" t="s">
         <v>914</v>
       </c>
       <c r="Q69" s="0" t="s">
@@ -30418,7 +30453,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>610</v>
       </c>
@@ -30449,7 +30484,7 @@
       <c r="O70" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P70" s="3" t="s">
+      <c r="P70" s="4" t="s">
         <v>918</v>
       </c>
       <c r="Q70" s="0" t="s">
@@ -30465,7 +30500,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>610</v>
       </c>
@@ -30496,7 +30531,7 @@
       <c r="O71" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P71" s="3" t="s">
+      <c r="P71" s="4" t="s">
         <v>920</v>
       </c>
       <c r="Q71" s="0" t="s">
@@ -30512,7 +30547,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>610</v>
       </c>
@@ -30543,7 +30578,7 @@
       <c r="O72" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P72" s="3" t="s">
+      <c r="P72" s="4" t="s">
         <v>924</v>
       </c>
       <c r="Q72" s="0" t="s">
@@ -30559,7 +30594,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>610</v>
       </c>
@@ -30590,7 +30625,7 @@
       <c r="O73" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P73" s="3" t="s">
+      <c r="P73" s="4" t="s">
         <v>928</v>
       </c>
       <c r="Q73" s="0" t="s">
@@ -30606,7 +30641,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>610</v>
       </c>
@@ -30637,7 +30672,7 @@
       <c r="O74" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P74" s="3" t="s">
+      <c r="P74" s="4" t="s">
         <v>932</v>
       </c>
       <c r="Q74" s="0" t="s">
@@ -30653,7 +30688,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>610</v>
       </c>
@@ -30681,7 +30716,7 @@
       <c r="O75" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P75" s="3" t="s">
+      <c r="P75" s="4" t="s">
         <v>935</v>
       </c>
       <c r="Q75" s="0" t="s">
@@ -30697,7 +30732,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>610</v>
       </c>
@@ -30734,7 +30769,7 @@
       <c r="N76" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="P76" s="3" t="s">
+      <c r="P76" s="4" t="s">
         <v>937</v>
       </c>
       <c r="Q76" s="0" t="s">
@@ -30750,7 +30785,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>610</v>
       </c>
@@ -30790,7 +30825,7 @@
       <c r="O77" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P77" s="3" t="s">
+      <c r="P77" s="4" t="s">
         <v>697</v>
       </c>
       <c r="Q77" s="0" t="s">
@@ -30806,7 +30841,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>610</v>
       </c>
@@ -30840,7 +30875,7 @@
       <c r="O78" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P78" s="3" t="s">
+      <c r="P78" s="4" t="s">
         <v>942</v>
       </c>
       <c r="Q78" s="0" t="s">
@@ -30856,7 +30891,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>610</v>
       </c>
@@ -30893,7 +30928,7 @@
       <c r="N79" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="P79" s="3" t="s">
+      <c r="P79" s="4" t="s">
         <v>946</v>
       </c>
       <c r="Q79" s="0" t="s">
@@ -30909,7 +30944,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>610</v>
       </c>
@@ -30949,7 +30984,7 @@
       <c r="O80" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P80" s="3" t="s">
+      <c r="P80" s="4" t="s">
         <v>949</v>
       </c>
       <c r="Q80" s="0" t="s">
@@ -30965,7 +31000,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>610</v>
       </c>
@@ -31002,7 +31037,7 @@
       <c r="N81" s="0" t="s">
         <v>707</v>
       </c>
-      <c r="P81" s="3" t="s">
+      <c r="P81" s="4" t="s">
         <v>950</v>
       </c>
       <c r="Q81" s="0" t="s">
@@ -31018,7 +31053,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>610</v>
       </c>
@@ -31062,7 +31097,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>610</v>
       </c>
@@ -31090,7 +31125,7 @@
       <c r="I83" s="0" t="s">
         <v>662</v>
       </c>
-      <c r="P83" s="3" t="s">
+      <c r="P83" s="4" t="s">
         <v>954</v>
       </c>
       <c r="Q83" s="0" t="s">
@@ -31106,7 +31141,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>610</v>
       </c>
@@ -31137,7 +31172,7 @@
       <c r="L84" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="P84" s="3" t="s">
+      <c r="P84" s="4" t="s">
         <v>957</v>
       </c>
       <c r="Q84" s="0" t="s">
@@ -31153,7 +31188,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>610</v>
       </c>
@@ -31190,7 +31225,7 @@
       <c r="O85" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P85" s="3" t="s">
+      <c r="P85" s="4" t="s">
         <v>961</v>
       </c>
       <c r="Q85" s="0" t="s">
@@ -31206,7 +31241,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>610</v>
       </c>
@@ -31243,7 +31278,7 @@
       <c r="N86" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="P86" s="3" t="s">
+      <c r="P86" s="4" t="s">
         <v>965</v>
       </c>
       <c r="Q86" s="0" t="s">
@@ -31259,7 +31294,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>610</v>
       </c>
@@ -31299,7 +31334,7 @@
       <c r="O87" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P87" s="3" t="s">
+      <c r="P87" s="4" t="s">
         <v>828</v>
       </c>
       <c r="Q87" s="0" t="s">
@@ -31315,7 +31350,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>610</v>
       </c>
@@ -31355,7 +31390,7 @@
       <c r="O88" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P88" s="3" t="s">
+      <c r="P88" s="4" t="s">
         <v>970</v>
       </c>
       <c r="Q88" s="0" t="s">
@@ -31371,7 +31406,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>610</v>
       </c>
@@ -31402,7 +31437,7 @@
       <c r="O89" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P89" s="3" t="s">
+      <c r="P89" s="4" t="s">
         <v>974</v>
       </c>
       <c r="Q89" s="0" t="s">
@@ -31418,7 +31453,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>599</v>
       </c>
@@ -31455,7 +31490,7 @@
       <c r="N90" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="P90" s="3" t="s">
+      <c r="P90" s="4" t="s">
         <v>977</v>
       </c>
       <c r="Q90" s="0" t="s">
@@ -31471,7 +31506,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>599</v>
       </c>
@@ -31511,7 +31546,7 @@
       <c r="O91" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P91" s="3" t="s">
+      <c r="P91" s="4" t="s">
         <v>980</v>
       </c>
       <c r="Q91" s="0" t="s">
@@ -31527,7 +31562,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>599</v>
       </c>
@@ -31561,7 +31596,7 @@
       <c r="N92" s="0" t="s">
         <v>707</v>
       </c>
-      <c r="P92" s="3" t="s">
+      <c r="P92" s="4" t="s">
         <v>982</v>
       </c>
       <c r="Q92" s="0" t="s">
@@ -31577,7 +31612,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>599</v>
       </c>
@@ -31608,7 +31643,7 @@
       <c r="M93" s="0" t="s">
         <v>746</v>
       </c>
-      <c r="P93" s="3" t="s">
+      <c r="P93" s="4" t="s">
         <v>984</v>
       </c>
       <c r="Q93" s="0" t="s">
@@ -31624,7 +31659,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>599</v>
       </c>
@@ -31658,7 +31693,7 @@
       <c r="O94" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P94" s="3" t="s">
+      <c r="P94" s="4" t="s">
         <v>986</v>
       </c>
       <c r="Q94" s="0" t="s">
@@ -31674,7 +31709,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>599</v>
       </c>
@@ -31705,7 +31740,7 @@
       <c r="N95" s="0" t="s">
         <v>681</v>
       </c>
-      <c r="P95" s="3" t="s">
+      <c r="P95" s="4" t="s">
         <v>990</v>
       </c>
       <c r="Q95" s="0" t="s">
@@ -31721,7 +31756,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>610</v>
       </c>
@@ -31758,7 +31793,7 @@
       <c r="N96" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="P96" s="3" t="s">
+      <c r="P96" s="4" t="s">
         <v>992</v>
       </c>
       <c r="Q96" s="0" t="s">
@@ -31774,7 +31809,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>610</v>
       </c>
@@ -31814,7 +31849,7 @@
       <c r="O97" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P97" s="3" t="s">
+      <c r="P97" s="4" t="s">
         <v>697</v>
       </c>
       <c r="Q97" s="0" t="s">
@@ -31830,7 +31865,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>610</v>
       </c>
@@ -31864,7 +31899,7 @@
       <c r="N98" s="0" t="s">
         <v>707</v>
       </c>
-      <c r="P98" s="3" t="s">
+      <c r="P98" s="4" t="s">
         <v>994</v>
       </c>
       <c r="Q98" s="0" t="s">
@@ -31880,7 +31915,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>610</v>
       </c>
@@ -31911,7 +31946,7 @@
       <c r="M99" s="0" t="s">
         <v>746</v>
       </c>
-      <c r="P99" s="3" t="s">
+      <c r="P99" s="4" t="s">
         <v>984</v>
       </c>
       <c r="Q99" s="0" t="s">
@@ -31927,7 +31962,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>610</v>
       </c>
@@ -31961,7 +31996,7 @@
       <c r="O100" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P100" s="3" t="s">
+      <c r="P100" s="4" t="s">
         <v>995</v>
       </c>
       <c r="Q100" s="0" t="s">
@@ -31977,7 +32012,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>610</v>
       </c>
@@ -32008,7 +32043,7 @@
       <c r="N101" s="0" t="s">
         <v>681</v>
       </c>
-      <c r="P101" s="3" t="s">
+      <c r="P101" s="4" t="s">
         <v>996</v>
       </c>
       <c r="Q101" s="0" t="s">
@@ -32061,7 +32096,7 @@
       <c r="N102" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="P102" s="4" t="s">
         <v>998</v>
       </c>
       <c r="Q102" s="0" t="s">
@@ -32085,7 +32120,7 @@
         <v>601</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>694</v>
@@ -32117,7 +32152,7 @@
       <c r="O103" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P103" s="3" t="s">
+      <c r="P103" s="4" t="s">
         <v>697</v>
       </c>
       <c r="Q103" s="0" t="s">
@@ -32141,7 +32176,7 @@
         <v>601</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>1002</v>
@@ -32164,7 +32199,7 @@
       <c r="J104" s="0" t="s">
         <v>1005</v>
       </c>
-      <c r="P104" s="3" t="s">
+      <c r="P104" s="4" t="s">
         <v>1006</v>
       </c>
       <c r="Q104" s="0" t="s">
@@ -32188,7 +32223,7 @@
         <v>601</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>1007</v>
@@ -32211,7 +32246,7 @@
       <c r="J105" s="0" t="s">
         <v>1005</v>
       </c>
-      <c r="P105" s="3" t="s">
+      <c r="P105" s="4" t="s">
         <v>1008</v>
       </c>
       <c r="Q105" s="0" t="s">
@@ -32227,7 +32262,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>599</v>
       </c>
@@ -32235,37 +32270,34 @@
         <v>601</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>1010</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>126</v>
+        <v>1011</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="I106" s="0" t="s">
         <v>662</v>
       </c>
-      <c r="K106" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="L106" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P106" s="3" t="s">
-        <v>1011</v>
+        <v>250</v>
+      </c>
+      <c r="P106" s="4" t="s">
+        <v>1012</v>
       </c>
       <c r="Q106" s="0" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="R106" s="0" t="s">
         <v>661</v>
@@ -32288,10 +32320,10 @@
         <v>6</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="F107" s="0" t="s">
         <v>701</v>
@@ -32305,11 +32337,11 @@
       <c r="L107" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="P107" s="3" t="s">
-        <v>1015</v>
+      <c r="P107" s="4" t="s">
+        <v>1016</v>
       </c>
       <c r="Q107" s="0" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="R107" s="0" t="s">
         <v>661</v>
@@ -32332,25 +32364,25 @@
         <v>7</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="F108" s="0" t="s">
         <v>894</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="H108" s="0" t="s">
         <v>667</v>
       </c>
-      <c r="P108" s="3" t="s">
-        <v>1020</v>
+      <c r="P108" s="4" t="s">
+        <v>1021</v>
       </c>
       <c r="Q108" s="0" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="R108" s="0" t="s">
         <v>661</v>
@@ -32373,10 +32405,10 @@
         <v>8</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="F109" s="0" t="s">
         <v>701</v>
@@ -32390,11 +32422,11 @@
       <c r="L109" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="P109" s="3" t="s">
-        <v>1024</v>
+      <c r="P109" s="4" t="s">
+        <v>1025</v>
       </c>
       <c r="Q109" s="0" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="R109" s="0" t="s">
         <v>661</v>
@@ -32417,10 +32449,10 @@
         <v>9</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="F110" s="0" t="s">
         <v>701</v>
@@ -32434,11 +32466,11 @@
       <c r="L110" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="P110" s="3" t="s">
-        <v>1028</v>
+      <c r="P110" s="4" t="s">
+        <v>1029</v>
       </c>
       <c r="Q110" s="0" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="R110" s="0" t="s">
         <v>661</v>
@@ -32461,16 +32493,16 @@
         <v>10</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="F111" s="0" t="s">
         <v>894</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="H111" s="0" t="s">
         <v>661</v>
@@ -32482,13 +32514,13 @@
         <v>896</v>
       </c>
       <c r="O111" s="0" t="s">
-        <v>1032</v>
-      </c>
-      <c r="P111" s="3" t="s">
         <v>1033</v>
       </c>
+      <c r="P111" s="4" t="s">
+        <v>1034</v>
+      </c>
       <c r="Q111" s="0" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="R111" s="0" t="s">
         <v>661</v>
@@ -32511,10 +32543,10 @@
         <v>11</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="F112" s="0" t="s">
         <v>701</v>
@@ -32528,11 +32560,11 @@
       <c r="L112" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="P112" s="3" t="s">
-        <v>1037</v>
+      <c r="P112" s="4" t="s">
+        <v>1038</v>
       </c>
       <c r="Q112" s="0" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="R112" s="0" t="s">
         <v>661</v>
@@ -32555,25 +32587,25 @@
         <v>12</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="F113" s="0" t="s">
         <v>894</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="H113" s="0" t="s">
         <v>667</v>
       </c>
-      <c r="P113" s="3" t="s">
-        <v>1041</v>
+      <c r="P113" s="4" t="s">
+        <v>1042</v>
       </c>
       <c r="Q113" s="0" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="R113" s="0" t="s">
         <v>661</v>
@@ -32596,7 +32628,7 @@
         <v>13</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="E114" s="0" t="s">
         <v>145</v>
@@ -32620,10 +32652,10 @@
         <v>3</v>
       </c>
       <c r="P114" s="0" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="Q114" s="0" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="R114" s="0" t="s">
         <v>661</v>
@@ -32646,28 +32678,28 @@
         <v>14</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="F115" s="0" t="s">
         <v>894</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="H115" s="0" t="s">
         <v>667</v>
       </c>
       <c r="O115" s="0" t="s">
-        <v>1048</v>
-      </c>
-      <c r="P115" s="3" t="s">
         <v>1049</v>
       </c>
+      <c r="P115" s="4" t="s">
+        <v>1050</v>
+      </c>
       <c r="Q115" s="0" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="R115" s="0" t="s">
         <v>661</v>
@@ -32679,7 +32711,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>610</v>
       </c>
@@ -32716,11 +32748,11 @@
       <c r="N116" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="P116" s="3" t="s">
+      <c r="P116" s="4" t="s">
         <v>998</v>
       </c>
       <c r="Q116" s="0" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="R116" s="0" t="s">
         <v>667</v>
@@ -32729,10 +32761,10 @@
         <v>668</v>
       </c>
       <c r="T116" s="0" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>610</v>
       </c>
@@ -32772,7 +32804,7 @@
       <c r="O117" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P117" s="3" t="s">
+      <c r="P117" s="4" t="s">
         <v>697</v>
       </c>
       <c r="Q117" s="0" t="s">
@@ -32785,10 +32817,10 @@
         <v>668</v>
       </c>
       <c r="T117" s="0" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>610</v>
       </c>
@@ -32822,11 +32854,11 @@
       <c r="M118" s="0" t="s">
         <v>746</v>
       </c>
-      <c r="P118" s="3" t="s">
+      <c r="P118" s="4" t="s">
         <v>1006</v>
       </c>
       <c r="Q118" s="0" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="R118" s="0" t="s">
         <v>661</v>
@@ -32835,10 +32867,10 @@
         <v>668</v>
       </c>
       <c r="T118" s="0" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>610</v>
       </c>
@@ -32872,11 +32904,11 @@
       <c r="M119" s="0" t="s">
         <v>746</v>
       </c>
-      <c r="P119" s="3" t="s">
+      <c r="P119" s="4" t="s">
         <v>1008</v>
       </c>
       <c r="Q119" s="0" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="R119" s="0" t="s">
         <v>661</v>
@@ -32885,10 +32917,10 @@
         <v>668</v>
       </c>
       <c r="T119" s="0" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>610</v>
       </c>
@@ -32922,11 +32954,11 @@
       <c r="L120" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="P120" s="3" t="s">
-        <v>1011</v>
+      <c r="P120" s="4" t="s">
+        <v>1012</v>
       </c>
       <c r="Q120" s="0" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="R120" s="0" t="s">
         <v>661</v>
@@ -32935,10 +32967,10 @@
         <v>668</v>
       </c>
       <c r="T120" s="0" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>610</v>
       </c>
@@ -32949,10 +32981,10 @@
         <v>6</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="F121" s="0" t="s">
         <v>701</v>
@@ -32966,11 +32998,11 @@
       <c r="L121" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="P121" s="3" t="s">
-        <v>1056</v>
+      <c r="P121" s="4" t="s">
+        <v>1057</v>
       </c>
       <c r="Q121" s="0" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="R121" s="0" t="s">
         <v>661</v>
@@ -32979,10 +33011,10 @@
         <v>668</v>
       </c>
       <c r="T121" s="0" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>610</v>
       </c>
@@ -32993,16 +33025,16 @@
         <v>7</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="F122" s="0" t="s">
         <v>894</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="H122" s="0" t="s">
         <v>667</v>
@@ -33010,11 +33042,11 @@
       <c r="M122" s="0" t="s">
         <v>896</v>
       </c>
-      <c r="P122" s="3" t="s">
-        <v>1020</v>
+      <c r="P122" s="4" t="s">
+        <v>1021</v>
       </c>
       <c r="Q122" s="0" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="R122" s="0" t="s">
         <v>661</v>
@@ -33023,10 +33055,10 @@
         <v>668</v>
       </c>
       <c r="T122" s="0" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
         <v>610</v>
       </c>
@@ -33037,10 +33069,10 @@
         <v>8</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="F123" s="0" t="s">
         <v>701</v>
@@ -33054,11 +33086,11 @@
       <c r="L123" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="P123" s="3" t="s">
-        <v>1024</v>
+      <c r="P123" s="4" t="s">
+        <v>1025</v>
       </c>
       <c r="Q123" s="0" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="R123" s="0" t="s">
         <v>661</v>
@@ -33067,10 +33099,10 @@
         <v>668</v>
       </c>
       <c r="T123" s="0" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
         <v>610</v>
       </c>
@@ -33081,10 +33113,10 @@
         <v>9</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="F124" s="0" t="s">
         <v>701</v>
@@ -33098,11 +33130,11 @@
       <c r="L124" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="P124" s="3" t="s">
-        <v>1028</v>
+      <c r="P124" s="4" t="s">
+        <v>1029</v>
       </c>
       <c r="Q124" s="0" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="R124" s="0" t="s">
         <v>661</v>
@@ -33111,10 +33143,10 @@
         <v>668</v>
       </c>
       <c r="T124" s="0" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>610</v>
       </c>
@@ -33125,16 +33157,16 @@
         <v>10</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="F125" s="0" t="s">
         <v>894</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="H125" s="0" t="s">
         <v>661</v>
@@ -33145,11 +33177,11 @@
       <c r="M125" s="0" t="s">
         <v>896</v>
       </c>
-      <c r="P125" s="3" t="s">
-        <v>1060</v>
+      <c r="P125" s="4" t="s">
+        <v>1061</v>
       </c>
       <c r="Q125" s="0" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="R125" s="0" t="s">
         <v>661</v>
@@ -33158,10 +33190,10 @@
         <v>668</v>
       </c>
       <c r="T125" s="0" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>610</v>
       </c>
@@ -33172,10 +33204,10 @@
         <v>11</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="F126" s="0" t="s">
         <v>701</v>
@@ -33189,11 +33221,11 @@
       <c r="L126" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="P126" s="3" t="s">
-        <v>1037</v>
+      <c r="P126" s="4" t="s">
+        <v>1038</v>
       </c>
       <c r="Q126" s="0" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="R126" s="0" t="s">
         <v>661</v>
@@ -33202,10 +33234,10 @@
         <v>668</v>
       </c>
       <c r="T126" s="0" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
         <v>610</v>
       </c>
@@ -33216,16 +33248,16 @@
         <v>12</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="F127" s="0" t="s">
         <v>894</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="H127" s="0" t="s">
         <v>667</v>
@@ -33233,11 +33265,11 @@
       <c r="M127" s="0" t="s">
         <v>896</v>
       </c>
-      <c r="P127" s="3" t="s">
-        <v>1063</v>
+      <c r="P127" s="4" t="s">
+        <v>1064</v>
       </c>
       <c r="Q127" s="0" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="R127" s="0" t="s">
         <v>661</v>
@@ -33246,10 +33278,10 @@
         <v>668</v>
       </c>
       <c r="T127" s="0" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>610</v>
       </c>
@@ -33260,7 +33292,7 @@
         <v>13</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="E128" s="0" t="s">
         <v>145</v>
@@ -33280,11 +33312,11 @@
       <c r="L128" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="P128" s="3" t="s">
-        <v>1064</v>
+      <c r="P128" s="4" t="s">
+        <v>1065</v>
       </c>
       <c r="Q128" s="0" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="R128" s="0" t="s">
         <v>661</v>
@@ -33293,10 +33325,10 @@
         <v>668</v>
       </c>
       <c r="T128" s="0" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
         <v>610</v>
       </c>
@@ -33307,16 +33339,16 @@
         <v>14</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="F129" s="0" t="s">
         <v>894</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="H129" s="0" t="s">
         <v>667</v>
@@ -33324,11 +33356,11 @@
       <c r="O129" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P129" s="3" t="s">
-        <v>1066</v>
+      <c r="P129" s="4" t="s">
+        <v>1067</v>
       </c>
       <c r="Q129" s="0" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="R129" s="0" t="s">
         <v>661</v>
@@ -33337,10 +33369,10 @@
         <v>668</v>
       </c>
       <c r="T129" s="0" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
         <v>599</v>
       </c>
@@ -33351,10 +33383,10 @@
         <v>1</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="F130" s="0" t="s">
         <v>659</v>
@@ -33377,11 +33409,11 @@
       <c r="N130" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="P130" s="3" t="s">
-        <v>1070</v>
+      <c r="P130" s="4" t="s">
+        <v>1071</v>
       </c>
       <c r="Q130" s="0" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="R130" s="0" t="s">
         <v>667</v>
@@ -33390,10 +33422,10 @@
         <v>692</v>
       </c>
       <c r="T130" s="0" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
         <v>599</v>
       </c>
@@ -33433,11 +33465,11 @@
       <c r="O131" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P131" s="3" t="s">
-        <v>1073</v>
+      <c r="P131" s="4" t="s">
+        <v>1074</v>
       </c>
       <c r="Q131" s="0" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="R131" s="0" t="s">
         <v>661</v>
@@ -33446,10 +33478,10 @@
         <v>692</v>
       </c>
       <c r="T131" s="0" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
         <v>599</v>
       </c>
@@ -33489,8 +33521,8 @@
       <c r="O132" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P132" s="3" t="s">
-        <v>1075</v>
+      <c r="P132" s="4" t="s">
+        <v>1076</v>
       </c>
       <c r="Q132" s="0" t="s">
         <v>981</v>
@@ -33502,10 +33534,10 @@
         <v>692</v>
       </c>
       <c r="T132" s="0" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
         <v>599</v>
       </c>
@@ -33516,10 +33548,10 @@
         <v>4</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="F133" s="0" t="s">
         <v>744</v>
@@ -33539,11 +33571,11 @@
       <c r="O133" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P133" s="3" t="s">
-        <v>1078</v>
+      <c r="P133" s="4" t="s">
+        <v>1079</v>
       </c>
       <c r="Q133" s="0" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="R133" s="0" t="s">
         <v>661</v>
@@ -33552,10 +33584,10 @@
         <v>692</v>
       </c>
       <c r="T133" s="0" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
         <v>599</v>
       </c>
@@ -33566,10 +33598,10 @@
         <v>5</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="F134" s="0" t="s">
         <v>744</v>
@@ -33589,11 +33621,11 @@
       <c r="O134" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P134" s="3" t="s">
-        <v>1082</v>
+      <c r="P134" s="4" t="s">
+        <v>1083</v>
       </c>
       <c r="Q134" s="0" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="R134" s="0" t="s">
         <v>661</v>
@@ -33602,10 +33634,10 @@
         <v>692</v>
       </c>
       <c r="T134" s="0" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
         <v>599</v>
       </c>
@@ -33639,8 +33671,8 @@
       <c r="O135" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P135" s="3" t="s">
-        <v>1084</v>
+      <c r="P135" s="4" t="s">
+        <v>1085</v>
       </c>
       <c r="Q135" s="0" t="s">
         <v>779</v>
@@ -33652,10 +33684,10 @@
         <v>692</v>
       </c>
       <c r="T135" s="0" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
         <v>599</v>
       </c>
@@ -33686,11 +33718,11 @@
       <c r="N136" s="0" t="s">
         <v>681</v>
       </c>
-      <c r="P136" s="3" t="s">
-        <v>1085</v>
+      <c r="P136" s="4" t="s">
+        <v>1086</v>
       </c>
       <c r="Q136" s="0" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="R136" s="0" t="s">
         <v>661</v>
@@ -33699,10 +33731,10 @@
         <v>692</v>
       </c>
       <c r="T136" s="0" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
         <v>599</v>
       </c>
@@ -33713,10 +33745,10 @@
         <v>1</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="F137" s="0" t="s">
         <v>659</v>
@@ -33739,11 +33771,11 @@
       <c r="N137" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="P137" s="3" t="s">
-        <v>1089</v>
+      <c r="P137" s="4" t="s">
+        <v>1090</v>
       </c>
       <c r="Q137" s="0" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="R137" s="0" t="s">
         <v>667</v>
@@ -33752,10 +33784,10 @@
         <v>692</v>
       </c>
       <c r="T137" s="0" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
         <v>599</v>
       </c>
@@ -33795,8 +33827,8 @@
       <c r="O138" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P138" s="3" t="s">
-        <v>1092</v>
+      <c r="P138" s="4" t="s">
+        <v>1093</v>
       </c>
       <c r="Q138" s="0" t="s">
         <v>849</v>
@@ -33808,10 +33840,10 @@
         <v>692</v>
       </c>
       <c r="T138" s="0" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
         <v>599</v>
       </c>
@@ -33851,8 +33883,8 @@
       <c r="O139" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P139" s="3" t="s">
-        <v>1093</v>
+      <c r="P139" s="4" t="s">
+        <v>1094</v>
       </c>
       <c r="Q139" s="0" t="s">
         <v>849</v>
@@ -33864,10 +33896,10 @@
         <v>692</v>
       </c>
       <c r="T139" s="0" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
         <v>599</v>
       </c>
@@ -33878,10 +33910,10 @@
         <v>4</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="F140" s="0" t="s">
         <v>701</v>
@@ -33898,11 +33930,11 @@
       <c r="O140" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P140" s="3" t="s">
-        <v>1096</v>
+      <c r="P140" s="4" t="s">
+        <v>1097</v>
       </c>
       <c r="Q140" s="0" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="R140" s="0" t="s">
         <v>661</v>
@@ -33911,10 +33943,10 @@
         <v>692</v>
       </c>
       <c r="T140" s="0" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
         <v>599</v>
       </c>
@@ -33925,10 +33957,10 @@
         <v>5</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="F141" s="0" t="s">
         <v>894</v>
@@ -33945,11 +33977,11 @@
       <c r="O141" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P141" s="3" t="s">
-        <v>1100</v>
+      <c r="P141" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="Q141" s="0" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="R141" s="0" t="s">
         <v>661</v>
@@ -33958,10 +33990,10 @@
         <v>692</v>
       </c>
       <c r="T141" s="0" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
         <v>599</v>
       </c>
@@ -33972,10 +34004,10 @@
         <v>6</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="F142" s="0" t="s">
         <v>894</v>
@@ -33989,11 +34021,11 @@
       <c r="M142" s="0" t="s">
         <v>896</v>
       </c>
-      <c r="P142" s="3" t="s">
-        <v>1104</v>
+      <c r="P142" s="4" t="s">
+        <v>1105</v>
       </c>
       <c r="Q142" s="0" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="R142" s="0" t="s">
         <v>661</v>
@@ -34002,10 +34034,10 @@
         <v>692</v>
       </c>
       <c r="T142" s="0" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
         <v>599</v>
       </c>
@@ -34039,8 +34071,8 @@
       <c r="O143" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P143" s="3" t="s">
-        <v>1106</v>
+      <c r="P143" s="4" t="s">
+        <v>1107</v>
       </c>
       <c r="Q143" s="0" t="s">
         <v>779</v>
@@ -34052,10 +34084,10 @@
         <v>692</v>
       </c>
       <c r="T143" s="0" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
         <v>610</v>
       </c>
@@ -34066,10 +34098,10 @@
         <v>1</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="F144" s="0" t="s">
         <v>659</v>
@@ -34092,11 +34124,11 @@
       <c r="N144" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="P144" s="3" t="s">
-        <v>1109</v>
+      <c r="P144" s="4" t="s">
+        <v>1110</v>
       </c>
       <c r="Q144" s="0" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="R144" s="0" t="s">
         <v>667</v>
@@ -34105,10 +34137,10 @@
         <v>668</v>
       </c>
       <c r="T144" s="0" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
         <v>610</v>
       </c>
@@ -34148,7 +34180,7 @@
       <c r="O145" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P145" s="3" t="s">
+      <c r="P145" s="4" t="s">
         <v>697</v>
       </c>
       <c r="Q145" s="0" t="s">
@@ -34161,10 +34193,10 @@
         <v>668</v>
       </c>
       <c r="T145" s="0" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
         <v>610</v>
       </c>
@@ -34201,8 +34233,8 @@
       <c r="O146" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P146" s="3" t="s">
-        <v>1112</v>
+      <c r="P146" s="4" t="s">
+        <v>1113</v>
       </c>
       <c r="Q146" s="0" t="s">
         <v>676</v>
@@ -34214,10 +34246,10 @@
         <v>668</v>
       </c>
       <c r="T146" s="0" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
         <v>610</v>
       </c>
@@ -34251,8 +34283,8 @@
       <c r="N147" s="0" t="s">
         <v>707</v>
       </c>
-      <c r="P147" s="3" t="s">
-        <v>1113</v>
+      <c r="P147" s="4" t="s">
+        <v>1114</v>
       </c>
       <c r="Q147" s="0" t="s">
         <v>709</v>
@@ -34264,10 +34296,10 @@
         <v>668</v>
       </c>
       <c r="T147" s="0" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
         <v>610</v>
       </c>
@@ -34278,10 +34310,10 @@
         <v>5</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="F148" s="0" t="s">
         <v>744</v>
@@ -34301,11 +34333,11 @@
       <c r="O148" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P148" s="3" t="s">
-        <v>1116</v>
+      <c r="P148" s="4" t="s">
+        <v>1117</v>
       </c>
       <c r="Q148" s="0" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="R148" s="0" t="s">
         <v>661</v>
@@ -34314,10 +34346,10 @@
         <v>668</v>
       </c>
       <c r="T148" s="0" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
         <v>610</v>
       </c>
@@ -34328,10 +34360,10 @@
         <v>6</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="F149" s="0" t="s">
         <v>679</v>
@@ -34348,11 +34380,11 @@
       <c r="N149" s="0" t="s">
         <v>681</v>
       </c>
-      <c r="P149" s="3" t="s">
-        <v>1120</v>
+      <c r="P149" s="4" t="s">
+        <v>1121</v>
       </c>
       <c r="Q149" s="0" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="R149" s="0" t="s">
         <v>661</v>
@@ -34361,10 +34393,10 @@
         <v>668</v>
       </c>
       <c r="T149" s="0" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
         <v>610</v>
       </c>
@@ -34398,8 +34430,8 @@
       <c r="O150" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P150" s="3" t="s">
-        <v>1122</v>
+      <c r="P150" s="4" t="s">
+        <v>1123</v>
       </c>
       <c r="Q150" s="0" t="s">
         <v>779</v>
@@ -34411,10 +34443,10 @@
         <v>668</v>
       </c>
       <c r="T150" s="0" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
         <v>610</v>
       </c>
@@ -34451,8 +34483,8 @@
       <c r="O151" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P151" s="3" t="s">
-        <v>1123</v>
+      <c r="P151" s="4" t="s">
+        <v>1124</v>
       </c>
       <c r="Q151" s="0" t="s">
         <v>733</v>
@@ -34464,10 +34496,10 @@
         <v>668</v>
       </c>
       <c r="T151" s="0" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
         <v>610</v>
       </c>
@@ -34478,10 +34510,10 @@
         <v>1</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="F152" s="0" t="s">
         <v>659</v>
@@ -34504,11 +34536,11 @@
       <c r="N152" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="P152" s="3" t="s">
-        <v>1126</v>
+      <c r="P152" s="4" t="s">
+        <v>1127</v>
       </c>
       <c r="Q152" s="0" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="R152" s="0" t="s">
         <v>667</v>
@@ -34517,10 +34549,10 @@
         <v>668</v>
       </c>
       <c r="T152" s="0" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
         <v>610</v>
       </c>
@@ -34531,10 +34563,10 @@
         <v>2</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="F153" s="0" t="s">
         <v>672</v>
@@ -34560,11 +34592,11 @@
       <c r="O153" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P153" s="3" t="s">
-        <v>1129</v>
+      <c r="P153" s="4" t="s">
+        <v>1130</v>
       </c>
       <c r="Q153" s="0" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="R153" s="0" t="s">
         <v>661</v>
@@ -34573,10 +34605,10 @@
         <v>668</v>
       </c>
       <c r="T153" s="0" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
         <v>610</v>
       </c>
@@ -34587,7 +34619,7 @@
         <v>3</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="E154" s="0" t="s">
         <v>32</v>
@@ -34607,7 +34639,7 @@
       <c r="L154" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="P154" s="3" t="s">
+      <c r="P154" s="4" t="s">
         <v>830</v>
       </c>
       <c r="Q154" s="0" t="s">
@@ -34620,10 +34652,10 @@
         <v>668</v>
       </c>
       <c r="T154" s="0" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
         <v>610</v>
       </c>
@@ -34634,10 +34666,10 @@
         <v>4</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="F155" s="0" t="s">
         <v>744</v>
@@ -34657,8 +34689,8 @@
       <c r="O155" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P155" s="3" t="s">
-        <v>1134</v>
+      <c r="P155" s="4" t="s">
+        <v>1135</v>
       </c>
       <c r="Q155" s="0" t="s">
         <v>835</v>
@@ -34670,10 +34702,10 @@
         <v>668</v>
       </c>
       <c r="T155" s="0" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
         <v>610</v>
       </c>
@@ -34684,10 +34716,10 @@
         <v>5</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="F156" s="0" t="s">
         <v>679</v>
@@ -34707,8 +34739,8 @@
       <c r="O156" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P156" s="3" t="s">
-        <v>1137</v>
+      <c r="P156" s="4" t="s">
+        <v>1138</v>
       </c>
       <c r="Q156" s="0" t="s">
         <v>839</v>
@@ -34720,10 +34752,10 @@
         <v>668</v>
       </c>
       <c r="T156" s="0" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
         <v>610</v>
       </c>
@@ -34757,8 +34789,8 @@
       <c r="O157" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P157" s="3" t="s">
-        <v>1138</v>
+      <c r="P157" s="4" t="s">
+        <v>1139</v>
       </c>
       <c r="Q157" s="0" t="s">
         <v>779</v>
@@ -34770,10 +34802,10 @@
         <v>668</v>
       </c>
       <c r="T157" s="0" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
         <v>599</v>
       </c>
@@ -34810,11 +34842,11 @@
       <c r="N158" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="P158" s="3" t="s">
-        <v>1139</v>
+      <c r="P158" s="4" t="s">
+        <v>1140</v>
       </c>
       <c r="Q158" s="0" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="R158" s="0" t="s">
         <v>667</v>
@@ -34823,10 +34855,10 @@
         <v>692</v>
       </c>
       <c r="T158" s="0" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
         <v>599</v>
       </c>
@@ -34863,11 +34895,11 @@
       <c r="N159" s="0" t="s">
         <v>696</v>
       </c>
-      <c r="P159" s="3" t="s">
-        <v>1142</v>
+      <c r="P159" s="4" t="s">
+        <v>1143</v>
       </c>
       <c r="Q159" s="0" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="R159" s="0" t="s">
         <v>667</v>
@@ -34876,10 +34908,10 @@
         <v>692</v>
       </c>
       <c r="T159" s="0" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
         <v>599</v>
       </c>
@@ -34890,7 +34922,7 @@
         <v>3</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="E160" s="0" t="s">
         <v>19</v>
@@ -34913,11 +34945,11 @@
       <c r="L160" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="P160" s="3" t="s">
-        <v>1145</v>
+      <c r="P160" s="4" t="s">
+        <v>1146</v>
       </c>
       <c r="Q160" s="0" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="R160" s="0" t="s">
         <v>661</v>
@@ -34926,10 +34958,10 @@
         <v>692</v>
       </c>
       <c r="T160" s="0" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
         <v>599</v>
       </c>
@@ -34969,8 +35001,8 @@
       <c r="O161" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P161" s="3" t="s">
-        <v>1147</v>
+      <c r="P161" s="4" t="s">
+        <v>1148</v>
       </c>
       <c r="Q161" s="0" t="s">
         <v>981</v>
@@ -34982,10 +35014,10 @@
         <v>692</v>
       </c>
       <c r="T161" s="0" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
         <v>599</v>
       </c>
@@ -35014,7 +35046,7 @@
         <v>1004</v>
       </c>
       <c r="J162" s="0" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="L162" s="0" t="n">
         <v>50</v>
@@ -35028,11 +35060,11 @@
       <c r="O162" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P162" s="3" t="s">
-        <v>1149</v>
+      <c r="P162" s="4" t="s">
+        <v>1150</v>
       </c>
       <c r="Q162" s="0" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="R162" s="0" t="s">
         <v>661</v>
@@ -35041,10 +35073,10 @@
         <v>692</v>
       </c>
       <c r="T162" s="0" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
         <v>599</v>
       </c>
@@ -35055,10 +35087,10 @@
         <v>6</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="F163" s="0" t="s">
         <v>744</v>
@@ -35073,13 +35105,13 @@
         <v>1004</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="P163" s="3" t="s">
         <v>1154</v>
       </c>
+      <c r="P163" s="4" t="s">
+        <v>1155</v>
+      </c>
       <c r="Q163" s="0" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="R163" s="0" t="s">
         <v>661</v>
@@ -35088,10 +35120,10 @@
         <v>692</v>
       </c>
       <c r="T163" s="0" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
         <v>599</v>
       </c>
@@ -35120,7 +35152,7 @@
         <v>1004</v>
       </c>
       <c r="J164" s="0" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="L164" s="0" t="n">
         <v>3</v>
@@ -35128,8 +35160,8 @@
       <c r="O164" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P164" s="3" t="s">
-        <v>1156</v>
+      <c r="P164" s="4" t="s">
+        <v>1157</v>
       </c>
       <c r="Q164" s="0" t="s">
         <v>779</v>
@@ -35141,10 +35173,10 @@
         <v>692</v>
       </c>
       <c r="T164" s="0" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
         <v>599</v>
       </c>
@@ -35155,10 +35187,10 @@
         <v>8</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="F165" s="0" t="s">
         <v>679</v>
@@ -35175,11 +35207,11 @@
       <c r="N165" s="0" t="s">
         <v>681</v>
       </c>
-      <c r="P165" s="3" t="s">
-        <v>1159</v>
+      <c r="P165" s="4" t="s">
+        <v>1160</v>
       </c>
       <c r="Q165" s="0" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="R165" s="0" t="s">
         <v>661</v>
@@ -35188,10 +35220,10 @@
         <v>692</v>
       </c>
       <c r="T165" s="0" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
         <v>599</v>
       </c>
@@ -35202,10 +35234,10 @@
         <v>9</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="F166" s="0" t="s">
         <v>679</v>
@@ -35222,11 +35254,11 @@
       <c r="N166" s="0" t="s">
         <v>681</v>
       </c>
-      <c r="P166" s="3" t="s">
-        <v>1163</v>
+      <c r="P166" s="4" t="s">
+        <v>1164</v>
       </c>
       <c r="Q166" s="0" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="R166" s="0" t="s">
         <v>661</v>
@@ -35235,10 +35267,10 @@
         <v>692</v>
       </c>
       <c r="T166" s="0" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
         <v>610</v>
       </c>
@@ -35249,10 +35281,10 @@
         <v>1</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="F167" s="0" t="s">
         <v>659</v>
@@ -35275,11 +35307,11 @@
       <c r="N167" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="P167" s="3" t="s">
-        <v>1167</v>
+      <c r="P167" s="4" t="s">
+        <v>1168</v>
       </c>
       <c r="Q167" s="0" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="R167" s="0" t="s">
         <v>667</v>
@@ -35288,10 +35320,10 @@
         <v>668</v>
       </c>
       <c r="T167" s="0" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
         <v>610</v>
       </c>
@@ -35331,8 +35363,8 @@
       <c r="O168" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P168" s="3" t="s">
-        <v>1170</v>
+      <c r="P168" s="4" t="s">
+        <v>1171</v>
       </c>
       <c r="Q168" s="0" t="s">
         <v>971</v>
@@ -35344,10 +35376,10 @@
         <v>668</v>
       </c>
       <c r="T168" s="0" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
         <v>610</v>
       </c>
@@ -35358,10 +35390,10 @@
         <v>3</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="E169" s="0" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="F169" s="0" t="s">
         <v>701</v>
@@ -35378,11 +35410,11 @@
       <c r="O169" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P169" s="3" t="s">
-        <v>1173</v>
+      <c r="P169" s="4" t="s">
+        <v>1174</v>
       </c>
       <c r="Q169" s="0" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="R169" s="0" t="s">
         <v>661</v>
@@ -35391,10 +35423,10 @@
         <v>668</v>
       </c>
       <c r="T169" s="0" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
         <v>610</v>
       </c>
@@ -35405,10 +35437,10 @@
         <v>4</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="E170" s="0" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="F170" s="0" t="s">
         <v>679</v>
@@ -35428,11 +35460,11 @@
       <c r="O170" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P170" s="3" t="s">
-        <v>1177</v>
+      <c r="P170" s="4" t="s">
+        <v>1178</v>
       </c>
       <c r="Q170" s="0" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="R170" s="0" t="s">
         <v>661</v>
@@ -35441,10 +35473,10 @@
         <v>668</v>
       </c>
       <c r="T170" s="0" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
         <v>610</v>
       </c>
@@ -35472,11 +35504,11 @@
       <c r="N171" s="0" t="s">
         <v>681</v>
       </c>
-      <c r="P171" s="3" t="s">
-        <v>1179</v>
+      <c r="P171" s="4" t="s">
+        <v>1180</v>
       </c>
       <c r="Q171" s="0" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="R171" s="0" t="s">
         <v>661</v>
@@ -35485,10 +35517,10 @@
         <v>668</v>
       </c>
       <c r="T171" s="0" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
         <v>610</v>
       </c>
@@ -35499,10 +35531,10 @@
         <v>1</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="F172" s="0" t="s">
         <v>659</v>
@@ -35525,11 +35557,11 @@
       <c r="N172" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="P172" s="3" t="s">
-        <v>1183</v>
+      <c r="P172" s="4" t="s">
+        <v>1184</v>
       </c>
       <c r="Q172" s="0" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="R172" s="0" t="s">
         <v>667</v>
@@ -35538,10 +35570,10 @@
         <v>668</v>
       </c>
       <c r="T172" s="0" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
         <v>610</v>
       </c>
@@ -35581,8 +35613,8 @@
       <c r="O173" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P173" s="3" t="s">
-        <v>1186</v>
+      <c r="P173" s="4" t="s">
+        <v>1187</v>
       </c>
       <c r="Q173" s="0" t="s">
         <v>676</v>
@@ -35594,10 +35626,10 @@
         <v>668</v>
       </c>
       <c r="T173" s="0" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
         <v>610</v>
       </c>
@@ -35608,10 +35640,10 @@
         <v>3</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="E174" s="0" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="F174" s="0" t="s">
         <v>679</v>
@@ -35628,11 +35660,11 @@
       <c r="N174" s="0" t="s">
         <v>681</v>
       </c>
-      <c r="P174" s="3" t="s">
-        <v>1189</v>
+      <c r="P174" s="4" t="s">
+        <v>1190</v>
       </c>
       <c r="Q174" s="0" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="R174" s="0" t="s">
         <v>661</v>
@@ -35641,10 +35673,10 @@
         <v>668</v>
       </c>
       <c r="T174" s="0" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
         <v>610</v>
       </c>
@@ -35655,10 +35687,10 @@
         <v>4</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="E175" s="0" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="F175" s="0" t="s">
         <v>679</v>
@@ -35672,11 +35704,11 @@
       <c r="N175" s="0" t="s">
         <v>681</v>
       </c>
-      <c r="P175" s="3" t="s">
-        <v>1193</v>
+      <c r="P175" s="4" t="s">
+        <v>1194</v>
       </c>
       <c r="Q175" s="0" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="R175" s="0" t="s">
         <v>661</v>
@@ -35685,10 +35717,10 @@
         <v>668</v>
       </c>
       <c r="T175" s="0" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
         <v>610</v>
       </c>
@@ -35725,11 +35757,11 @@
       <c r="O176" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P176" s="3" t="s">
-        <v>1195</v>
+      <c r="P176" s="4" t="s">
+        <v>1196</v>
       </c>
       <c r="Q176" s="0" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="R176" s="0" t="s">
         <v>661</v>
@@ -35738,10 +35770,10 @@
         <v>668</v>
       </c>
       <c r="T176" s="0" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
         <v>610</v>
       </c>
@@ -35781,11 +35813,11 @@
       <c r="O177" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P177" s="3" t="s">
-        <v>1197</v>
+      <c r="P177" s="4" t="s">
+        <v>1198</v>
       </c>
       <c r="Q177" s="0" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="R177" s="0" t="s">
         <v>667</v>
@@ -35794,10 +35826,10 @@
         <v>668</v>
       </c>
       <c r="T177" s="0" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
         <v>610</v>
       </c>
@@ -35808,10 +35840,10 @@
         <v>2</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="E178" s="0" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="F178" s="0" t="s">
         <v>701</v>
@@ -35828,11 +35860,11 @@
       <c r="L178" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="P178" s="3" t="s">
-        <v>1202</v>
+      <c r="P178" s="4" t="s">
+        <v>1203</v>
       </c>
       <c r="Q178" s="0" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="R178" s="0" t="s">
         <v>661</v>
@@ -35841,10 +35873,10 @@
         <v>668</v>
       </c>
       <c r="T178" s="0" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
         <v>610</v>
       </c>
@@ -35855,10 +35887,10 @@
         <v>3</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="E179" s="0" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="F179" s="0" t="s">
         <v>679</v>
@@ -35878,11 +35910,11 @@
       <c r="O179" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P179" s="3" t="s">
-        <v>1206</v>
+      <c r="P179" s="4" t="s">
+        <v>1207</v>
       </c>
       <c r="Q179" s="0" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="R179" s="0" t="s">
         <v>661</v>
@@ -35891,10 +35923,10 @@
         <v>668</v>
       </c>
       <c r="T179" s="0" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
         <v>610</v>
       </c>
@@ -35905,10 +35937,10 @@
         <v>4</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="E180" s="0" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="F180" s="0" t="s">
         <v>679</v>
@@ -35922,11 +35954,11 @@
       <c r="O180" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P180" s="3" t="s">
-        <v>1210</v>
+      <c r="P180" s="4" t="s">
+        <v>1211</v>
       </c>
       <c r="Q180" s="0" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="R180" s="0" t="s">
         <v>661</v>
@@ -35935,10 +35967,10 @@
         <v>668</v>
       </c>
       <c r="T180" s="0" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
         <v>610</v>
       </c>
@@ -35949,7 +35981,7 @@
         <v>5</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="E181" s="0" t="s">
         <v>283</v>
@@ -35966,11 +35998,11 @@
       <c r="L181" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="P181" s="3" t="s">
-        <v>1213</v>
+      <c r="P181" s="4" t="s">
+        <v>1214</v>
       </c>
       <c r="Q181" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="R181" s="0" t="s">
         <v>661</v>
@@ -35979,10 +36011,10 @@
         <v>668</v>
       </c>
       <c r="T181" s="0" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
         <v>610</v>
       </c>
@@ -35993,10 +36025,10 @@
         <v>6</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="E182" s="0" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="F182" s="0" t="s">
         <v>672</v>
@@ -36016,11 +36048,11 @@
       <c r="O182" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P182" s="3" t="s">
-        <v>1217</v>
+      <c r="P182" s="4" t="s">
+        <v>1218</v>
       </c>
       <c r="Q182" s="0" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="R182" s="0" t="s">
         <v>661</v>
@@ -36029,10 +36061,10 @@
         <v>668</v>
       </c>
       <c r="T182" s="0" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
         <v>610</v>
       </c>
@@ -36057,11 +36089,11 @@
       <c r="H183" s="0" t="s">
         <v>667</v>
       </c>
-      <c r="P183" s="3" t="s">
-        <v>1219</v>
+      <c r="P183" s="4" t="s">
+        <v>1220</v>
       </c>
       <c r="Q183" s="0" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="R183" s="0" t="s">
         <v>661</v>
@@ -36070,10 +36102,10 @@
         <v>668</v>
       </c>
       <c r="T183" s="0" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
         <v>610</v>
       </c>
@@ -36084,10 +36116,10 @@
         <v>1</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="E184" s="0" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="F184" s="0" t="s">
         <v>659</v>
@@ -36110,11 +36142,11 @@
       <c r="N184" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="P184" s="3" t="s">
-        <v>1223</v>
+      <c r="P184" s="4" t="s">
+        <v>1224</v>
       </c>
       <c r="Q184" s="0" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="R184" s="0" t="s">
         <v>667</v>
@@ -36123,10 +36155,10 @@
         <v>668</v>
       </c>
       <c r="T184" s="0" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
         <v>610</v>
       </c>
@@ -36166,8 +36198,8 @@
       <c r="O185" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P185" s="3" t="s">
-        <v>1226</v>
+      <c r="P185" s="4" t="s">
+        <v>1227</v>
       </c>
       <c r="Q185" s="0" t="s">
         <v>971</v>
@@ -36179,10 +36211,10 @@
         <v>668</v>
       </c>
       <c r="T185" s="0" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
         <v>610</v>
       </c>
@@ -36216,8 +36248,8 @@
       <c r="O186" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P186" s="3" t="s">
-        <v>1227</v>
+      <c r="P186" s="4" t="s">
+        <v>1228</v>
       </c>
       <c r="Q186" s="0" t="s">
         <v>798</v>
@@ -36229,10 +36261,10 @@
         <v>668</v>
       </c>
       <c r="T186" s="0" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
         <v>610</v>
       </c>
@@ -36243,10 +36275,10 @@
         <v>4</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="E187" s="0" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="F187" s="0" t="s">
         <v>679</v>
@@ -36266,11 +36298,11 @@
       <c r="O187" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P187" s="3" t="s">
-        <v>1230</v>
+      <c r="P187" s="4" t="s">
+        <v>1231</v>
       </c>
       <c r="Q187" s="0" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="R187" s="0" t="s">
         <v>661</v>
@@ -36279,10 +36311,10 @@
         <v>668</v>
       </c>
       <c r="T187" s="0" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
         <v>599</v>
       </c>
@@ -36293,10 +36325,10 @@
         <v>1</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="E188" s="0" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="F188" s="0" t="s">
         <v>659</v>
@@ -36319,11 +36351,11 @@
       <c r="N188" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="P188" s="3" t="s">
-        <v>1234</v>
+      <c r="P188" s="4" t="s">
+        <v>1235</v>
       </c>
       <c r="Q188" s="0" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="R188" s="0" t="s">
         <v>667</v>
@@ -36332,10 +36364,10 @@
         <v>692</v>
       </c>
       <c r="T188" s="0" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
         <v>599</v>
       </c>
@@ -36375,8 +36407,8 @@
       <c r="O189" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P189" s="3" t="s">
-        <v>1237</v>
+      <c r="P189" s="4" t="s">
+        <v>1238</v>
       </c>
       <c r="Q189" s="0" t="s">
         <v>849</v>
@@ -36388,10 +36420,10 @@
         <v>692</v>
       </c>
       <c r="T189" s="0" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
         <v>599</v>
       </c>
@@ -36431,8 +36463,8 @@
       <c r="O190" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P190" s="3" t="s">
-        <v>1238</v>
+      <c r="P190" s="4" t="s">
+        <v>1239</v>
       </c>
       <c r="Q190" s="0" t="s">
         <v>849</v>
@@ -36444,10 +36476,10 @@
         <v>692</v>
       </c>
       <c r="T190" s="0" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
         <v>599</v>
       </c>
@@ -36458,7 +36490,7 @@
         <v>4</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="E191" s="0" t="s">
         <v>138</v>
@@ -36478,11 +36510,11 @@
       <c r="L191" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="P191" s="3" t="s">
-        <v>1240</v>
+      <c r="P191" s="4" t="s">
+        <v>1241</v>
       </c>
       <c r="Q191" s="0" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="R191" s="0" t="s">
         <v>661</v>
@@ -36491,10 +36523,10 @@
         <v>692</v>
       </c>
       <c r="T191" s="0" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
         <v>599</v>
       </c>
@@ -36528,8 +36560,8 @@
       <c r="O192" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P192" s="3" t="s">
-        <v>1242</v>
+      <c r="P192" s="4" t="s">
+        <v>1243</v>
       </c>
       <c r="Q192" s="0" t="s">
         <v>779</v>
@@ -36541,10 +36573,10 @@
         <v>692</v>
       </c>
       <c r="T192" s="0" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
         <v>599</v>
       </c>
@@ -36555,10 +36587,10 @@
         <v>6</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="E193" s="0" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="F193" s="0" t="s">
         <v>744</v>
@@ -36575,11 +36607,11 @@
       <c r="M193" s="0" t="s">
         <v>746</v>
       </c>
-      <c r="P193" s="3" t="s">
-        <v>1245</v>
+      <c r="P193" s="4" t="s">
+        <v>1246</v>
       </c>
       <c r="Q193" s="0" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="R193" s="0" t="s">
         <v>661</v>
@@ -36588,10 +36620,10 @@
         <v>692</v>
       </c>
       <c r="T193" s="0" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
         <v>599</v>
       </c>
@@ -36602,10 +36634,10 @@
         <v>7</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="E194" s="0" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="F194" s="0" t="s">
         <v>744</v>
@@ -36622,11 +36654,11 @@
       <c r="M194" s="0" t="s">
         <v>746</v>
       </c>
-      <c r="P194" s="3" t="s">
-        <v>1249</v>
+      <c r="P194" s="4" t="s">
+        <v>1250</v>
       </c>
       <c r="Q194" s="0" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="R194" s="0" t="s">
         <v>661</v>
@@ -36635,10 +36667,10 @@
         <v>692</v>
       </c>
       <c r="T194" s="0" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
         <v>599</v>
       </c>
@@ -36675,11 +36707,11 @@
       <c r="N195" s="0" t="s">
         <v>696</v>
       </c>
-      <c r="P195" s="3" t="s">
-        <v>1251</v>
+      <c r="P195" s="4" t="s">
+        <v>1252</v>
       </c>
       <c r="Q195" s="0" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="R195" s="0" t="s">
         <v>667</v>
@@ -36688,10 +36720,10 @@
         <v>692</v>
       </c>
       <c r="T195" s="0" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
         <v>599</v>
       </c>
@@ -36702,10 +36734,10 @@
         <v>2</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="E196" s="0" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="F196" s="0" t="s">
         <v>701</v>
@@ -36722,11 +36754,11 @@
       <c r="L196" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="P196" s="3" t="s">
-        <v>1256</v>
+      <c r="P196" s="4" t="s">
+        <v>1257</v>
       </c>
       <c r="Q196" s="0" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="R196" s="0" t="s">
         <v>661</v>
@@ -36735,10 +36767,10 @@
         <v>692</v>
       </c>
       <c r="T196" s="0" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
         <v>610</v>
       </c>
@@ -36775,11 +36807,11 @@
       <c r="N197" s="0" t="s">
         <v>696</v>
       </c>
-      <c r="P197" s="3" t="s">
-        <v>1251</v>
+      <c r="P197" s="4" t="s">
+        <v>1252</v>
       </c>
       <c r="Q197" s="0" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="R197" s="0" t="s">
         <v>667</v>
@@ -36788,10 +36820,10 @@
         <v>668</v>
       </c>
       <c r="T197" s="0" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
         <v>610</v>
       </c>
@@ -36802,10 +36834,10 @@
         <v>2</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="E198" s="0" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="F198" s="0" t="s">
         <v>701</v>
@@ -36825,11 +36857,11 @@
       <c r="O198" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P198" s="3" t="s">
-        <v>1256</v>
+      <c r="P198" s="4" t="s">
+        <v>1257</v>
       </c>
       <c r="Q198" s="0" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="R198" s="0" t="s">
         <v>661</v>
@@ -36838,10 +36870,10 @@
         <v>668</v>
       </c>
       <c r="T198" s="0" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
         <v>599</v>
       </c>
@@ -36852,10 +36884,10 @@
         <v>1</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="E199" s="0" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="F199" s="0" t="s">
         <v>659</v>
@@ -36878,11 +36910,11 @@
       <c r="N199" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="P199" s="3" t="s">
-        <v>1261</v>
+      <c r="P199" s="4" t="s">
+        <v>1262</v>
       </c>
       <c r="Q199" s="0" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="R199" s="0" t="s">
         <v>667</v>
@@ -36891,10 +36923,10 @@
         <v>692</v>
       </c>
       <c r="T199" s="0" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
         <v>599</v>
       </c>
@@ -36931,8 +36963,8 @@
       <c r="N200" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="P200" s="3" t="s">
-        <v>1264</v>
+      <c r="P200" s="4" t="s">
+        <v>1265</v>
       </c>
       <c r="Q200" s="0" t="s">
         <v>849</v>
@@ -36944,10 +36976,10 @@
         <v>692</v>
       </c>
       <c r="T200" s="0" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
         <v>599</v>
       </c>
@@ -36987,8 +37019,8 @@
       <c r="O201" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P201" s="3" t="s">
-        <v>1265</v>
+      <c r="P201" s="4" t="s">
+        <v>1266</v>
       </c>
       <c r="Q201" s="0" t="s">
         <v>849</v>
@@ -37000,10 +37032,10 @@
         <v>692</v>
       </c>
       <c r="T201" s="0" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
         <v>599</v>
       </c>
@@ -37014,7 +37046,7 @@
         <v>4</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="E202" s="0" t="s">
         <v>228</v>
@@ -37034,11 +37066,11 @@
       <c r="L202" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="P202" s="3" t="s">
-        <v>1267</v>
+      <c r="P202" s="4" t="s">
+        <v>1268</v>
       </c>
       <c r="Q202" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="R202" s="0" t="s">
         <v>661</v>
@@ -37047,10 +37079,10 @@
         <v>692</v>
       </c>
       <c r="T202" s="0" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
         <v>599</v>
       </c>
@@ -37061,10 +37093,10 @@
         <v>5</v>
       </c>
       <c r="D203" s="0" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="E203" s="0" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="F203" s="0" t="s">
         <v>744</v>
@@ -37081,11 +37113,11 @@
       <c r="M203" s="0" t="s">
         <v>746</v>
       </c>
-      <c r="P203" s="3" t="s">
-        <v>1271</v>
+      <c r="P203" s="4" t="s">
+        <v>1272</v>
       </c>
       <c r="Q203" s="0" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="R203" s="0" t="s">
         <v>661</v>
@@ -37094,10 +37126,10 @@
         <v>692</v>
       </c>
       <c r="T203" s="0" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
         <v>599</v>
       </c>
@@ -37128,8 +37160,8 @@
       <c r="L204" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="P204" s="3" t="s">
-        <v>1273</v>
+      <c r="P204" s="4" t="s">
+        <v>1274</v>
       </c>
       <c r="Q204" s="0" t="s">
         <v>779</v>
@@ -37141,10 +37173,10 @@
         <v>692</v>
       </c>
       <c r="T204" s="0" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
         <v>599</v>
       </c>
@@ -37173,16 +37205,16 @@
         <v>1004</v>
       </c>
       <c r="J205" s="0" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="O205" s="0" t="s">
-        <v>1275</v>
-      </c>
-      <c r="P205" s="3" t="s">
         <v>1276</v>
       </c>
+      <c r="P205" s="4" t="s">
+        <v>1277</v>
+      </c>
       <c r="Q205" s="0" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="R205" s="0" t="s">
         <v>661</v>
@@ -37191,10 +37223,10 @@
         <v>692</v>
       </c>
       <c r="T205" s="0" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
         <v>610</v>
       </c>
@@ -37205,10 +37237,10 @@
         <v>1</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="E206" s="0" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="F206" s="0" t="s">
         <v>659</v>
@@ -37231,11 +37263,11 @@
       <c r="N206" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="P206" s="3" t="s">
-        <v>1280</v>
+      <c r="P206" s="4" t="s">
+        <v>1281</v>
       </c>
       <c r="Q206" s="0" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="R206" s="0" t="s">
         <v>667</v>
@@ -37244,10 +37276,10 @@
         <v>668</v>
       </c>
       <c r="T206" s="0" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
         <v>610</v>
       </c>
@@ -37287,11 +37319,11 @@
       <c r="O207" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P207" s="3" t="s">
-        <v>1283</v>
+      <c r="P207" s="4" t="s">
+        <v>1284</v>
       </c>
       <c r="Q207" s="0" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="R207" s="0" t="s">
         <v>661</v>
@@ -37300,10 +37332,10 @@
         <v>668</v>
       </c>
       <c r="T207" s="0" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
         <v>610</v>
       </c>
@@ -37343,7 +37375,7 @@
       <c r="O208" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P208" s="3" t="s">
+      <c r="P208" s="4" t="s">
         <v>697</v>
       </c>
       <c r="Q208" s="0" t="s">
@@ -37356,10 +37388,10 @@
         <v>668</v>
       </c>
       <c r="T208" s="0" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
         <v>610</v>
       </c>
@@ -37370,10 +37402,10 @@
         <v>4</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="E209" s="0" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="F209" s="0" t="s">
         <v>701</v>
@@ -37390,11 +37422,11 @@
       <c r="L209" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="P209" s="3" t="s">
-        <v>1287</v>
+      <c r="P209" s="4" t="s">
+        <v>1288</v>
       </c>
       <c r="Q209" s="0" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="R209" s="0" t="s">
         <v>661</v>
@@ -37403,10 +37435,10 @@
         <v>668</v>
       </c>
       <c r="T209" s="0" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
         <v>610</v>
       </c>
@@ -37417,10 +37449,10 @@
         <v>5</v>
       </c>
       <c r="D210" s="0" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="E210" s="0" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="F210" s="0" t="s">
         <v>744</v>
@@ -37437,11 +37469,11 @@
       <c r="O210" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P210" s="3" t="s">
-        <v>1291</v>
+      <c r="P210" s="4" t="s">
+        <v>1292</v>
       </c>
       <c r="Q210" s="0" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="R210" s="0" t="s">
         <v>661</v>
@@ -37450,10 +37482,10 @@
         <v>668</v>
       </c>
       <c r="T210" s="0" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
         <v>610</v>
       </c>
@@ -37464,10 +37496,10 @@
         <v>6</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="E211" s="0" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="F211" s="0" t="s">
         <v>679</v>
@@ -37484,11 +37516,11 @@
       <c r="O211" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P211" s="3" t="s">
-        <v>1295</v>
+      <c r="P211" s="4" t="s">
+        <v>1296</v>
       </c>
       <c r="Q211" s="0" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="R211" s="0" t="s">
         <v>661</v>
@@ -37497,10 +37529,10 @@
         <v>668</v>
       </c>
       <c r="T211" s="0" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
         <v>610</v>
       </c>
@@ -37511,10 +37543,10 @@
         <v>7</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="E212" s="0" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="F212" s="0" t="s">
         <v>701</v>
@@ -37531,11 +37563,11 @@
       <c r="O212" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P212" s="3" t="s">
-        <v>1299</v>
+      <c r="P212" s="4" t="s">
+        <v>1300</v>
       </c>
       <c r="Q212" s="0" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="R212" s="0" t="s">
         <v>661</v>
@@ -37544,10 +37576,10 @@
         <v>668</v>
       </c>
       <c r="T212" s="0" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
         <v>610</v>
       </c>
@@ -37558,10 +37590,10 @@
         <v>8</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="E213" s="0" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="F213" s="0" t="s">
         <v>744</v>
@@ -37578,11 +37610,11 @@
       <c r="O213" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P213" s="3" t="s">
-        <v>1303</v>
+      <c r="P213" s="4" t="s">
+        <v>1304</v>
       </c>
       <c r="Q213" s="0" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="R213" s="0" t="s">
         <v>661</v>
@@ -37591,10 +37623,10 @@
         <v>668</v>
       </c>
       <c r="T213" s="0" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
         <v>610</v>
       </c>
@@ -37605,10 +37637,10 @@
         <v>9</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="E214" s="0" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="F214" s="0" t="s">
         <v>679</v>
@@ -37625,11 +37657,11 @@
       <c r="O214" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P214" s="3" t="s">
-        <v>1307</v>
+      <c r="P214" s="4" t="s">
+        <v>1308</v>
       </c>
       <c r="Q214" s="0" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="R214" s="0" t="s">
         <v>661</v>
@@ -37638,10 +37670,10 @@
         <v>668</v>
       </c>
       <c r="T214" s="0" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
         <v>610</v>
       </c>
@@ -37652,10 +37684,10 @@
         <v>10</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="E215" s="0" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="F215" s="0" t="s">
         <v>701</v>
@@ -37672,11 +37704,11 @@
       <c r="O215" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P215" s="3" t="s">
-        <v>1311</v>
+      <c r="P215" s="4" t="s">
+        <v>1312</v>
       </c>
       <c r="Q215" s="0" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="R215" s="0" t="s">
         <v>661</v>
@@ -37685,10 +37717,10 @@
         <v>668</v>
       </c>
       <c r="T215" s="0" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
         <v>610</v>
       </c>
@@ -37699,10 +37731,10 @@
         <v>1</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="E216" s="0" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="F216" s="0" t="s">
         <v>659</v>
@@ -37725,11 +37757,11 @@
       <c r="N216" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="P216" s="3" t="s">
-        <v>1315</v>
+      <c r="P216" s="4" t="s">
+        <v>1316</v>
       </c>
       <c r="Q216" s="0" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="R216" s="0" t="s">
         <v>667</v>
@@ -37738,10 +37770,10 @@
         <v>668</v>
       </c>
       <c r="T216" s="0" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
         <v>610</v>
       </c>
@@ -37752,10 +37784,10 @@
         <v>2</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="E217" s="0" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="F217" s="0" t="s">
         <v>672</v>
@@ -37781,11 +37813,11 @@
       <c r="O217" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P217" s="3" t="s">
-        <v>1318</v>
+      <c r="P217" s="4" t="s">
+        <v>1319</v>
       </c>
       <c r="Q217" s="0" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="R217" s="0" t="s">
         <v>661</v>
@@ -37794,10 +37826,10 @@
         <v>668</v>
       </c>
       <c r="T217" s="0" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
         <v>610</v>
       </c>
@@ -37808,7 +37840,7 @@
         <v>3</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="E218" s="0" t="s">
         <v>188</v>
@@ -37828,8 +37860,8 @@
       <c r="L218" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="P218" s="3" t="s">
-        <v>1321</v>
+      <c r="P218" s="4" t="s">
+        <v>1322</v>
       </c>
       <c r="Q218" s="0" t="s">
         <v>831</v>
@@ -37841,10 +37873,10 @@
         <v>668</v>
       </c>
       <c r="T218" s="0" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
         <v>610</v>
       </c>
@@ -37855,10 +37887,10 @@
         <v>4</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="E219" s="0" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="F219" s="0" t="s">
         <v>744</v>
@@ -37878,8 +37910,8 @@
       <c r="O219" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P219" s="3" t="s">
-        <v>1324</v>
+      <c r="P219" s="4" t="s">
+        <v>1325</v>
       </c>
       <c r="Q219" s="0" t="s">
         <v>835</v>
@@ -37891,10 +37923,10 @@
         <v>668</v>
       </c>
       <c r="T219" s="0" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
         <v>610</v>
       </c>
@@ -37905,10 +37937,10 @@
         <v>5</v>
       </c>
       <c r="D220" s="0" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="E220" s="0" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="F220" s="0" t="s">
         <v>679</v>
@@ -37928,8 +37960,8 @@
       <c r="O220" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P220" s="3" t="s">
-        <v>1327</v>
+      <c r="P220" s="4" t="s">
+        <v>1328</v>
       </c>
       <c r="Q220" s="0" t="s">
         <v>839</v>
@@ -37941,10 +37973,10 @@
         <v>668</v>
       </c>
       <c r="T220" s="0" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
         <v>610</v>
       </c>
@@ -37978,8 +38010,8 @@
       <c r="O221" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P221" s="3" t="s">
-        <v>1328</v>
+      <c r="P221" s="4" t="s">
+        <v>1329</v>
       </c>
       <c r="Q221" s="0" t="s">
         <v>779</v>
@@ -37991,10 +38023,10 @@
         <v>668</v>
       </c>
       <c r="T221" s="0" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
         <v>610</v>
       </c>
@@ -38005,10 +38037,10 @@
         <v>1</v>
       </c>
       <c r="D222" s="0" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="E222" s="0" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="F222" s="0" t="s">
         <v>659</v>
@@ -38031,11 +38063,11 @@
       <c r="N222" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="P222" s="3" t="s">
-        <v>1331</v>
+      <c r="P222" s="4" t="s">
+        <v>1332</v>
       </c>
       <c r="Q222" s="0" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="R222" s="0" t="s">
         <v>667</v>
@@ -38044,10 +38076,10 @@
         <v>668</v>
       </c>
       <c r="T222" s="0" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
         <v>610</v>
       </c>
@@ -38087,8 +38119,8 @@
       <c r="O223" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P223" s="3" t="s">
-        <v>1334</v>
+      <c r="P223" s="4" t="s">
+        <v>1335</v>
       </c>
       <c r="Q223" s="0" t="s">
         <v>676</v>
@@ -38100,10 +38132,10 @@
         <v>668</v>
       </c>
       <c r="T223" s="0" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
         <v>610</v>
       </c>
@@ -38114,7 +38146,7 @@
         <v>3</v>
       </c>
       <c r="D224" s="0" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="E224" s="0" t="s">
         <v>200</v>
@@ -38134,11 +38166,11 @@
       <c r="L224" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="P224" s="3" t="s">
-        <v>1336</v>
+      <c r="P224" s="4" t="s">
+        <v>1337</v>
       </c>
       <c r="Q224" s="0" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="R224" s="0" t="s">
         <v>661</v>
@@ -38147,10 +38179,10 @@
         <v>668</v>
       </c>
       <c r="T224" s="0" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
         <v>610</v>
       </c>
@@ -38161,10 +38193,10 @@
         <v>4</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="E225" s="0" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="F225" s="0" t="s">
         <v>744</v>
@@ -38179,16 +38211,16 @@
         <v>1004</v>
       </c>
       <c r="J225" s="0" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="M225" s="0" t="s">
         <v>746</v>
       </c>
-      <c r="P225" s="3" t="s">
-        <v>1341</v>
+      <c r="P225" s="4" t="s">
+        <v>1342</v>
       </c>
       <c r="Q225" s="0" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="R225" s="0" t="s">
         <v>661</v>
@@ -38197,10 +38229,10 @@
         <v>668</v>
       </c>
       <c r="T225" s="0" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
         <v>610</v>
       </c>
@@ -38211,10 +38243,10 @@
         <v>5</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="E226" s="0" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="F226" s="0" t="s">
         <v>894</v>
@@ -38229,16 +38261,16 @@
         <v>1004</v>
       </c>
       <c r="J226" s="0" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="M226" s="0" t="s">
         <v>896</v>
       </c>
-      <c r="P226" s="3" t="s">
-        <v>1346</v>
+      <c r="P226" s="4" t="s">
+        <v>1347</v>
       </c>
       <c r="Q226" s="0" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="R226" s="0" t="s">
         <v>661</v>
@@ -38247,10 +38279,10 @@
         <v>668</v>
       </c>
       <c r="T226" s="0" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
         <v>610</v>
       </c>
@@ -38261,10 +38293,10 @@
         <v>6</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="E227" s="0" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="F227" s="0" t="s">
         <v>894</v>
@@ -38279,16 +38311,16 @@
         <v>1004</v>
       </c>
       <c r="J227" s="0" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="M227" s="0" t="s">
         <v>896</v>
       </c>
-      <c r="P227" s="3" t="s">
-        <v>1351</v>
+      <c r="P227" s="4" t="s">
+        <v>1352</v>
       </c>
       <c r="Q227" s="0" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="R227" s="0" t="s">
         <v>661</v>
@@ -38297,10 +38329,10 @@
         <v>668</v>
       </c>
       <c r="T227" s="0" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
         <v>610</v>
       </c>
@@ -38311,10 +38343,10 @@
         <v>7</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="E228" s="0" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="F228" s="0" t="s">
         <v>679</v>
@@ -38331,11 +38363,11 @@
       <c r="N228" s="0" t="s">
         <v>681</v>
       </c>
-      <c r="P228" s="3" t="s">
-        <v>1355</v>
+      <c r="P228" s="4" t="s">
+        <v>1356</v>
       </c>
       <c r="Q228" s="0" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="R228" s="0" t="s">
         <v>661</v>
@@ -38344,10 +38376,10 @@
         <v>668</v>
       </c>
       <c r="T228" s="0" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
         <v>610</v>
       </c>
@@ -38358,10 +38390,10 @@
         <v>8</v>
       </c>
       <c r="D229" s="0" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="E229" s="0" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="F229" s="0" t="s">
         <v>679</v>
@@ -38378,11 +38410,11 @@
       <c r="N229" s="0" t="s">
         <v>681</v>
       </c>
-      <c r="P229" s="3" t="s">
-        <v>1359</v>
+      <c r="P229" s="4" t="s">
+        <v>1360</v>
       </c>
       <c r="Q229" s="0" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="R229" s="0" t="s">
         <v>661</v>
@@ -38391,10 +38423,10 @@
         <v>668</v>
       </c>
       <c r="T229" s="0" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
         <v>610</v>
       </c>
@@ -38405,7 +38437,7 @@
         <v>9</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="E230" s="0" t="s">
         <v>195</v>
@@ -38422,11 +38454,11 @@
       <c r="I230" s="0" t="s">
         <v>662</v>
       </c>
-      <c r="P230" s="3" t="s">
-        <v>1362</v>
+      <c r="P230" s="4" t="s">
+        <v>1363</v>
       </c>
       <c r="Q230" s="0" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="R230" s="0" t="s">
         <v>661</v>
@@ -38435,10 +38467,10 @@
         <v>668</v>
       </c>
       <c r="T230" s="0" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
         <v>610</v>
       </c>
@@ -38467,7 +38499,7 @@
         <v>1004</v>
       </c>
       <c r="J231" s="0" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="L231" s="0" t="n">
         <v>3</v>
@@ -38475,8 +38507,8 @@
       <c r="O231" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P231" s="3" t="s">
-        <v>1364</v>
+      <c r="P231" s="4" t="s">
+        <v>1365</v>
       </c>
       <c r="Q231" s="0" t="s">
         <v>779</v>
@@ -38488,10 +38520,10 @@
         <v>668</v>
       </c>
       <c r="T231" s="0" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
         <v>610</v>
       </c>
@@ -38502,10 +38534,10 @@
         <v>1</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="E232" s="0" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="F232" s="0" t="s">
         <v>659</v>
@@ -38528,11 +38560,11 @@
       <c r="N232" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="P232" s="3" t="s">
-        <v>1367</v>
+      <c r="P232" s="4" t="s">
+        <v>1368</v>
       </c>
       <c r="Q232" s="0" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="R232" s="0" t="s">
         <v>667</v>
@@ -38541,10 +38573,10 @@
         <v>668</v>
       </c>
       <c r="T232" s="0" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
         <v>610</v>
       </c>
@@ -38555,10 +38587,10 @@
         <v>2</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="E233" s="0" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="F233" s="0" t="s">
         <v>672</v>
@@ -38584,11 +38616,11 @@
       <c r="O233" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P233" s="3" t="s">
-        <v>1370</v>
+      <c r="P233" s="4" t="s">
+        <v>1371</v>
       </c>
       <c r="Q233" s="0" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="R233" s="0" t="s">
         <v>661</v>
@@ -38597,10 +38629,10 @@
         <v>668</v>
       </c>
       <c r="T233" s="0" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
         <v>610</v>
       </c>
@@ -38634,8 +38666,8 @@
       <c r="N234" s="0" t="s">
         <v>707</v>
       </c>
-      <c r="P234" s="3" t="s">
-        <v>1372</v>
+      <c r="P234" s="4" t="s">
+        <v>1373</v>
       </c>
       <c r="Q234" s="0" t="s">
         <v>709</v>
@@ -38647,10 +38679,10 @@
         <v>668</v>
       </c>
       <c r="T234" s="0" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
         <v>610</v>
       </c>
@@ -38661,10 +38693,10 @@
         <v>1</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="E235" s="0" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="F235" s="0" t="s">
         <v>659</v>
@@ -38687,11 +38719,11 @@
       <c r="N235" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="P235" s="3" t="s">
-        <v>1375</v>
+      <c r="P235" s="4" t="s">
+        <v>1376</v>
       </c>
       <c r="Q235" s="0" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="R235" s="0" t="s">
         <v>667</v>
@@ -38700,10 +38732,10 @@
         <v>668</v>
       </c>
       <c r="T235" s="0" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
         <v>610</v>
       </c>
@@ -38714,7 +38746,7 @@
         <v>2</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="E236" s="0" t="s">
         <v>711</v>
@@ -38743,8 +38775,8 @@
       <c r="O236" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P236" s="3" t="s">
-        <v>1379</v>
+      <c r="P236" s="4" t="s">
+        <v>1380</v>
       </c>
       <c r="Q236" s="0" t="s">
         <v>909</v>
@@ -38756,10 +38788,10 @@
         <v>668</v>
       </c>
       <c r="T236" s="0" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
         <v>610</v>
       </c>
@@ -38796,11 +38828,11 @@
       <c r="O237" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P237" s="3" t="s">
-        <v>1380</v>
+      <c r="P237" s="4" t="s">
+        <v>1381</v>
       </c>
       <c r="Q237" s="0" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="R237" s="0" t="s">
         <v>661</v>
@@ -38809,10 +38841,10 @@
         <v>668</v>
       </c>
       <c r="T237" s="0" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
         <v>610</v>
       </c>
@@ -38852,8 +38884,8 @@
       <c r="O238" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P238" s="3" t="s">
-        <v>1381</v>
+      <c r="P238" s="4" t="s">
+        <v>1382</v>
       </c>
       <c r="Q238" s="0" t="s">
         <v>789</v>
@@ -38865,10 +38897,10 @@
         <v>668</v>
       </c>
       <c r="T238" s="0" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
         <v>610</v>
       </c>
@@ -38905,11 +38937,11 @@
       <c r="N239" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="P239" s="3" t="s">
-        <v>1382</v>
+      <c r="P239" s="4" t="s">
+        <v>1383</v>
       </c>
       <c r="Q239" s="0" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="R239" s="0" t="s">
         <v>667</v>
@@ -38918,10 +38950,10 @@
         <v>668</v>
       </c>
       <c r="T239" s="0" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
         <v>610</v>
       </c>
@@ -38958,11 +38990,11 @@
       <c r="O240" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P240" s="3" t="s">
-        <v>1385</v>
+      <c r="P240" s="4" t="s">
+        <v>1386</v>
       </c>
       <c r="Q240" s="0" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="R240" s="0" t="s">
         <v>661</v>
@@ -38971,10 +39003,10 @@
         <v>668</v>
       </c>
       <c r="T240" s="0" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
         <v>610</v>
       </c>
@@ -38985,10 +39017,10 @@
         <v>3</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="E241" s="0" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="F241" s="0" t="s">
         <v>701</v>
@@ -39005,11 +39037,11 @@
       <c r="L241" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="P241" s="3" t="s">
-        <v>1388</v>
+      <c r="P241" s="4" t="s">
+        <v>1389</v>
       </c>
       <c r="Q241" s="0" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="R241" s="0" t="s">
         <v>661</v>
@@ -39018,10 +39050,10 @@
         <v>668</v>
       </c>
       <c r="T241" s="0" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
         <v>610</v>
       </c>
@@ -39032,10 +39064,10 @@
         <v>4</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="E242" s="0" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="F242" s="0" t="s">
         <v>679</v>
@@ -39055,11 +39087,11 @@
       <c r="O242" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P242" s="3" t="s">
-        <v>1392</v>
+      <c r="P242" s="4" t="s">
+        <v>1393</v>
       </c>
       <c r="Q242" s="0" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="R242" s="0" t="s">
         <v>661</v>
@@ -39068,10 +39100,10 @@
         <v>668</v>
       </c>
       <c r="T242" s="0" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
         <v>610</v>
       </c>
@@ -39108,8 +39140,8 @@
       <c r="O243" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P243" s="3" t="s">
-        <v>1395</v>
+      <c r="P243" s="4" t="s">
+        <v>1396</v>
       </c>
       <c r="Q243" s="0" t="s">
         <v>733</v>
@@ -39121,10 +39153,10 @@
         <v>668</v>
       </c>
       <c r="T243" s="0" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
         <v>610</v>
       </c>
@@ -39135,7 +39167,7 @@
         <v>6</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="E244" s="0" t="s">
         <v>223</v>
@@ -39155,11 +39187,11 @@
       <c r="O244" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P244" s="3" t="s">
-        <v>1397</v>
+      <c r="P244" s="4" t="s">
+        <v>1398</v>
       </c>
       <c r="Q244" s="0" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="R244" s="0" t="s">
         <v>661</v>
@@ -39168,10 +39200,10 @@
         <v>668</v>
       </c>
       <c r="T244" s="0" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
         <v>610</v>
       </c>
@@ -39182,10 +39214,10 @@
         <v>7</v>
       </c>
       <c r="D245" s="0" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="E245" s="0" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="F245" s="0" t="s">
         <v>701</v>
@@ -39202,11 +39234,11 @@
       <c r="O245" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P245" s="3" t="s">
-        <v>1401</v>
+      <c r="P245" s="4" t="s">
+        <v>1402</v>
       </c>
       <c r="Q245" s="0" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="R245" s="0" t="s">
         <v>661</v>
@@ -39215,10 +39247,10 @@
         <v>668</v>
       </c>
       <c r="T245" s="0" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
         <v>610</v>
       </c>
@@ -39229,10 +39261,10 @@
         <v>1</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="E246" s="0" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="F246" s="0" t="s">
         <v>659</v>
@@ -39255,11 +39287,11 @@
       <c r="N246" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="P246" s="3" t="s">
-        <v>1405</v>
+      <c r="P246" s="4" t="s">
+        <v>1406</v>
       </c>
       <c r="Q246" s="0" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="R246" s="0" t="s">
         <v>667</v>
@@ -39268,10 +39300,10 @@
         <v>668</v>
       </c>
       <c r="T246" s="0" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
         <v>610</v>
       </c>
@@ -39311,11 +39343,11 @@
       <c r="O247" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P247" s="3" t="s">
-        <v>1406</v>
+      <c r="P247" s="4" t="s">
+        <v>1407</v>
       </c>
       <c r="Q247" s="0" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="R247" s="0" t="s">
         <v>661</v>
@@ -39324,10 +39356,10 @@
         <v>668</v>
       </c>
       <c r="T247" s="0" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
         <v>610</v>
       </c>
@@ -39338,10 +39370,10 @@
         <v>3</v>
       </c>
       <c r="D248" s="0" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="E248" s="0" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="F248" s="0" t="s">
         <v>672</v>
@@ -39367,11 +39399,11 @@
       <c r="O248" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P248" s="3" t="s">
-        <v>1407</v>
+      <c r="P248" s="4" t="s">
+        <v>1408</v>
       </c>
       <c r="Q248" s="0" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="R248" s="0" t="s">
         <v>661</v>
@@ -39380,10 +39412,10 @@
         <v>668</v>
       </c>
       <c r="T248" s="0" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
         <v>610</v>
       </c>
@@ -39394,10 +39426,10 @@
         <v>1</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="E249" s="0" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="F249" s="0" t="s">
         <v>659</v>
@@ -39420,11 +39452,11 @@
       <c r="N249" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="P249" s="3" t="s">
-        <v>1410</v>
+      <c r="P249" s="4" t="s">
+        <v>1411</v>
       </c>
       <c r="Q249" s="0" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="R249" s="0" t="s">
         <v>667</v>
@@ -39433,10 +39465,10 @@
         <v>668</v>
       </c>
       <c r="T249" s="0" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
         <v>610</v>
       </c>
@@ -39476,11 +39508,11 @@
       <c r="O250" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P250" s="3" t="s">
-        <v>1413</v>
+      <c r="P250" s="4" t="s">
+        <v>1414</v>
       </c>
       <c r="Q250" s="0" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="R250" s="0" t="s">
         <v>661</v>
@@ -39489,10 +39521,10 @@
         <v>668</v>
       </c>
       <c r="T250" s="0" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
         <v>610</v>
       </c>
@@ -39503,10 +39535,10 @@
         <v>3</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="E251" s="0" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="F251" s="0" t="s">
         <v>701</v>
@@ -39526,11 +39558,11 @@
       <c r="O251" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P251" s="3" t="s">
-        <v>1416</v>
+      <c r="P251" s="4" t="s">
+        <v>1417</v>
       </c>
       <c r="Q251" s="0" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="R251" s="0" t="s">
         <v>661</v>
@@ -39539,10 +39571,10 @@
         <v>668</v>
       </c>
       <c r="T251" s="0" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
         <v>610</v>
       </c>
@@ -39553,10 +39585,10 @@
         <v>4</v>
       </c>
       <c r="D252" s="0" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="E252" s="0" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="F252" s="0" t="s">
         <v>701</v>
@@ -39576,11 +39608,11 @@
       <c r="O252" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P252" s="3" t="s">
-        <v>1420</v>
+      <c r="P252" s="4" t="s">
+        <v>1421</v>
       </c>
       <c r="Q252" s="0" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="R252" s="0" t="s">
         <v>661</v>
@@ -39589,10 +39621,10 @@
         <v>668</v>
       </c>
       <c r="T252" s="0" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
         <v>610</v>
       </c>
@@ -39603,10 +39635,10 @@
         <v>5</v>
       </c>
       <c r="D253" s="0" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="E253" s="0" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="F253" s="0" t="s">
         <v>701</v>
@@ -39623,11 +39655,11 @@
       <c r="O253" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P253" s="3" t="s">
-        <v>1424</v>
+      <c r="P253" s="4" t="s">
+        <v>1425</v>
       </c>
       <c r="Q253" s="0" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="R253" s="0" t="s">
         <v>661</v>
@@ -39636,10 +39668,10 @@
         <v>668</v>
       </c>
       <c r="T253" s="0" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
         <v>610</v>
       </c>
@@ -39650,10 +39682,10 @@
         <v>6</v>
       </c>
       <c r="D254" s="0" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="E254" s="0" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="F254" s="0" t="s">
         <v>744</v>
@@ -39670,11 +39702,11 @@
       <c r="O254" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P254" s="3" t="s">
-        <v>1428</v>
+      <c r="P254" s="4" t="s">
+        <v>1429</v>
       </c>
       <c r="Q254" s="0" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="R254" s="0" t="s">
         <v>661</v>
@@ -39683,10 +39715,10 @@
         <v>668</v>
       </c>
       <c r="T254" s="0" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
         <v>610</v>
       </c>
@@ -39697,10 +39729,10 @@
         <v>7</v>
       </c>
       <c r="D255" s="0" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="E255" s="0" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="F255" s="0" t="s">
         <v>894</v>
@@ -39717,11 +39749,11 @@
       <c r="O255" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P255" s="3" t="s">
-        <v>1432</v>
+      <c r="P255" s="4" t="s">
+        <v>1433</v>
       </c>
       <c r="Q255" s="0" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="R255" s="0" t="s">
         <v>661</v>
@@ -39730,10 +39762,10 @@
         <v>668</v>
       </c>
       <c r="T255" s="0" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
         <v>610</v>
       </c>
@@ -39764,8 +39796,8 @@
       <c r="O256" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P256" s="3" t="s">
-        <v>1434</v>
+      <c r="P256" s="4" t="s">
+        <v>1435</v>
       </c>
       <c r="Q256" s="0" t="s">
         <v>779</v>
@@ -39777,10 +39809,10 @@
         <v>668</v>
       </c>
       <c r="T256" s="0" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
         <v>610</v>
       </c>
@@ -39791,10 +39823,10 @@
         <v>1</v>
       </c>
       <c r="D257" s="0" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="E257" s="0" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="F257" s="0" t="s">
         <v>659</v>
@@ -39817,11 +39849,11 @@
       <c r="N257" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="P257" s="3" t="s">
-        <v>1435</v>
+      <c r="P257" s="4" t="s">
+        <v>1436</v>
       </c>
       <c r="Q257" s="0" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="R257" s="0" t="s">
         <v>667</v>
@@ -39830,10 +39862,10 @@
         <v>668</v>
       </c>
       <c r="T257" s="0" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
         <v>610</v>
       </c>
@@ -39873,8 +39905,8 @@
       <c r="O258" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P258" s="3" t="s">
-        <v>1438</v>
+      <c r="P258" s="4" t="s">
+        <v>1439</v>
       </c>
       <c r="Q258" s="0" t="s">
         <v>676</v>
@@ -39886,10 +39918,10 @@
         <v>668</v>
       </c>
       <c r="T258" s="0" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
         <v>610</v>
       </c>
@@ -39900,10 +39932,10 @@
         <v>3</v>
       </c>
       <c r="D259" s="0" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="E259" s="0" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="F259" s="0" t="s">
         <v>744</v>
@@ -39920,11 +39952,11 @@
       <c r="M259" s="0" t="s">
         <v>746</v>
       </c>
-      <c r="P259" s="3" t="s">
-        <v>1439</v>
+      <c r="P259" s="4" t="s">
+        <v>1440</v>
       </c>
       <c r="Q259" s="0" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="R259" s="0" t="s">
         <v>661</v>
@@ -39933,10 +39965,10 @@
         <v>668</v>
       </c>
       <c r="T259" s="0" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
         <v>610</v>
       </c>
@@ -39947,10 +39979,10 @@
         <v>4</v>
       </c>
       <c r="D260" s="0" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="E260" s="0" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="F260" s="0" t="s">
         <v>679</v>
@@ -39967,11 +39999,11 @@
       <c r="N260" s="0" t="s">
         <v>681</v>
       </c>
-      <c r="P260" s="3" t="s">
-        <v>1443</v>
+      <c r="P260" s="4" t="s">
+        <v>1444</v>
       </c>
       <c r="Q260" s="0" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="R260" s="0" t="s">
         <v>661</v>
@@ -39980,10 +40012,10 @@
         <v>668</v>
       </c>
       <c r="T260" s="0" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
         <v>610</v>
       </c>
@@ -39994,10 +40026,10 @@
         <v>5</v>
       </c>
       <c r="D261" s="0" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E261" s="0" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="F261" s="0" t="s">
         <v>894</v>
@@ -40014,11 +40046,11 @@
       <c r="M261" s="0" t="s">
         <v>746</v>
       </c>
-      <c r="P261" s="3" t="s">
-        <v>1447</v>
+      <c r="P261" s="4" t="s">
+        <v>1448</v>
       </c>
       <c r="Q261" s="0" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="R261" s="0" t="s">
         <v>661</v>
@@ -40027,10 +40059,10 @@
         <v>668</v>
       </c>
       <c r="T261" s="0" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
         <v>610</v>
       </c>
@@ -40041,10 +40073,10 @@
         <v>1</v>
       </c>
       <c r="D262" s="0" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="E262" s="0" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="F262" s="0" t="s">
         <v>659</v>
@@ -40067,11 +40099,11 @@
       <c r="N262" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="P262" s="3" t="s">
-        <v>1449</v>
+      <c r="P262" s="4" t="s">
+        <v>1450</v>
       </c>
       <c r="Q262" s="0" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="R262" s="0" t="s">
         <v>667</v>
@@ -40080,10 +40112,10 @@
         <v>668</v>
       </c>
       <c r="T262" s="0" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
         <v>610</v>
       </c>
@@ -40094,10 +40126,10 @@
         <v>2</v>
       </c>
       <c r="D263" s="0" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="E263" s="0" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="F263" s="0" t="s">
         <v>701</v>
@@ -40114,11 +40146,11 @@
       <c r="L263" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="P263" s="3" t="s">
-        <v>1454</v>
+      <c r="P263" s="4" t="s">
+        <v>1455</v>
       </c>
       <c r="Q263" s="0" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="R263" s="0" t="s">
         <v>661</v>
@@ -40127,10 +40159,10 @@
         <v>668</v>
       </c>
       <c r="T263" s="0" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
         <v>610</v>
       </c>
@@ -40164,8 +40196,8 @@
       <c r="N264" s="0" t="s">
         <v>707</v>
       </c>
-      <c r="P264" s="3" t="s">
-        <v>1456</v>
+      <c r="P264" s="4" t="s">
+        <v>1457</v>
       </c>
       <c r="Q264" s="0" t="s">
         <v>709</v>
@@ -40177,10 +40209,10 @@
         <v>668</v>
       </c>
       <c r="T264" s="0" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
         <v>610</v>
       </c>
@@ -40209,16 +40241,16 @@
         <v>1004</v>
       </c>
       <c r="J265" s="0" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="N265" s="0" t="s">
         <v>681</v>
       </c>
-      <c r="P265" s="3" t="s">
-        <v>1458</v>
+      <c r="P265" s="4" t="s">
+        <v>1459</v>
       </c>
       <c r="Q265" s="0" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="R265" s="0" t="s">
         <v>661</v>
@@ -40227,10 +40259,10 @@
         <v>668</v>
       </c>
       <c r="T265" s="0" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
         <v>610</v>
       </c>
@@ -40241,10 +40273,10 @@
         <v>5</v>
       </c>
       <c r="D266" s="0" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E266" s="0" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="F266" s="0" t="s">
         <v>701</v>
@@ -40258,11 +40290,11 @@
       <c r="L266" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="P266" s="3" t="s">
-        <v>1462</v>
+      <c r="P266" s="4" t="s">
+        <v>1463</v>
       </c>
       <c r="Q266" s="0" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="R266" s="0" t="s">
         <v>661</v>
@@ -40271,10 +40303,10 @@
         <v>668</v>
       </c>
       <c r="T266" s="0" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
         <v>610</v>
       </c>
@@ -40285,10 +40317,10 @@
         <v>6</v>
       </c>
       <c r="D267" s="0" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="E267" s="0" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="F267" s="0" t="s">
         <v>672</v>
@@ -40311,11 +40343,11 @@
       <c r="O267" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P267" s="3" t="s">
-        <v>1466</v>
+      <c r="P267" s="4" t="s">
+        <v>1467</v>
       </c>
       <c r="Q267" s="0" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="R267" s="0" t="s">
         <v>661</v>
@@ -40324,10 +40356,10 @@
         <v>668</v>
       </c>
       <c r="T267" s="0" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
         <v>610</v>
       </c>
@@ -40367,7 +40399,7 @@
       <c r="O268" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="P268" s="3" t="s">
+      <c r="P268" s="4" t="s">
         <v>697</v>
       </c>
       <c r="Q268" s="0" t="s">
@@ -40380,10 +40412,10 @@
         <v>668</v>
       </c>
       <c r="T268" s="0" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
         <v>610</v>
       </c>
@@ -40394,10 +40426,10 @@
         <v>1</v>
       </c>
       <c r="D269" s="0" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="E269" s="0" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="F269" s="0" t="s">
         <v>659</v>
@@ -40427,7 +40459,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
         <v>610</v>
       </c>
@@ -40471,7 +40503,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
         <v>610</v>
       </c>
@@ -40512,7 +40544,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
         <v>610</v>
       </c>
@@ -40556,7 +40588,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
         <v>610</v>
       </c>
@@ -40567,10 +40599,10 @@
         <v>6</v>
       </c>
       <c r="D273" s="0" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="E273" s="0" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="F273" s="0" t="s">
         <v>701</v>
@@ -40585,7 +40617,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
         <v>610</v>
       </c>
@@ -40603,12 +40635,25 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T274">
+    <filterColumn colId="0">
+      <customFilters and="true">
+        <customFilter operator="equal" val="M"/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <customFilters and="true">
+        <customFilter operator="equal" val="misto.csv"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/csv-validator/PackageValidation/ValidationServices/SchemaSource/structured-schema-description.xlsx
+++ b/csv-validator/PackageValidation/ValidationServices/SchemaSource/structured-schema-description.xlsx
@@ -3209,6 +3209,9 @@
     <t xml:space="preserve">Výše celkového úhrnu peněžních prostředků nebo celkové hodnoty hodnotových žetonů</t>
   </si>
   <si>
+    <t xml:space="preserve">TransakceZpusob</t>
+  </si>
+  <si>
     <t xml:space="preserve">TransactionType.NotIn(‘2’, ‘3’, ‘4’, ‘6’, ‘7’, ‘L1’, ‘8’, ‘9’, ‘10’, ‘11’, ‘12’, ‘13’, ‘15’, ‘16’ or ‘17’)</t>
   </si>
   <si>
@@ -3531,9 +3534,6 @@
   </si>
   <si>
     <t xml:space="preserve">TransactionMethod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TransakceZpusob</t>
   </si>
   <si>
     <t xml:space="preserve">Způsob převedení</t>
@@ -25483,13 +25483,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:P274"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="G205" activeCellId="0" sqref="G205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25503,7 +25503,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="72.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="61.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="7.95"/>
@@ -25563,7 +25563,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>610</v>
       </c>
@@ -25595,7 +25595,7 @@
         <v>8</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>660</v>
@@ -25607,7 +25607,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>610</v>
       </c>
@@ -25639,7 +25639,7 @@
         <v>8</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>660</v>
@@ -25654,7 +25654,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>610</v>
       </c>
@@ -25689,7 +25689,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>610</v>
       </c>
@@ -25721,7 +25721,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>599</v>
       </c>
@@ -25753,7 +25753,7 @@
         <v>8</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>660</v>
@@ -25765,7 +25765,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>599</v>
       </c>
@@ -25812,7 +25812,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>599</v>
       </c>
@@ -25847,7 +25847,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>599</v>
       </c>
@@ -25885,7 +25885,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>610</v>
       </c>
@@ -25917,7 +25917,7 @@
         <v>8</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>660</v>
@@ -25929,7 +25929,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>610</v>
       </c>
@@ -25964,7 +25964,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>610</v>
       </c>
@@ -25999,7 +25999,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>610</v>
       </c>
@@ -26034,7 +26034,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>610</v>
       </c>
@@ -26081,7 +26081,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>610</v>
       </c>
@@ -26116,7 +26116,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>610</v>
       </c>
@@ -26148,7 +26148,7 @@
         <v>8</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M16" s="0" t="s">
         <v>660</v>
@@ -26160,7 +26160,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>610</v>
       </c>
@@ -26192,7 +26192,7 @@
         <v>8</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M17" s="0" t="s">
         <v>660</v>
@@ -26207,7 +26207,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>610</v>
       </c>
@@ -26254,7 +26254,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>610</v>
       </c>
@@ -26286,7 +26286,7 @@
         <v>8</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M19" s="0" t="s">
         <v>660</v>
@@ -26298,7 +26298,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>610</v>
       </c>
@@ -26336,7 +26336,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>610</v>
       </c>
@@ -26371,7 +26371,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>610</v>
       </c>
@@ -26400,7 +26400,7 @@
         <v>8</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M22" s="0" t="s">
         <v>660</v>
@@ -26415,7 +26415,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>610</v>
       </c>
@@ -26453,7 +26453,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>610</v>
       </c>
@@ -26494,7 +26494,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>610</v>
       </c>
@@ -26532,7 +26532,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>610</v>
       </c>
@@ -26567,7 +26567,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>610</v>
       </c>
@@ -26602,7 +26602,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>610</v>
       </c>
@@ -26637,7 +26637,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>610</v>
       </c>
@@ -26672,7 +26672,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>610</v>
       </c>
@@ -26704,7 +26704,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>610</v>
       </c>
@@ -26742,7 +26742,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>610</v>
       </c>
@@ -26771,7 +26771,7 @@
         <v>8</v>
       </c>
       <c r="L32" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M32" s="0" t="s">
         <v>660</v>
@@ -26786,7 +26786,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>610</v>
       </c>
@@ -26815,7 +26815,7 @@
         <v>8</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M33" s="0" t="s">
         <v>660</v>
@@ -26830,7 +26830,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>610</v>
       </c>
@@ -26862,7 +26862,7 @@
         <v>8</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M34" s="0" t="s">
         <v>660</v>
@@ -26874,7 +26874,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>610</v>
       </c>
@@ -26906,7 +26906,7 @@
         <v>8</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M35" s="0" t="s">
         <v>660</v>
@@ -26921,7 +26921,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>610</v>
       </c>
@@ -26953,7 +26953,7 @@
         <v>8</v>
       </c>
       <c r="L36" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M36" s="0" t="s">
         <v>660</v>
@@ -26968,7 +26968,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>610</v>
       </c>
@@ -27003,7 +27003,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>610</v>
       </c>
@@ -27035,7 +27035,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>610</v>
       </c>
@@ -27073,7 +27073,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>610</v>
       </c>
@@ -27111,7 +27111,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>610</v>
       </c>
@@ -27143,7 +27143,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>610</v>
       </c>
@@ -27175,7 +27175,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>610</v>
       </c>
@@ -27207,7 +27207,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>610</v>
       </c>
@@ -27239,7 +27239,7 @@
         <v>8</v>
       </c>
       <c r="L44" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M44" s="0" t="s">
         <v>660</v>
@@ -27251,7 +27251,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>610</v>
       </c>
@@ -27283,7 +27283,7 @@
         <v>8</v>
       </c>
       <c r="L45" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M45" s="0" t="s">
         <v>660</v>
@@ -27298,7 +27298,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>610</v>
       </c>
@@ -27333,7 +27333,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>610</v>
       </c>
@@ -27371,7 +27371,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>610</v>
       </c>
@@ -27409,7 +27409,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>610</v>
       </c>
@@ -27444,7 +27444,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>599</v>
       </c>
@@ -27476,7 +27476,7 @@
         <v>8</v>
       </c>
       <c r="L50" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M50" s="0" t="s">
         <v>660</v>
@@ -27488,7 +27488,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>599</v>
       </c>
@@ -27520,7 +27520,7 @@
         <v>8</v>
       </c>
       <c r="L51" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M51" s="0" t="s">
         <v>660</v>
@@ -27535,7 +27535,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>599</v>
       </c>
@@ -27567,7 +27567,7 @@
         <v>8</v>
       </c>
       <c r="L52" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M52" s="0" t="s">
         <v>660</v>
@@ -27582,7 +27582,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>599</v>
       </c>
@@ -27617,7 +27617,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>599</v>
       </c>
@@ -27652,7 +27652,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>599</v>
       </c>
@@ -27687,7 +27687,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>599</v>
       </c>
@@ -27722,7 +27722,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>599</v>
       </c>
@@ -27754,7 +27754,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>599</v>
       </c>
@@ -27789,7 +27789,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>599</v>
       </c>
@@ -27821,7 +27821,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>599</v>
       </c>
@@ -27856,7 +27856,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>599</v>
       </c>
@@ -27891,7 +27891,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>599</v>
       </c>
@@ -27926,7 +27926,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>599</v>
       </c>
@@ -27964,7 +27964,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>599</v>
       </c>
@@ -27999,7 +27999,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>599</v>
       </c>
@@ -28034,7 +28034,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>610</v>
       </c>
@@ -28066,7 +28066,7 @@
         <v>8</v>
       </c>
       <c r="L66" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M66" s="0" t="s">
         <v>660</v>
@@ -28078,7 +28078,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>610</v>
       </c>
@@ -28110,7 +28110,7 @@
         <v>8</v>
       </c>
       <c r="L67" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M67" s="0" t="s">
         <v>660</v>
@@ -28125,7 +28125,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>610</v>
       </c>
@@ -28160,7 +28160,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>610</v>
       </c>
@@ -28195,7 +28195,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>610</v>
       </c>
@@ -28230,7 +28230,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>610</v>
       </c>
@@ -28265,7 +28265,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>610</v>
       </c>
@@ -28300,7 +28300,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>610</v>
       </c>
@@ -28335,7 +28335,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>610</v>
       </c>
@@ -28370,7 +28370,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>610</v>
       </c>
@@ -28402,7 +28402,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>610</v>
       </c>
@@ -28434,7 +28434,7 @@
         <v>8</v>
       </c>
       <c r="L76" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M76" s="0" t="s">
         <v>660</v>
@@ -28446,7 +28446,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>610</v>
       </c>
@@ -28493,7 +28493,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>610</v>
       </c>
@@ -28531,7 +28531,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>610</v>
       </c>
@@ -28563,7 +28563,7 @@
         <v>8</v>
       </c>
       <c r="L79" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M79" s="0" t="s">
         <v>660</v>
@@ -28575,7 +28575,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>610</v>
       </c>
@@ -28607,7 +28607,7 @@
         <v>8</v>
       </c>
       <c r="L80" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M80" s="0" t="s">
         <v>660</v>
@@ -28622,7 +28622,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>610</v>
       </c>
@@ -28663,7 +28663,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>610</v>
       </c>
@@ -28695,7 +28695,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>610</v>
       </c>
@@ -28727,7 +28727,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>610</v>
       </c>
@@ -28762,7 +28762,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>610</v>
       </c>
@@ -28803,7 +28803,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>610</v>
       </c>
@@ -28835,7 +28835,7 @@
         <v>8</v>
       </c>
       <c r="L86" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M86" s="0" t="s">
         <v>660</v>
@@ -28847,7 +28847,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>610</v>
       </c>
@@ -28879,7 +28879,7 @@
         <v>8</v>
       </c>
       <c r="L87" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M87" s="0" t="s">
         <v>660</v>
@@ -28894,7 +28894,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>610</v>
       </c>
@@ -28926,7 +28926,7 @@
         <v>8</v>
       </c>
       <c r="L88" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M88" s="0" t="s">
         <v>660</v>
@@ -28941,7 +28941,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>610</v>
       </c>
@@ -28976,7 +28976,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>599</v>
       </c>
@@ -29008,7 +29008,7 @@
         <v>8</v>
       </c>
       <c r="L90" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M90" s="0" t="s">
         <v>660</v>
@@ -29020,7 +29020,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>599</v>
       </c>
@@ -29052,7 +29052,7 @@
         <v>8</v>
       </c>
       <c r="L91" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M91" s="0" t="s">
         <v>660</v>
@@ -29067,7 +29067,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>599</v>
       </c>
@@ -29105,7 +29105,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>599</v>
       </c>
@@ -29140,7 +29140,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>599</v>
       </c>
@@ -29178,7 +29178,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>599</v>
       </c>
@@ -29213,7 +29213,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>610</v>
       </c>
@@ -29245,7 +29245,7 @@
         <v>8</v>
       </c>
       <c r="L96" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M96" s="0" t="s">
         <v>660</v>
@@ -29257,7 +29257,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>610</v>
       </c>
@@ -29304,7 +29304,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>610</v>
       </c>
@@ -29342,7 +29342,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>610</v>
       </c>
@@ -29377,7 +29377,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>610</v>
       </c>
@@ -29415,7 +29415,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>610</v>
       </c>
@@ -29450,7 +29450,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>599</v>
       </c>
@@ -29482,7 +29482,7 @@
         <v>8</v>
       </c>
       <c r="L102" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M102" s="0" t="s">
         <v>660</v>
@@ -29494,7 +29494,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>599</v>
       </c>
@@ -29541,7 +29541,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>599</v>
       </c>
@@ -29576,7 +29576,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>599</v>
       </c>
@@ -29611,7 +29611,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>599</v>
       </c>
@@ -29646,7 +29646,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>599</v>
       </c>
@@ -29678,7 +29678,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
         <v>599</v>
       </c>
@@ -29707,7 +29707,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>599</v>
       </c>
@@ -29739,7 +29739,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>599</v>
       </c>
@@ -29771,7 +29771,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>599</v>
       </c>
@@ -29809,7 +29809,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>599</v>
       </c>
@@ -29844,7 +29844,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>599</v>
       </c>
@@ -29873,7 +29873,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>599</v>
       </c>
@@ -29911,7 +29911,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>599</v>
       </c>
@@ -29943,7 +29943,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>610</v>
       </c>
@@ -29975,7 +29975,7 @@
         <v>8</v>
       </c>
       <c r="L116" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M116" s="0" t="s">
         <v>660</v>
@@ -29987,7 +29987,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>610</v>
       </c>
@@ -30034,7 +30034,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>610</v>
       </c>
@@ -30072,7 +30072,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>610</v>
       </c>
@@ -30110,7 +30110,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>610</v>
       </c>
@@ -30148,7 +30148,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>610</v>
       </c>
@@ -30180,7 +30180,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>610</v>
       </c>
@@ -30212,7 +30212,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
         <v>610</v>
       </c>
@@ -30244,7 +30244,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
         <v>610</v>
       </c>
@@ -30276,7 +30276,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>610</v>
       </c>
@@ -30311,7 +30311,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>610</v>
       </c>
@@ -30346,7 +30346,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
         <v>610</v>
       </c>
@@ -30378,7 +30378,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>610</v>
       </c>
@@ -30413,7 +30413,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
         <v>610</v>
       </c>
@@ -30445,7 +30445,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
         <v>599</v>
       </c>
@@ -30477,7 +30477,7 @@
         <v>8</v>
       </c>
       <c r="L130" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M130" s="0" t="s">
         <v>660</v>
@@ -30489,7 +30489,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
         <v>599</v>
       </c>
@@ -30521,7 +30521,7 @@
         <v>8</v>
       </c>
       <c r="L131" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M131" s="0" t="s">
         <v>660</v>
@@ -30536,7 +30536,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
         <v>599</v>
       </c>
@@ -30568,7 +30568,7 @@
         <v>8</v>
       </c>
       <c r="L132" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M132" s="0" t="s">
         <v>660</v>
@@ -30583,7 +30583,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
         <v>599</v>
       </c>
@@ -30621,7 +30621,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
         <v>599</v>
       </c>
@@ -30659,7 +30659,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
         <v>599</v>
       </c>
@@ -30697,7 +30697,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
         <v>599</v>
       </c>
@@ -30732,7 +30732,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
         <v>599</v>
       </c>
@@ -30764,7 +30764,7 @@
         <v>8</v>
       </c>
       <c r="L137" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M137" s="0" t="s">
         <v>660</v>
@@ -30776,7 +30776,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
         <v>599</v>
       </c>
@@ -30808,7 +30808,7 @@
         <v>8</v>
       </c>
       <c r="L138" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M138" s="0" t="s">
         <v>660</v>
@@ -30823,7 +30823,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
         <v>599</v>
       </c>
@@ -30855,7 +30855,7 @@
         <v>8</v>
       </c>
       <c r="L139" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M139" s="0" t="s">
         <v>660</v>
@@ -30870,7 +30870,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
         <v>599</v>
       </c>
@@ -30943,7 +30943,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
         <v>599</v>
       </c>
@@ -30978,7 +30978,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
         <v>599</v>
       </c>
@@ -31016,7 +31016,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
         <v>610</v>
       </c>
@@ -31048,7 +31048,7 @@
         <v>8</v>
       </c>
       <c r="L144" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M144" s="0" t="s">
         <v>660</v>
@@ -31060,7 +31060,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
         <v>610</v>
       </c>
@@ -31107,7 +31107,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
         <v>610</v>
       </c>
@@ -31136,7 +31136,7 @@
         <v>8</v>
       </c>
       <c r="L146" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M146" s="0" t="s">
         <v>660</v>
@@ -31151,7 +31151,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
         <v>610</v>
       </c>
@@ -31189,7 +31189,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
         <v>610</v>
       </c>
@@ -31227,7 +31227,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
         <v>610</v>
       </c>
@@ -31262,7 +31262,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
         <v>610</v>
       </c>
@@ -31300,7 +31300,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
         <v>610</v>
       </c>
@@ -31329,7 +31329,7 @@
         <v>8</v>
       </c>
       <c r="L151" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M151" s="0" t="s">
         <v>660</v>
@@ -31344,7 +31344,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
         <v>610</v>
       </c>
@@ -31376,7 +31376,7 @@
         <v>8</v>
       </c>
       <c r="L152" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M152" s="0" t="s">
         <v>660</v>
@@ -31388,7 +31388,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
         <v>610</v>
       </c>
@@ -31420,7 +31420,7 @@
         <v>8</v>
       </c>
       <c r="L153" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M153" s="0" t="s">
         <v>660</v>
@@ -31435,7 +31435,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
         <v>610</v>
       </c>
@@ -31470,7 +31470,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
         <v>610</v>
       </c>
@@ -31508,7 +31508,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
         <v>610</v>
       </c>
@@ -31546,7 +31546,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
         <v>610</v>
       </c>
@@ -31584,7 +31584,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
         <v>599</v>
       </c>
@@ -31616,7 +31616,7 @@
         <v>8</v>
       </c>
       <c r="L158" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M158" s="0" t="s">
         <v>660</v>
@@ -31628,7 +31628,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
         <v>599</v>
       </c>
@@ -31660,7 +31660,7 @@
         <v>8</v>
       </c>
       <c r="L159" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M159" s="0" t="s">
         <v>660</v>
@@ -31672,7 +31672,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
         <v>599</v>
       </c>
@@ -31710,7 +31710,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
         <v>599</v>
       </c>
@@ -31742,7 +31742,7 @@
         <v>8</v>
       </c>
       <c r="L161" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M161" s="0" t="s">
         <v>660</v>
@@ -31757,7 +31757,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
         <v>599</v>
       </c>
@@ -31792,7 +31792,7 @@
         <v>8</v>
       </c>
       <c r="L162" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M162" s="0" t="s">
         <v>660</v>
@@ -31807,7 +31807,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
         <v>599</v>
       </c>
@@ -31842,7 +31842,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
         <v>599</v>
       </c>
@@ -31883,7 +31883,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
         <v>599</v>
       </c>
@@ -31918,7 +31918,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
         <v>599</v>
       </c>
@@ -31953,7 +31953,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
         <v>610</v>
       </c>
@@ -31985,7 +31985,7 @@
         <v>8</v>
       </c>
       <c r="L167" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M167" s="0" t="s">
         <v>660</v>
@@ -31997,7 +31997,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
         <v>610</v>
       </c>
@@ -32029,7 +32029,7 @@
         <v>8</v>
       </c>
       <c r="L168" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M168" s="0" t="s">
         <v>660</v>
@@ -32044,7 +32044,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
         <v>610</v>
       </c>
@@ -32079,7 +32079,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
         <v>610</v>
       </c>
@@ -32117,7 +32117,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
         <v>610</v>
       </c>
@@ -32149,7 +32149,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
         <v>610</v>
       </c>
@@ -32181,7 +32181,7 @@
         <v>8</v>
       </c>
       <c r="L172" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M172" s="0" t="s">
         <v>660</v>
@@ -32193,7 +32193,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
         <v>610</v>
       </c>
@@ -32225,7 +32225,7 @@
         <v>8</v>
       </c>
       <c r="L173" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M173" s="0" t="s">
         <v>660</v>
@@ -32240,7 +32240,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
         <v>610</v>
       </c>
@@ -32275,7 +32275,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
         <v>610</v>
       </c>
@@ -32307,7 +32307,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
         <v>610</v>
       </c>
@@ -32336,7 +32336,7 @@
         <v>8</v>
       </c>
       <c r="L176" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M176" s="0" t="s">
         <v>660</v>
@@ -32351,7 +32351,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
         <v>610</v>
       </c>
@@ -32383,7 +32383,7 @@
         <v>8</v>
       </c>
       <c r="L177" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M177" s="0" t="s">
         <v>660</v>
@@ -32398,7 +32398,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
         <v>610</v>
       </c>
@@ -32433,7 +32433,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
         <v>610</v>
       </c>
@@ -32471,7 +32471,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
         <v>610</v>
       </c>
@@ -32503,7 +32503,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
         <v>610</v>
       </c>
@@ -32535,7 +32535,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
         <v>610</v>
       </c>
@@ -32567,7 +32567,7 @@
         <v>8</v>
       </c>
       <c r="L182" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M182" s="0" t="s">
         <v>660</v>
@@ -32582,7 +32582,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
         <v>610</v>
       </c>
@@ -32611,7 +32611,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
         <v>610</v>
       </c>
@@ -32643,7 +32643,7 @@
         <v>8</v>
       </c>
       <c r="L184" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M184" s="0" t="s">
         <v>660</v>
@@ -32655,7 +32655,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
         <v>610</v>
       </c>
@@ -32687,7 +32687,7 @@
         <v>8</v>
       </c>
       <c r="L185" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M185" s="0" t="s">
         <v>660</v>
@@ -32702,7 +32702,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
         <v>610</v>
       </c>
@@ -32740,7 +32740,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
         <v>610</v>
       </c>
@@ -32778,7 +32778,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
         <v>599</v>
       </c>
@@ -32810,7 +32810,7 @@
         <v>8</v>
       </c>
       <c r="L188" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M188" s="0" t="s">
         <v>660</v>
@@ -32822,7 +32822,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
         <v>599</v>
       </c>
@@ -32854,7 +32854,7 @@
         <v>8</v>
       </c>
       <c r="L189" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M189" s="0" t="s">
         <v>660</v>
@@ -32869,7 +32869,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
         <v>599</v>
       </c>
@@ -32901,7 +32901,7 @@
         <v>8</v>
       </c>
       <c r="L190" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M190" s="0" t="s">
         <v>660</v>
@@ -32916,7 +32916,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
         <v>599</v>
       </c>
@@ -32951,7 +32951,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
         <v>599</v>
       </c>
@@ -32989,7 +32989,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
         <v>599</v>
       </c>
@@ -33024,7 +33024,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
         <v>599</v>
       </c>
@@ -33059,7 +33059,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
         <v>599</v>
       </c>
@@ -33103,7 +33103,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
         <v>599</v>
       </c>
@@ -33138,7 +33138,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
         <v>610</v>
       </c>
@@ -33182,7 +33182,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
         <v>610</v>
       </c>
@@ -33220,7 +33220,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
         <v>599</v>
       </c>
@@ -33252,7 +33252,7 @@
         <v>8</v>
       </c>
       <c r="L199" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M199" s="0" t="s">
         <v>660</v>
@@ -33264,7 +33264,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
         <v>599</v>
       </c>
@@ -33296,7 +33296,7 @@
         <v>8</v>
       </c>
       <c r="L200" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M200" s="0" t="s">
         <v>660</v>
@@ -33308,7 +33308,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
         <v>599</v>
       </c>
@@ -33340,7 +33340,7 @@
         <v>8</v>
       </c>
       <c r="L201" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M201" s="0" t="s">
         <v>660</v>
@@ -33355,7 +33355,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
         <v>599</v>
       </c>
@@ -33390,7 +33390,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
         <v>599</v>
       </c>
@@ -33425,7 +33425,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
         <v>599</v>
       </c>
@@ -33460,7 +33460,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
         <v>599</v>
       </c>
@@ -33474,10 +33474,10 @@
         <v>12</v>
       </c>
       <c r="E205" s="0" t="s">
-        <v>9</v>
+        <v>1060</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>691</v>
+        <v>823</v>
       </c>
       <c r="G205" s="0" t="s">
         <v>756</v>
@@ -33489,16 +33489,16 @@
         <v>891</v>
       </c>
       <c r="J205" s="0" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="O205" s="0" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="P205" s="0" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
         <v>610</v>
       </c>
@@ -33509,10 +33509,10 @@
         <v>1</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E206" s="0" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="F206" s="0" t="s">
         <v>656</v>
@@ -33530,7 +33530,7 @@
         <v>8</v>
       </c>
       <c r="L206" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M206" s="0" t="s">
         <v>660</v>
@@ -33539,10 +33539,10 @@
         <v>661</v>
       </c>
       <c r="P206" s="0" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
         <v>610</v>
       </c>
@@ -33574,7 +33574,7 @@
         <v>8</v>
       </c>
       <c r="L207" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M207" s="0" t="s">
         <v>660</v>
@@ -33586,10 +33586,10 @@
         <v>667</v>
       </c>
       <c r="P207" s="0" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
         <v>610</v>
       </c>
@@ -33636,7 +33636,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
         <v>610</v>
       </c>
@@ -33647,10 +33647,10 @@
         <v>4</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="E209" s="0" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="F209" s="0" t="s">
         <v>688</v>
@@ -33668,10 +33668,10 @@
         <v>500</v>
       </c>
       <c r="P209" s="0" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
         <v>610</v>
       </c>
@@ -33682,10 +33682,10 @@
         <v>5</v>
       </c>
       <c r="D210" s="0" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="E210" s="0" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="F210" s="0" t="s">
         <v>716</v>
@@ -33703,10 +33703,10 @@
         <v>667</v>
       </c>
       <c r="P210" s="0" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
         <v>610</v>
       </c>
@@ -33717,10 +33717,10 @@
         <v>6</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="E211" s="0" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="F211" s="0" t="s">
         <v>671</v>
@@ -33738,10 +33738,10 @@
         <v>667</v>
       </c>
       <c r="P211" s="0" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
         <v>610</v>
       </c>
@@ -33752,10 +33752,10 @@
         <v>7</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="E212" s="0" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="F212" s="0" t="s">
         <v>688</v>
@@ -33773,10 +33773,10 @@
         <v>667</v>
       </c>
       <c r="P212" s="0" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
         <v>610</v>
       </c>
@@ -33787,10 +33787,10 @@
         <v>8</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="E213" s="0" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="F213" s="0" t="s">
         <v>716</v>
@@ -33808,10 +33808,10 @@
         <v>667</v>
       </c>
       <c r="P213" s="0" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
         <v>610</v>
       </c>
@@ -33822,10 +33822,10 @@
         <v>9</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="E214" s="0" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="F214" s="0" t="s">
         <v>671</v>
@@ -33843,10 +33843,10 @@
         <v>667</v>
       </c>
       <c r="P214" s="0" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
         <v>610</v>
       </c>
@@ -33857,10 +33857,10 @@
         <v>10</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="E215" s="0" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="F215" s="0" t="s">
         <v>688</v>
@@ -33878,10 +33878,10 @@
         <v>667</v>
       </c>
       <c r="P215" s="0" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
         <v>610</v>
       </c>
@@ -33892,10 +33892,10 @@
         <v>1</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="E216" s="0" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="F216" s="0" t="s">
         <v>656</v>
@@ -33913,7 +33913,7 @@
         <v>8</v>
       </c>
       <c r="L216" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M216" s="0" t="s">
         <v>660</v>
@@ -33922,10 +33922,10 @@
         <v>661</v>
       </c>
       <c r="P216" s="0" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
         <v>610</v>
       </c>
@@ -33936,10 +33936,10 @@
         <v>2</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E217" s="0" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="F217" s="0" t="s">
         <v>665</v>
@@ -33957,7 +33957,7 @@
         <v>8</v>
       </c>
       <c r="L217" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M217" s="0" t="s">
         <v>660</v>
@@ -33969,10 +33969,10 @@
         <v>667</v>
       </c>
       <c r="P217" s="0" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
         <v>610</v>
       </c>
@@ -33983,7 +33983,7 @@
         <v>3</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="E218" s="0" t="s">
         <v>188</v>
@@ -34007,7 +34007,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
         <v>610</v>
       </c>
@@ -34018,10 +34018,10 @@
         <v>4</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="E219" s="0" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="F219" s="0" t="s">
         <v>716</v>
@@ -34045,7 +34045,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
         <v>610</v>
       </c>
@@ -34056,10 +34056,10 @@
         <v>5</v>
       </c>
       <c r="D220" s="0" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="E220" s="0" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="F220" s="0" t="s">
         <v>671</v>
@@ -34083,7 +34083,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
         <v>610</v>
       </c>
@@ -34121,7 +34121,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
         <v>610</v>
       </c>
@@ -34132,10 +34132,10 @@
         <v>1</v>
       </c>
       <c r="D222" s="0" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="E222" s="0" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="F222" s="0" t="s">
         <v>656</v>
@@ -34153,7 +34153,7 @@
         <v>8</v>
       </c>
       <c r="L222" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M222" s="0" t="s">
         <v>660</v>
@@ -34162,10 +34162,10 @@
         <v>661</v>
       </c>
       <c r="P222" s="0" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
         <v>610</v>
       </c>
@@ -34197,7 +34197,7 @@
         <v>8</v>
       </c>
       <c r="L223" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M223" s="0" t="s">
         <v>660</v>
@@ -34212,7 +34212,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
         <v>610</v>
       </c>
@@ -34223,7 +34223,7 @@
         <v>3</v>
       </c>
       <c r="D224" s="0" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="E224" s="0" t="s">
         <v>200</v>
@@ -34244,10 +34244,10 @@
         <v>2</v>
       </c>
       <c r="P224" s="0" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
         <v>610</v>
       </c>
@@ -34258,10 +34258,10 @@
         <v>4</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="E225" s="0" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="F225" s="0" t="s">
         <v>716</v>
@@ -34276,16 +34276,16 @@
         <v>891</v>
       </c>
       <c r="J225" s="0" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="M225" s="0" t="s">
         <v>718</v>
       </c>
       <c r="P225" s="0" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
         <v>610</v>
       </c>
@@ -34296,10 +34296,10 @@
         <v>5</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="E226" s="0" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="F226" s="0" t="s">
         <v>823</v>
@@ -34314,16 +34314,16 @@
         <v>891</v>
       </c>
       <c r="J226" s="0" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="M226" s="0" t="s">
         <v>825</v>
       </c>
       <c r="P226" s="0" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
         <v>610</v>
       </c>
@@ -34334,10 +34334,10 @@
         <v>6</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="E227" s="0" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="F227" s="0" t="s">
         <v>823</v>
@@ -34352,16 +34352,16 @@
         <v>891</v>
       </c>
       <c r="J227" s="0" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="M227" s="0" t="s">
         <v>825</v>
       </c>
       <c r="P227" s="0" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
         <v>610</v>
       </c>
@@ -34372,10 +34372,10 @@
         <v>7</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="E228" s="0" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="F228" s="0" t="s">
         <v>671</v>
@@ -34393,10 +34393,10 @@
         <v>673</v>
       </c>
       <c r="P228" s="0" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
         <v>610</v>
       </c>
@@ -34407,10 +34407,10 @@
         <v>8</v>
       </c>
       <c r="D229" s="0" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="E229" s="0" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="F229" s="0" t="s">
         <v>671</v>
@@ -34428,10 +34428,10 @@
         <v>673</v>
       </c>
       <c r="P229" s="0" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
         <v>610</v>
       </c>
@@ -34442,7 +34442,7 @@
         <v>9</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="E230" s="0" t="s">
         <v>195</v>
@@ -34457,10 +34457,10 @@
         <v>677</v>
       </c>
       <c r="P230" s="0" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
         <v>610</v>
       </c>
@@ -34489,7 +34489,7 @@
         <v>891</v>
       </c>
       <c r="J231" s="0" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="L231" s="0" t="n">
         <v>3</v>
@@ -34501,7 +34501,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
         <v>610</v>
       </c>
@@ -34512,10 +34512,10 @@
         <v>1</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="E232" s="0" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="F232" s="0" t="s">
         <v>656</v>
@@ -34533,7 +34533,7 @@
         <v>8</v>
       </c>
       <c r="L232" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M232" s="0" t="s">
         <v>660</v>
@@ -34542,10 +34542,10 @@
         <v>661</v>
       </c>
       <c r="P232" s="0" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
         <v>610</v>
       </c>
@@ -34556,10 +34556,10 @@
         <v>2</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="E233" s="0" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="F233" s="0" t="s">
         <v>665</v>
@@ -34577,7 +34577,7 @@
         <v>8</v>
       </c>
       <c r="L233" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M233" s="0" t="s">
         <v>660</v>
@@ -34589,10 +34589,10 @@
         <v>667</v>
       </c>
       <c r="P233" s="0" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
         <v>610</v>
       </c>
@@ -34630,7 +34630,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
         <v>610</v>
       </c>
@@ -34641,10 +34641,10 @@
         <v>1</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="E235" s="0" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="F235" s="0" t="s">
         <v>656</v>
@@ -34662,7 +34662,7 @@
         <v>8</v>
       </c>
       <c r="L235" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M235" s="0" t="s">
         <v>660</v>
@@ -34671,10 +34671,10 @@
         <v>661</v>
       </c>
       <c r="P235" s="0" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
         <v>610</v>
       </c>
@@ -34685,7 +34685,7 @@
         <v>2</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="E236" s="0" t="s">
         <v>696</v>
@@ -34706,7 +34706,7 @@
         <v>8</v>
       </c>
       <c r="L236" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M236" s="0" t="s">
         <v>660</v>
@@ -34721,7 +34721,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
         <v>610</v>
       </c>
@@ -34750,7 +34750,7 @@
         <v>8</v>
       </c>
       <c r="L237" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M237" s="0" t="s">
         <v>660</v>
@@ -34762,10 +34762,10 @@
         <v>667</v>
       </c>
       <c r="P237" s="0" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
         <v>610</v>
       </c>
@@ -34797,7 +34797,7 @@
         <v>8</v>
       </c>
       <c r="L238" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M238" s="0" t="s">
         <v>660</v>
@@ -34812,7 +34812,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
         <v>610</v>
       </c>
@@ -34844,7 +34844,7 @@
         <v>8</v>
       </c>
       <c r="L239" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M239" s="0" t="s">
         <v>660</v>
@@ -34853,10 +34853,10 @@
         <v>661</v>
       </c>
       <c r="P239" s="0" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
         <v>610</v>
       </c>
@@ -34885,7 +34885,7 @@
         <v>8</v>
       </c>
       <c r="L240" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M240" s="0" t="s">
         <v>660</v>
@@ -34897,10 +34897,10 @@
         <v>667</v>
       </c>
       <c r="P240" s="0" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
         <v>610</v>
       </c>
@@ -34911,10 +34911,10 @@
         <v>3</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="E241" s="0" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="F241" s="0" t="s">
         <v>688</v>
@@ -34932,10 +34932,10 @@
         <v>50</v>
       </c>
       <c r="P241" s="0" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
         <v>610</v>
       </c>
@@ -34946,10 +34946,10 @@
         <v>4</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="E242" s="0" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="F242" s="0" t="s">
         <v>671</v>
@@ -34970,10 +34970,10 @@
         <v>667</v>
       </c>
       <c r="P242" s="0" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
         <v>610</v>
       </c>
@@ -35002,7 +35002,7 @@
         <v>8</v>
       </c>
       <c r="L243" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M243" s="0" t="s">
         <v>660</v>
@@ -35017,7 +35017,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
         <v>610</v>
       </c>
@@ -35028,7 +35028,7 @@
         <v>6</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="E244" s="0" t="s">
         <v>223</v>
@@ -35049,10 +35049,10 @@
         <v>667</v>
       </c>
       <c r="P244" s="0" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
         <v>610</v>
       </c>
@@ -35063,10 +35063,10 @@
         <v>7</v>
       </c>
       <c r="D245" s="0" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="E245" s="0" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="F245" s="0" t="s">
         <v>688</v>
@@ -35084,10 +35084,10 @@
         <v>667</v>
       </c>
       <c r="P245" s="0" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
         <v>610</v>
       </c>
@@ -35098,10 +35098,10 @@
         <v>1</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="E246" s="0" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="F246" s="0" t="s">
         <v>656</v>
@@ -35119,7 +35119,7 @@
         <v>8</v>
       </c>
       <c r="L246" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M246" s="0" t="s">
         <v>660</v>
@@ -35128,10 +35128,10 @@
         <v>661</v>
       </c>
       <c r="P246" s="0" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
         <v>610</v>
       </c>
@@ -35163,7 +35163,7 @@
         <v>8</v>
       </c>
       <c r="L247" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M247" s="0" t="s">
         <v>660</v>
@@ -35175,10 +35175,10 @@
         <v>667</v>
       </c>
       <c r="P247" s="0" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
         <v>610</v>
       </c>
@@ -35210,7 +35210,7 @@
         <v>8</v>
       </c>
       <c r="L248" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M248" s="0" t="s">
         <v>660</v>
@@ -35222,10 +35222,10 @@
         <v>667</v>
       </c>
       <c r="P248" s="0" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
         <v>610</v>
       </c>
@@ -35236,10 +35236,10 @@
         <v>1</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="E249" s="0" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="F249" s="0" t="s">
         <v>656</v>
@@ -35257,7 +35257,7 @@
         <v>8</v>
       </c>
       <c r="L249" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M249" s="0" t="s">
         <v>660</v>
@@ -35266,10 +35266,10 @@
         <v>661</v>
       </c>
       <c r="P249" s="0" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
         <v>610</v>
       </c>
@@ -35301,7 +35301,7 @@
         <v>8</v>
       </c>
       <c r="L250" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M250" s="0" t="s">
         <v>660</v>
@@ -35313,10 +35313,10 @@
         <v>667</v>
       </c>
       <c r="P250" s="0" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
         <v>610</v>
       </c>
@@ -35327,10 +35327,10 @@
         <v>3</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="E251" s="0" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="F251" s="0" t="s">
         <v>688</v>
@@ -35351,10 +35351,10 @@
         <v>667</v>
       </c>
       <c r="P251" s="0" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
         <v>610</v>
       </c>
@@ -35365,10 +35365,10 @@
         <v>4</v>
       </c>
       <c r="D252" s="0" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="E252" s="0" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="F252" s="0" t="s">
         <v>688</v>
@@ -35389,10 +35389,10 @@
         <v>667</v>
       </c>
       <c r="P252" s="0" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
         <v>610</v>
       </c>
@@ -35403,10 +35403,10 @@
         <v>5</v>
       </c>
       <c r="D253" s="0" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="E253" s="0" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="F253" s="0" t="s">
         <v>688</v>
@@ -35427,10 +35427,10 @@
         <v>667</v>
       </c>
       <c r="P253" s="0" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
         <v>610</v>
       </c>
@@ -35441,10 +35441,10 @@
         <v>6</v>
       </c>
       <c r="D254" s="0" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="E254" s="0" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="F254" s="0" t="s">
         <v>716</v>
@@ -35462,10 +35462,10 @@
         <v>667</v>
       </c>
       <c r="P254" s="0" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
         <v>610</v>
       </c>
@@ -35476,10 +35476,10 @@
         <v>7</v>
       </c>
       <c r="D255" s="0" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="E255" s="0" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="F255" s="0" t="s">
         <v>823</v>
@@ -35497,10 +35497,10 @@
         <v>667</v>
       </c>
       <c r="P255" s="0" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
         <v>610</v>
       </c>
@@ -35538,7 +35538,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
         <v>610</v>
       </c>
@@ -35570,7 +35570,7 @@
         <v>8</v>
       </c>
       <c r="L257" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M257" s="0" t="s">
         <v>660</v>
@@ -35579,10 +35579,10 @@
         <v>661</v>
       </c>
       <c r="P257" s="0" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
         <v>610</v>
       </c>
@@ -35614,7 +35614,7 @@
         <v>8</v>
       </c>
       <c r="L258" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M258" s="0" t="s">
         <v>660</v>
@@ -35629,7 +35629,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
         <v>610</v>
       </c>
@@ -35661,10 +35661,10 @@
         <v>718</v>
       </c>
       <c r="P259" s="0" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
         <v>610</v>
       </c>
@@ -35675,10 +35675,10 @@
         <v>4</v>
       </c>
       <c r="D260" s="0" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="E260" s="0" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="F260" s="0" t="s">
         <v>671</v>
@@ -35696,10 +35696,10 @@
         <v>673</v>
       </c>
       <c r="P260" s="0" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
         <v>610</v>
       </c>
@@ -35710,10 +35710,10 @@
         <v>5</v>
       </c>
       <c r="D261" s="0" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="E261" s="0" t="s">
-        <v>1168</v>
+        <v>1060</v>
       </c>
       <c r="F261" s="0" t="s">
         <v>823</v>
@@ -35734,7 +35734,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
         <v>610</v>
       </c>
@@ -35766,7 +35766,7 @@
         <v>8</v>
       </c>
       <c r="L262" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M262" s="0" t="s">
         <v>660</v>
@@ -35778,7 +35778,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
         <v>610</v>
       </c>
@@ -35813,7 +35813,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
         <v>610</v>
       </c>
@@ -35851,7 +35851,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
         <v>610</v>
       </c>
@@ -35889,7 +35889,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
         <v>610</v>
       </c>
@@ -35921,7 +35921,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
         <v>610</v>
       </c>
@@ -35950,7 +35950,7 @@
         <v>8</v>
       </c>
       <c r="L267" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M267" s="0" t="s">
         <v>660</v>
@@ -35965,7 +35965,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
         <v>610</v>
       </c>
@@ -36012,7 +36012,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
         <v>610</v>
       </c>
@@ -36044,7 +36044,7 @@
         <v>8</v>
       </c>
       <c r="L269" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M269" s="0" t="s">
         <v>660</v>
@@ -36056,7 +36056,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
         <v>610</v>
       </c>
@@ -36088,7 +36088,7 @@
         <v>8</v>
       </c>
       <c r="L270" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M270" s="0" t="s">
         <v>660</v>
@@ -36100,7 +36100,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
         <v>610</v>
       </c>
@@ -36129,7 +36129,7 @@
         <v>8</v>
       </c>
       <c r="L271" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M271" s="0" t="s">
         <v>660</v>
@@ -36141,7 +36141,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
         <v>610</v>
       </c>
@@ -36173,7 +36173,7 @@
         <v>8</v>
       </c>
       <c r="L272" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M272" s="0" t="s">
         <v>660</v>
@@ -36185,7 +36185,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
         <v>610</v>
       </c>
@@ -36220,7 +36220,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
         <v>610</v>
       </c>
@@ -36253,13 +36253,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P274">
-    <filterColumn colId="4">
-      <customFilters and="true">
-        <customFilter operator="equal" val="MoznaVyhraVysePocatek"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P274"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/csv-validator/PackageValidation/ValidationServices/SchemaSource/structured-schema-description.xlsx
+++ b/csv-validator/PackageValidation/ValidationServices/SchemaSource/structured-schema-description.xlsx
@@ -713,7 +713,7 @@
     <t xml:space="preserve">přijetí tiketu kursové sázky bylo provozovatelem odmítnuto</t>
   </si>
   <si>
-    <t xml:space="preserve">TypTransakce</t>
+    <t xml:space="preserve">TransakceTyp</t>
   </si>
   <si>
     <t xml:space="preserve">The aggregate of cash received as payments for stakes placed in a live game tournament.</t>
@@ -2819,6 +2819,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2907,8 +2908,8 @@
   </sheetPr>
   <dimension ref="A1:D221"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A100" activeCellId="0" sqref="A100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A90" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A114" activeCellId="0" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7900,7 +7901,7 @@
   <dimension ref="A1:P274"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E254" activeCellId="0" sqref="E254"/>
+      <selection pane="topLeft" activeCell="E202" activeCellId="0" sqref="E202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10410,7 +10411,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>334</v>
       </c>
@@ -15631,7 +15632,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
         <v>334</v>
       </c>
@@ -15675,7 +15676,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
         <v>334</v>
       </c>
@@ -15719,7 +15720,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
         <v>334</v>
       </c>
@@ -15766,7 +15767,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
         <v>334</v>
       </c>
@@ -15801,7 +15802,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
         <v>334</v>
       </c>
@@ -15836,7 +15837,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
         <v>334</v>
       </c>
@@ -15871,7 +15872,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
         <v>334</v>
       </c>
@@ -17841,7 +17842,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
         <v>345</v>
       </c>
@@ -18665,11 +18666,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:P274">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="TurnajVkladyPredZahajenim"/>
-        <filter val="TurnajVkladyPredZahajenimVyse"/>
-      </filters>
+    <filterColumn colId="1">
+      <customFilters and="true">
+        <customFilter operator="equal" val="PSTB_transakce.csv"/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/csv-validator/PackageValidation/ValidationServices/SchemaSource/structured-schema-description.xlsx
+++ b/csv-validator/PackageValidation/ValidationServices/SchemaSource/structured-schema-description.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Codebook" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4159" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4159" uniqueCount="916">
   <si>
     <t xml:space="preserve">FieldName</t>
   </si>
@@ -908,7 +908,7 @@
     <t xml:space="preserve">prostřednictvím uživatelského konta je umožněna účast na druhu hazardní hry specifikovaném v položce HraDruh neprovozovaném jako internetová hra</t>
   </si>
   <si>
-    <t xml:space="preserve">MENAKOD</t>
+    <t xml:space="preserve">MenaKod</t>
   </si>
   <si>
     <t xml:space="preserve">AUD</t>
@@ -1019,10 +1019,10 @@
     <t xml:space="preserve">CZK</t>
   </si>
   <si>
-    <t xml:space="preserve">MENAKODPOSKYTNUTI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENAKODPRIJETI</t>
+    <t xml:space="preserve">MenaKodPoskytnuti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MenaKodPrijeti</t>
   </si>
   <si>
     <t xml:space="preserve">Key</t>
@@ -1460,9 +1460,6 @@
     <t xml:space="preserve">CurrencyCode</t>
   </si>
   <si>
-    <t xml:space="preserve">MenaKod</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kód měny</t>
   </si>
   <si>
@@ -2468,9 +2465,6 @@
     <t xml:space="preserve">CurrencyCodeReceipt</t>
   </si>
   <si>
-    <t xml:space="preserve">MenaKodPrijeti</t>
-  </si>
-  <si>
     <t xml:space="preserve">Měna, v níž byl úhrn vkladů přijatých ze sdílené herní jistiny přijat</t>
   </si>
   <si>
@@ -2493,9 +2487,6 @@
   </si>
   <si>
     <t xml:space="preserve">CurrencyCodeProvision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MenaKodPoskytnuti</t>
   </si>
   <si>
     <t xml:space="preserve">Měna, v níž byl úhrn výher poskytnutých do sdílené herní jistiny přijat</t>
@@ -2793,7 +2784,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2820,6 +2811,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2864,7 +2860,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2879,6 +2875,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2908,8 +2908,8 @@
   </sheetPr>
   <dimension ref="A1:D221"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A90" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A114" activeCellId="0" sqref="A114"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5064,7 +5064,7 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
+      <c r="A154" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B154" s="3" t="s">
@@ -5078,7 +5078,7 @@
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
+      <c r="A155" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B155" s="3" t="s">
@@ -5092,7 +5092,7 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
+      <c r="A156" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B156" s="3" t="s">
@@ -5106,7 +5106,7 @@
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
+      <c r="A157" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B157" s="3" t="s">
@@ -5120,7 +5120,7 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
+      <c r="A158" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B158" s="3" t="s">
@@ -5134,7 +5134,7 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
+      <c r="A159" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B159" s="3" t="s">
@@ -5148,7 +5148,7 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
+      <c r="A160" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B160" s="3" t="s">
@@ -5162,7 +5162,7 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
+      <c r="A161" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B161" s="3" t="s">
@@ -5176,7 +5176,7 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
+      <c r="A162" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B162" s="3" t="s">
@@ -5190,7 +5190,7 @@
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
+      <c r="A163" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B163" s="3" t="s">
@@ -5204,7 +5204,7 @@
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
+      <c r="A164" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B164" s="3" t="s">
@@ -5218,7 +5218,7 @@
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
+      <c r="A165" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B165" s="3" t="s">
@@ -5232,7 +5232,7 @@
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
+      <c r="A166" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B166" s="3" t="s">
@@ -5246,7 +5246,7 @@
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
+      <c r="A167" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B167" s="3" t="s">
@@ -5260,7 +5260,7 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
+      <c r="A168" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B168" s="3" t="s">
@@ -5274,7 +5274,7 @@
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
+      <c r="A169" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B169" s="3" t="s">
@@ -5288,7 +5288,7 @@
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
+      <c r="A170" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B170" s="3" t="s">
@@ -5302,7 +5302,7 @@
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
+      <c r="A171" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B171" s="3" t="s">
@@ -5316,7 +5316,7 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
+      <c r="A172" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B172" s="3" t="s">
@@ -5330,7 +5330,7 @@
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
+      <c r="A173" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B173" s="3" t="s">
@@ -5344,7 +5344,7 @@
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
+      <c r="A174" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B174" s="3" t="s">
@@ -5358,7 +5358,7 @@
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
+      <c r="A175" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B175" s="3" t="s">
@@ -5372,7 +5372,7 @@
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
+      <c r="A176" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B176" s="3" t="s">
@@ -5386,7 +5386,7 @@
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
+      <c r="A177" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B177" s="3" t="s">
@@ -5400,7 +5400,7 @@
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
+      <c r="A178" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B178" s="3" t="s">
@@ -5414,7 +5414,7 @@
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
+      <c r="A179" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B179" s="3" t="s">
@@ -5428,7 +5428,7 @@
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
+      <c r="A180" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B180" s="3" t="s">
@@ -5442,7 +5442,7 @@
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
+      <c r="A181" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B181" s="3" t="s">
@@ -5456,7 +5456,7 @@
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
+      <c r="A182" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B182" s="3" t="s">
@@ -5470,7 +5470,7 @@
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
+      <c r="A183" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B183" s="3" t="s">
@@ -5484,7 +5484,7 @@
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
+      <c r="A184" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B184" s="3" t="s">
@@ -5498,7 +5498,7 @@
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
+      <c r="A185" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B185" s="3" t="s">
@@ -5512,7 +5512,7 @@
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
+      <c r="A186" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B186" s="3" t="s">
@@ -5526,7 +5526,7 @@
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="s">
+      <c r="A187" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B187" s="0" t="s">
@@ -7900,8 +7900,8 @@
   </sheetPr>
   <dimension ref="A1:P274"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E202" activeCellId="0" sqref="E202"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E212" activeCellId="0" sqref="E212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7913,7 +7913,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="61.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.91"/>
@@ -7926,52 +7926,52 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>333</v>
       </c>
     </row>
@@ -8259,7 +8259,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>334</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>345</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>345</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>345</v>
       </c>
@@ -8748,7 +8748,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>345</v>
       </c>
@@ -9116,7 +9116,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>345</v>
       </c>
@@ -9130,10 +9130,10 @@
         <v>476</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>477</v>
+        <v>293</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>427</v>
@@ -9151,7 +9151,7 @@
         <v>402</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9239,7 +9239,7 @@
         <v>402</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9253,10 +9253,10 @@
         <v>1</v>
       </c>
       <c r="D34" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="E34" s="0" t="s">
         <v>480</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>481</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>391</v>
@@ -9283,7 +9283,7 @@
         <v>396</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9330,7 +9330,7 @@
         <v>402</v>
       </c>
       <c r="P35" s="0" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9344,10 +9344,10 @@
         <v>3</v>
       </c>
       <c r="D36" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="E36" s="0" t="s">
         <v>484</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>485</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>400</v>
@@ -9377,7 +9377,7 @@
         <v>402</v>
       </c>
       <c r="P36" s="0" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9391,16 +9391,16 @@
         <v>4</v>
       </c>
       <c r="D37" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="E37" s="0" t="s">
         <v>487</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>488</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>451</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>393</v>
@@ -9412,7 +9412,7 @@
         <v>453</v>
       </c>
       <c r="P37" s="0" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9435,7 +9435,7 @@
         <v>426</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>412</v>
@@ -9444,7 +9444,7 @@
         <v>402</v>
       </c>
       <c r="P38" s="0" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9458,31 +9458,31 @@
         <v>6</v>
       </c>
       <c r="D39" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="E39" s="0" t="s">
         <v>493</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>494</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>451</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>412</v>
       </c>
       <c r="I39" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="J39" s="0" t="s">
         <v>495</v>
-      </c>
-      <c r="J39" s="0" t="s">
-        <v>496</v>
       </c>
       <c r="M39" s="0" t="s">
         <v>453</v>
       </c>
       <c r="P39" s="0" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9496,10 +9496,10 @@
         <v>7</v>
       </c>
       <c r="D40" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="E40" s="0" t="s">
         <v>498</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>499</v>
       </c>
       <c r="F40" s="0" t="s">
         <v>406</v>
@@ -9511,16 +9511,16 @@
         <v>412</v>
       </c>
       <c r="I40" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="J40" s="0" t="s">
         <v>495</v>
-      </c>
-      <c r="J40" s="0" t="s">
-        <v>496</v>
       </c>
       <c r="N40" s="0" t="s">
         <v>408</v>
       </c>
       <c r="P40" s="0" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9534,16 +9534,16 @@
         <v>8</v>
       </c>
       <c r="D41" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="E41" s="0" t="s">
         <v>501</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>502</v>
       </c>
       <c r="F41" s="0" t="s">
         <v>451</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>412</v>
@@ -9552,7 +9552,7 @@
         <v>453</v>
       </c>
       <c r="P41" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9566,16 +9566,16 @@
         <v>9</v>
       </c>
       <c r="D42" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="E42" s="0" t="s">
         <v>505</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>506</v>
       </c>
       <c r="F42" s="0" t="s">
         <v>451</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>412</v>
@@ -9584,7 +9584,7 @@
         <v>453</v>
       </c>
       <c r="P42" s="0" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9607,7 +9607,7 @@
         <v>426</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>393</v>
@@ -9616,7 +9616,7 @@
         <v>394</v>
       </c>
       <c r="P43" s="0" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9630,10 +9630,10 @@
         <v>1</v>
       </c>
       <c r="D44" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="E44" s="0" t="s">
         <v>509</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>510</v>
       </c>
       <c r="F44" s="0" t="s">
         <v>391</v>
@@ -9660,7 +9660,7 @@
         <v>396</v>
       </c>
       <c r="P44" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9707,10 +9707,10 @@
         <v>402</v>
       </c>
       <c r="P45" s="0" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>345</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>44</v>
@@ -9742,7 +9742,7 @@
         <v>1</v>
       </c>
       <c r="P46" s="0" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9756,10 +9756,10 @@
         <v>4</v>
       </c>
       <c r="D47" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="E47" s="0" t="s">
         <v>514</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>515</v>
       </c>
       <c r="F47" s="0" t="s">
         <v>451</v>
@@ -9780,7 +9780,7 @@
         <v>402</v>
       </c>
       <c r="P47" s="0" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9794,10 +9794,10 @@
         <v>5</v>
       </c>
       <c r="D48" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="E48" s="0" t="s">
         <v>517</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>518</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>406</v>
@@ -9818,10 +9818,10 @@
         <v>402</v>
       </c>
       <c r="P48" s="0" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>345</v>
       </c>
@@ -9835,10 +9835,10 @@
         <v>476</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>477</v>
+        <v>293</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>427</v>
@@ -9853,7 +9853,7 @@
         <v>3</v>
       </c>
       <c r="P49" s="0" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9867,10 +9867,10 @@
         <v>1</v>
       </c>
       <c r="D50" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="E50" s="0" t="s">
         <v>520</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>521</v>
       </c>
       <c r="F50" s="0" t="s">
         <v>391</v>
@@ -9897,7 +9897,7 @@
         <v>396</v>
       </c>
       <c r="P50" s="0" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9911,10 +9911,10 @@
         <v>2</v>
       </c>
       <c r="D51" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="E51" s="0" t="s">
         <v>523</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>524</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>400</v>
@@ -9944,7 +9944,7 @@
         <v>402</v>
       </c>
       <c r="P51" s="0" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9958,10 +9958,10 @@
         <v>3</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F52" s="0" t="s">
         <v>400</v>
@@ -9991,7 +9991,7 @@
         <v>402</v>
       </c>
       <c r="P52" s="0" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10005,10 +10005,10 @@
         <v>4</v>
       </c>
       <c r="D53" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="E53" s="0" t="s">
         <v>527</v>
-      </c>
-      <c r="E53" s="0" t="s">
-        <v>528</v>
       </c>
       <c r="F53" s="0" t="s">
         <v>423</v>
@@ -10026,7 +10026,7 @@
         <v>402</v>
       </c>
       <c r="P53" s="0" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10043,7 +10043,7 @@
         <v>437</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F54" s="0" t="s">
         <v>406</v>
@@ -10061,7 +10061,7 @@
         <v>408</v>
       </c>
       <c r="P54" s="0" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10075,10 +10075,10 @@
         <v>6</v>
       </c>
       <c r="D55" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="E55" s="0" t="s">
         <v>532</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>533</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>406</v>
@@ -10096,7 +10096,7 @@
         <v>402</v>
       </c>
       <c r="P55" s="0" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10110,10 +10110,10 @@
         <v>7</v>
       </c>
       <c r="D56" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="E56" s="0" t="s">
         <v>535</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>536</v>
       </c>
       <c r="F56" s="0" t="s">
         <v>451</v>
@@ -10131,7 +10131,7 @@
         <v>453</v>
       </c>
       <c r="P56" s="0" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10145,10 +10145,10 @@
         <v>8</v>
       </c>
       <c r="D57" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E57" s="0" t="s">
         <v>538</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>539</v>
       </c>
       <c r="F57" s="0" t="s">
         <v>451</v>
@@ -10163,7 +10163,7 @@
         <v>453</v>
       </c>
       <c r="P57" s="0" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10177,10 +10177,10 @@
         <v>9</v>
       </c>
       <c r="D58" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="E58" s="0" t="s">
         <v>541</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>542</v>
       </c>
       <c r="F58" s="0" t="s">
         <v>451</v>
@@ -10198,7 +10198,7 @@
         <v>453</v>
       </c>
       <c r="P58" s="0" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10212,10 +10212,10 @@
         <v>10</v>
       </c>
       <c r="D59" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="E59" s="0" t="s">
         <v>544</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>545</v>
       </c>
       <c r="F59" s="0" t="s">
         <v>451</v>
@@ -10230,7 +10230,7 @@
         <v>453</v>
       </c>
       <c r="P59" s="0" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10244,10 +10244,10 @@
         <v>11</v>
       </c>
       <c r="D60" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="E60" s="0" t="s">
         <v>547</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>548</v>
       </c>
       <c r="F60" s="0" t="s">
         <v>451</v>
@@ -10265,7 +10265,7 @@
         <v>402</v>
       </c>
       <c r="P60" s="0" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10279,10 +10279,10 @@
         <v>12</v>
       </c>
       <c r="D61" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="E61" s="0" t="s">
         <v>550</v>
-      </c>
-      <c r="E61" s="0" t="s">
-        <v>551</v>
       </c>
       <c r="F61" s="0" t="s">
         <v>423</v>
@@ -10300,7 +10300,7 @@
         <v>402</v>
       </c>
       <c r="P61" s="0" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10314,10 +10314,10 @@
         <v>13</v>
       </c>
       <c r="D62" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="E62" s="0" t="s">
         <v>553</v>
-      </c>
-      <c r="E62" s="0" t="s">
-        <v>554</v>
       </c>
       <c r="F62" s="0" t="s">
         <v>423</v>
@@ -10335,10 +10335,10 @@
         <v>402</v>
       </c>
       <c r="P62" s="0" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>334</v>
       </c>
@@ -10352,10 +10352,10 @@
         <v>476</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>477</v>
+        <v>293</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G63" s="0" t="s">
         <v>427</v>
@@ -10373,7 +10373,7 @@
         <v>402</v>
       </c>
       <c r="P63" s="0" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10387,28 +10387,28 @@
         <v>15</v>
       </c>
       <c r="D64" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="E64" s="0" t="s">
         <v>556</v>
       </c>
-      <c r="E64" s="0" t="s">
+      <c r="F64" s="0" t="s">
         <v>557</v>
       </c>
-      <c r="F64" s="0" t="s">
+      <c r="G64" s="0" t="s">
         <v>558</v>
-      </c>
-      <c r="G64" s="0" t="s">
-        <v>559</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>412</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="O64" s="0" t="s">
         <v>402</v>
       </c>
       <c r="P64" s="0" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10422,10 +10422,10 @@
         <v>16</v>
       </c>
       <c r="D65" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="E65" s="0" t="s">
         <v>562</v>
-      </c>
-      <c r="E65" s="0" t="s">
-        <v>563</v>
       </c>
       <c r="F65" s="0" t="s">
         <v>451</v>
@@ -10443,7 +10443,7 @@
         <v>402</v>
       </c>
       <c r="P65" s="0" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10457,10 +10457,10 @@
         <v>1</v>
       </c>
       <c r="D66" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="E66" s="0" t="s">
         <v>565</v>
-      </c>
-      <c r="E66" s="0" t="s">
-        <v>566</v>
       </c>
       <c r="F66" s="0" t="s">
         <v>391</v>
@@ -10487,7 +10487,7 @@
         <v>396</v>
       </c>
       <c r="P66" s="0" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10534,7 +10534,7 @@
         <v>402</v>
       </c>
       <c r="P67" s="0" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10548,10 +10548,10 @@
         <v>3</v>
       </c>
       <c r="D68" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="E68" s="0" t="s">
         <v>569</v>
-      </c>
-      <c r="E68" s="0" t="s">
-        <v>570</v>
       </c>
       <c r="F68" s="0" t="s">
         <v>406</v>
@@ -10569,7 +10569,7 @@
         <v>408</v>
       </c>
       <c r="P68" s="0" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10583,10 +10583,10 @@
         <v>4</v>
       </c>
       <c r="D69" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="E69" s="0" t="s">
         <v>550</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>551</v>
       </c>
       <c r="F69" s="0" t="s">
         <v>423</v>
@@ -10604,7 +10604,7 @@
         <v>402</v>
       </c>
       <c r="P69" s="0" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10618,10 +10618,10 @@
         <v>5</v>
       </c>
       <c r="D70" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="E70" s="0" t="s">
         <v>573</v>
-      </c>
-      <c r="E70" s="0" t="s">
-        <v>574</v>
       </c>
       <c r="F70" s="0" t="s">
         <v>423</v>
@@ -10639,7 +10639,7 @@
         <v>402</v>
       </c>
       <c r="P70" s="0" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10653,10 +10653,10 @@
         <v>6</v>
       </c>
       <c r="D71" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="E71" s="0" t="s">
         <v>553</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>554</v>
       </c>
       <c r="F71" s="0" t="s">
         <v>423</v>
@@ -10674,7 +10674,7 @@
         <v>402</v>
       </c>
       <c r="P71" s="0" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10688,10 +10688,10 @@
         <v>7</v>
       </c>
       <c r="D72" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="E72" s="0" t="s">
         <v>577</v>
-      </c>
-      <c r="E72" s="0" t="s">
-        <v>578</v>
       </c>
       <c r="F72" s="0" t="s">
         <v>423</v>
@@ -10709,7 +10709,7 @@
         <v>402</v>
       </c>
       <c r="P72" s="0" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10723,10 +10723,10 @@
         <v>8</v>
       </c>
       <c r="D73" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="E73" s="0" t="s">
         <v>580</v>
-      </c>
-      <c r="E73" s="0" t="s">
-        <v>581</v>
       </c>
       <c r="F73" s="0" t="s">
         <v>423</v>
@@ -10744,7 +10744,7 @@
         <v>402</v>
       </c>
       <c r="P73" s="0" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10758,10 +10758,10 @@
         <v>9</v>
       </c>
       <c r="D74" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="E74" s="0" t="s">
         <v>583</v>
-      </c>
-      <c r="E74" s="0" t="s">
-        <v>584</v>
       </c>
       <c r="F74" s="0" t="s">
         <v>423</v>
@@ -10779,7 +10779,7 @@
         <v>402</v>
       </c>
       <c r="P74" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10793,7 +10793,7 @@
         <v>10</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E75" s="0" t="s">
         <v>39</v>
@@ -10802,7 +10802,7 @@
         <v>426</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H75" s="0" t="s">
         <v>412</v>
@@ -10811,7 +10811,7 @@
         <v>402</v>
       </c>
       <c r="P75" s="0" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10855,7 +10855,7 @@
         <v>396</v>
       </c>
       <c r="P76" s="0" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10916,10 +10916,10 @@
         <v>3</v>
       </c>
       <c r="D78" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="E78" s="0" t="s">
         <v>589</v>
-      </c>
-      <c r="E78" s="0" t="s">
-        <v>590</v>
       </c>
       <c r="F78" s="0" t="s">
         <v>406</v>
@@ -10940,7 +10940,7 @@
         <v>402</v>
       </c>
       <c r="P78" s="0" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10954,10 +10954,10 @@
         <v>1</v>
       </c>
       <c r="D79" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="E79" s="0" t="s">
         <v>592</v>
-      </c>
-      <c r="E79" s="0" t="s">
-        <v>593</v>
       </c>
       <c r="F79" s="0" t="s">
         <v>391</v>
@@ -10984,7 +10984,7 @@
         <v>396</v>
       </c>
       <c r="P79" s="0" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11034,7 +11034,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>345</v>
       </c>
@@ -11086,7 +11086,7 @@
         <v>4</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E82" s="0" t="s">
         <v>290</v>
@@ -11095,7 +11095,7 @@
         <v>426</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H82" s="0" t="s">
         <v>393</v>
@@ -11104,7 +11104,7 @@
         <v>394</v>
       </c>
       <c r="P82" s="0" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11127,7 +11127,7 @@
         <v>426</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H83" s="0" t="s">
         <v>393</v>
@@ -11136,10 +11136,10 @@
         <v>394</v>
       </c>
       <c r="P83" s="0" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>345</v>
       </c>
@@ -11150,7 +11150,7 @@
         <v>6</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E84" s="0" t="s">
         <v>218</v>
@@ -11171,7 +11171,7 @@
         <v>1</v>
       </c>
       <c r="P84" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11185,10 +11185,10 @@
         <v>7</v>
       </c>
       <c r="D85" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="E85" s="0" t="s">
         <v>600</v>
-      </c>
-      <c r="E85" s="0" t="s">
-        <v>601</v>
       </c>
       <c r="F85" s="0" t="s">
         <v>406</v>
@@ -11212,7 +11212,7 @@
         <v>402</v>
       </c>
       <c r="P85" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11226,10 +11226,10 @@
         <v>1</v>
       </c>
       <c r="D86" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="E86" s="0" t="s">
         <v>603</v>
-      </c>
-      <c r="E86" s="0" t="s">
-        <v>604</v>
       </c>
       <c r="F86" s="0" t="s">
         <v>391</v>
@@ -11256,7 +11256,7 @@
         <v>396</v>
       </c>
       <c r="P86" s="0" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11303,7 +11303,7 @@
         <v>402</v>
       </c>
       <c r="P87" s="0" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11317,10 +11317,10 @@
         <v>3</v>
       </c>
       <c r="D88" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="E88" s="0" t="s">
         <v>606</v>
-      </c>
-      <c r="E88" s="0" t="s">
-        <v>607</v>
       </c>
       <c r="F88" s="0" t="s">
         <v>400</v>
@@ -11350,7 +11350,7 @@
         <v>402</v>
       </c>
       <c r="P88" s="0" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11364,16 +11364,16 @@
         <v>4</v>
       </c>
       <c r="D89" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="E89" s="0" t="s">
         <v>609</v>
-      </c>
-      <c r="E89" s="0" t="s">
-        <v>610</v>
       </c>
       <c r="F89" s="0" t="s">
         <v>451</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H89" s="0" t="s">
         <v>412</v>
@@ -11385,7 +11385,7 @@
         <v>402</v>
       </c>
       <c r="P89" s="0" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11399,10 +11399,10 @@
         <v>1</v>
       </c>
       <c r="D90" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="E90" s="0" t="s">
         <v>611</v>
-      </c>
-      <c r="E90" s="0" t="s">
-        <v>612</v>
       </c>
       <c r="F90" s="0" t="s">
         <v>391</v>
@@ -11429,7 +11429,7 @@
         <v>396</v>
       </c>
       <c r="P90" s="0" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11476,10 +11476,10 @@
         <v>402</v>
       </c>
       <c r="P91" s="0" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>334</v>
       </c>
@@ -11528,16 +11528,16 @@
         <v>4</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F93" s="0" t="s">
         <v>451</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H93" s="0" t="s">
         <v>393</v>
@@ -11549,10 +11549,10 @@
         <v>453</v>
       </c>
       <c r="P93" s="0" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>334</v>
       </c>
@@ -11566,10 +11566,10 @@
         <v>476</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>477</v>
+        <v>293</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G94" s="0" t="s">
         <v>427</v>
@@ -11587,7 +11587,7 @@
         <v>402</v>
       </c>
       <c r="P94" s="0" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11601,16 +11601,16 @@
         <v>6</v>
       </c>
       <c r="D95" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="E95" s="0" t="s">
         <v>617</v>
       </c>
-      <c r="E95" s="0" t="s">
+      <c r="F95" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="G95" s="0" t="s">
         <v>618</v>
-      </c>
-      <c r="F95" s="0" t="s">
-        <v>617</v>
-      </c>
-      <c r="G95" s="0" t="s">
-        <v>619</v>
       </c>
       <c r="H95" s="0" t="s">
         <v>393</v>
@@ -11622,7 +11622,7 @@
         <v>408</v>
       </c>
       <c r="P95" s="0" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11636,10 +11636,10 @@
         <v>1</v>
       </c>
       <c r="D96" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="E96" s="0" t="s">
         <v>611</v>
-      </c>
-      <c r="E96" s="0" t="s">
-        <v>612</v>
       </c>
       <c r="F96" s="0" t="s">
         <v>391</v>
@@ -11666,7 +11666,7 @@
         <v>396</v>
       </c>
       <c r="P96" s="0" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11716,7 +11716,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>345</v>
       </c>
@@ -11765,16 +11765,16 @@
         <v>4</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F99" s="0" t="s">
         <v>451</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H99" s="0" t="s">
         <v>393</v>
@@ -11786,10 +11786,10 @@
         <v>453</v>
       </c>
       <c r="P99" s="0" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>345</v>
       </c>
@@ -11803,10 +11803,10 @@
         <v>476</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>477</v>
+        <v>293</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G100" s="0" t="s">
         <v>427</v>
@@ -11824,7 +11824,7 @@
         <v>402</v>
       </c>
       <c r="P100" s="0" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11838,16 +11838,16 @@
         <v>6</v>
       </c>
       <c r="D101" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="E101" s="0" t="s">
         <v>617</v>
       </c>
-      <c r="E101" s="0" t="s">
+      <c r="F101" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="G101" s="0" t="s">
         <v>618</v>
-      </c>
-      <c r="F101" s="0" t="s">
-        <v>617</v>
-      </c>
-      <c r="G101" s="0" t="s">
-        <v>619</v>
       </c>
       <c r="H101" s="0" t="s">
         <v>393</v>
@@ -11859,7 +11859,7 @@
         <v>408</v>
       </c>
       <c r="P101" s="0" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11903,7 +11903,7 @@
         <v>396</v>
       </c>
       <c r="P102" s="0" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11950,7 +11950,7 @@
         <v>402</v>
       </c>
       <c r="P103" s="0" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11964,25 +11964,25 @@
         <v>4</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F104" s="0" t="s">
         <v>451</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H104" s="0" t="s">
         <v>412</v>
       </c>
       <c r="I104" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="J104" s="0" t="s">
         <v>626</v>
-      </c>
-      <c r="J104" s="0" t="s">
-        <v>627</v>
       </c>
       <c r="P104" s="0" t="s">
         <v>420</v>
@@ -11999,28 +11999,28 @@
         <v>5</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F105" s="0" t="s">
         <v>451</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H105" s="0" t="s">
         <v>412</v>
       </c>
       <c r="I105" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="J105" s="0" t="s">
         <v>626</v>
       </c>
-      <c r="J105" s="0" t="s">
-        <v>627</v>
-      </c>
       <c r="P105" s="0" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12034,10 +12034,10 @@
         <v>2</v>
       </c>
       <c r="D106" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="E106" s="0" t="s">
         <v>630</v>
-      </c>
-      <c r="E106" s="0" t="s">
-        <v>631</v>
       </c>
       <c r="F106" s="0" t="s">
         <v>423</v>
@@ -12055,7 +12055,7 @@
         <v>250</v>
       </c>
       <c r="P106" s="0" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12069,10 +12069,10 @@
         <v>6</v>
       </c>
       <c r="D107" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="E107" s="0" t="s">
         <v>633</v>
-      </c>
-      <c r="E107" s="0" t="s">
-        <v>634</v>
       </c>
       <c r="F107" s="0" t="s">
         <v>423</v>
@@ -12087,7 +12087,7 @@
         <v>250</v>
       </c>
       <c r="P107" s="0" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12101,22 +12101,22 @@
         <v>7</v>
       </c>
       <c r="D108" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="E108" s="0" t="s">
         <v>636</v>
       </c>
-      <c r="E108" s="0" t="s">
+      <c r="F108" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="G108" s="0" t="s">
         <v>637</v>
-      </c>
-      <c r="F108" s="0" t="s">
-        <v>558</v>
-      </c>
-      <c r="G108" s="0" t="s">
-        <v>638</v>
       </c>
       <c r="H108" s="0" t="s">
         <v>412</v>
       </c>
       <c r="P108" s="0" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12130,10 +12130,10 @@
         <v>8</v>
       </c>
       <c r="D109" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="E109" s="0" t="s">
         <v>640</v>
-      </c>
-      <c r="E109" s="0" t="s">
-        <v>641</v>
       </c>
       <c r="F109" s="0" t="s">
         <v>423</v>
@@ -12148,7 +12148,7 @@
         <v>10</v>
       </c>
       <c r="P109" s="0" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12162,10 +12162,10 @@
         <v>9</v>
       </c>
       <c r="D110" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="E110" s="0" t="s">
         <v>643</v>
-      </c>
-      <c r="E110" s="0" t="s">
-        <v>644</v>
       </c>
       <c r="F110" s="0" t="s">
         <v>423</v>
@@ -12180,7 +12180,7 @@
         <v>250</v>
       </c>
       <c r="P110" s="0" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12194,31 +12194,31 @@
         <v>10</v>
       </c>
       <c r="D111" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="E111" s="0" t="s">
         <v>646</v>
       </c>
-      <c r="E111" s="0" t="s">
+      <c r="F111" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="G111" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="H111" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="I111" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="M111" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="O111" s="0" t="s">
         <v>647</v>
       </c>
-      <c r="F111" s="0" t="s">
-        <v>558</v>
-      </c>
-      <c r="G111" s="0" t="s">
-        <v>638</v>
-      </c>
-      <c r="H111" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="I111" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="M111" s="0" t="s">
-        <v>560</v>
-      </c>
-      <c r="O111" s="0" t="s">
+      <c r="P111" s="0" t="s">
         <v>648</v>
-      </c>
-      <c r="P111" s="0" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12232,10 +12232,10 @@
         <v>11</v>
       </c>
       <c r="D112" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="E112" s="0" t="s">
         <v>650</v>
-      </c>
-      <c r="E112" s="0" t="s">
-        <v>651</v>
       </c>
       <c r="F112" s="0" t="s">
         <v>423</v>
@@ -12253,7 +12253,7 @@
         <v>250</v>
       </c>
       <c r="P112" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12267,25 +12267,25 @@
         <v>12</v>
       </c>
       <c r="D113" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="E113" s="0" t="s">
         <v>653</v>
       </c>
-      <c r="E113" s="0" t="s">
-        <v>654</v>
-      </c>
       <c r="F113" s="0" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H113" s="0" t="s">
         <v>412</v>
       </c>
       <c r="P113" s="0" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>334</v>
       </c>
@@ -12296,7 +12296,7 @@
         <v>13</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E114" s="0" t="s">
         <v>145</v>
@@ -12320,7 +12320,7 @@
         <v>3</v>
       </c>
       <c r="P114" s="0" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12334,25 +12334,25 @@
         <v>14</v>
       </c>
       <c r="D115" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="E115" s="0" t="s">
         <v>658</v>
       </c>
-      <c r="E115" s="0" t="s">
-        <v>659</v>
-      </c>
       <c r="F115" s="0" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H115" s="0" t="s">
         <v>412</v>
       </c>
       <c r="O115" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="P115" s="0" t="s">
         <v>660</v>
-      </c>
-      <c r="P115" s="0" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12396,7 +12396,7 @@
         <v>396</v>
       </c>
       <c r="P116" s="0" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12457,31 +12457,31 @@
         <v>3</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F118" s="0" t="s">
         <v>451</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H118" s="0" t="s">
         <v>412</v>
       </c>
       <c r="I118" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="J118" s="0" t="s">
         <v>626</v>
-      </c>
-      <c r="J118" s="0" t="s">
-        <v>627</v>
       </c>
       <c r="M118" s="0" t="s">
         <v>453</v>
       </c>
       <c r="P118" s="0" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12495,34 +12495,34 @@
         <v>4</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F119" s="0" t="s">
         <v>451</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H119" s="0" t="s">
         <v>412</v>
       </c>
       <c r="I119" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="J119" s="0" t="s">
         <v>626</v>
-      </c>
-      <c r="J119" s="0" t="s">
-        <v>627</v>
       </c>
       <c r="M119" s="0" t="s">
         <v>453</v>
       </c>
       <c r="P119" s="0" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>345</v>
       </c>
@@ -12533,7 +12533,7 @@
         <v>5</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E120" s="0" t="s">
         <v>126</v>
@@ -12557,7 +12557,7 @@
         <v>2</v>
       </c>
       <c r="P120" s="0" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12571,10 +12571,10 @@
         <v>6</v>
       </c>
       <c r="D121" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="E121" s="0" t="s">
         <v>633</v>
-      </c>
-      <c r="E121" s="0" t="s">
-        <v>634</v>
       </c>
       <c r="F121" s="0" t="s">
         <v>423</v>
@@ -12589,7 +12589,7 @@
         <v>250</v>
       </c>
       <c r="P121" s="0" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12603,25 +12603,25 @@
         <v>7</v>
       </c>
       <c r="D122" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="E122" s="0" t="s">
         <v>636</v>
       </c>
-      <c r="E122" s="0" t="s">
+      <c r="F122" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="G122" s="0" t="s">
         <v>637</v>
-      </c>
-      <c r="F122" s="0" t="s">
-        <v>558</v>
-      </c>
-      <c r="G122" s="0" t="s">
-        <v>638</v>
       </c>
       <c r="H122" s="0" t="s">
         <v>412</v>
       </c>
       <c r="M122" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="P122" s="0" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12635,10 +12635,10 @@
         <v>8</v>
       </c>
       <c r="D123" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="E123" s="0" t="s">
         <v>640</v>
-      </c>
-      <c r="E123" s="0" t="s">
-        <v>641</v>
       </c>
       <c r="F123" s="0" t="s">
         <v>423</v>
@@ -12653,7 +12653,7 @@
         <v>10</v>
       </c>
       <c r="P123" s="0" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12667,10 +12667,10 @@
         <v>9</v>
       </c>
       <c r="D124" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="E124" s="0" t="s">
         <v>643</v>
-      </c>
-      <c r="E124" s="0" t="s">
-        <v>644</v>
       </c>
       <c r="F124" s="0" t="s">
         <v>423</v>
@@ -12685,7 +12685,7 @@
         <v>250</v>
       </c>
       <c r="P124" s="0" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12699,16 +12699,16 @@
         <v>10</v>
       </c>
       <c r="D125" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="E125" s="0" t="s">
         <v>646</v>
       </c>
-      <c r="E125" s="0" t="s">
-        <v>647</v>
-      </c>
       <c r="F125" s="0" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H125" s="0" t="s">
         <v>393</v>
@@ -12717,10 +12717,10 @@
         <v>394</v>
       </c>
       <c r="M125" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="P125" s="0" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12734,10 +12734,10 @@
         <v>11</v>
       </c>
       <c r="D126" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="E126" s="0" t="s">
         <v>650</v>
-      </c>
-      <c r="E126" s="0" t="s">
-        <v>651</v>
       </c>
       <c r="F126" s="0" t="s">
         <v>423</v>
@@ -12755,7 +12755,7 @@
         <v>250</v>
       </c>
       <c r="P126" s="0" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12769,28 +12769,28 @@
         <v>12</v>
       </c>
       <c r="D127" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="E127" s="0" t="s">
         <v>653</v>
       </c>
-      <c r="E127" s="0" t="s">
-        <v>654</v>
-      </c>
       <c r="F127" s="0" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H127" s="0" t="s">
         <v>412</v>
       </c>
       <c r="M127" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="P127" s="0" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>345</v>
       </c>
@@ -12801,7 +12801,7 @@
         <v>13</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E128" s="0" t="s">
         <v>145</v>
@@ -12822,7 +12822,7 @@
         <v>3</v>
       </c>
       <c r="P128" s="0" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12836,16 +12836,16 @@
         <v>14</v>
       </c>
       <c r="D129" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="E129" s="0" t="s">
         <v>658</v>
       </c>
-      <c r="E129" s="0" t="s">
-        <v>659</v>
-      </c>
       <c r="F129" s="0" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H129" s="0" t="s">
         <v>412</v>
@@ -12854,7 +12854,7 @@
         <v>402</v>
       </c>
       <c r="P129" s="0" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12868,10 +12868,10 @@
         <v>1</v>
       </c>
       <c r="D130" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="E130" s="0" t="s">
         <v>673</v>
-      </c>
-      <c r="E130" s="0" t="s">
-        <v>674</v>
       </c>
       <c r="F130" s="0" t="s">
         <v>391</v>
@@ -12898,7 +12898,7 @@
         <v>396</v>
       </c>
       <c r="P130" s="0" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12945,7 +12945,7 @@
         <v>402</v>
       </c>
       <c r="P131" s="0" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12992,7 +12992,7 @@
         <v>402</v>
       </c>
       <c r="P132" s="0" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13006,10 +13006,10 @@
         <v>4</v>
       </c>
       <c r="D133" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="E133" s="0" t="s">
         <v>677</v>
-      </c>
-      <c r="E133" s="0" t="s">
-        <v>678</v>
       </c>
       <c r="F133" s="0" t="s">
         <v>451</v>
@@ -13030,7 +13030,7 @@
         <v>402</v>
       </c>
       <c r="P133" s="0" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13044,10 +13044,10 @@
         <v>5</v>
       </c>
       <c r="D134" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="E134" s="0" t="s">
         <v>680</v>
-      </c>
-      <c r="E134" s="0" t="s">
-        <v>681</v>
       </c>
       <c r="F134" s="0" t="s">
         <v>451</v>
@@ -13068,10 +13068,10 @@
         <v>402</v>
       </c>
       <c r="P134" s="0" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
         <v>334</v>
       </c>
@@ -13085,10 +13085,10 @@
         <v>476</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>477</v>
+        <v>293</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G135" s="0" t="s">
         <v>427</v>
@@ -13106,7 +13106,7 @@
         <v>402</v>
       </c>
       <c r="P135" s="0" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13120,16 +13120,16 @@
         <v>7</v>
       </c>
       <c r="D136" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="E136" s="0" t="s">
         <v>617</v>
       </c>
-      <c r="E136" s="0" t="s">
+      <c r="F136" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="G136" s="0" t="s">
         <v>618</v>
-      </c>
-      <c r="F136" s="0" t="s">
-        <v>617</v>
-      </c>
-      <c r="G136" s="0" t="s">
-        <v>619</v>
       </c>
       <c r="H136" s="0" t="s">
         <v>393</v>
@@ -13141,7 +13141,7 @@
         <v>408</v>
       </c>
       <c r="P136" s="0" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13155,10 +13155,10 @@
         <v>1</v>
       </c>
       <c r="D137" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="E137" s="0" t="s">
         <v>684</v>
-      </c>
-      <c r="E137" s="0" t="s">
-        <v>685</v>
       </c>
       <c r="F137" s="0" t="s">
         <v>391</v>
@@ -13185,7 +13185,7 @@
         <v>396</v>
       </c>
       <c r="P137" s="0" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13199,10 +13199,10 @@
         <v>2</v>
       </c>
       <c r="D138" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="E138" s="0" t="s">
         <v>523</v>
-      </c>
-      <c r="E138" s="0" t="s">
-        <v>524</v>
       </c>
       <c r="F138" s="0" t="s">
         <v>400</v>
@@ -13232,7 +13232,7 @@
         <v>402</v>
       </c>
       <c r="P138" s="0" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13246,10 +13246,10 @@
         <v>3</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F139" s="0" t="s">
         <v>400</v>
@@ -13279,7 +13279,7 @@
         <v>402</v>
       </c>
       <c r="P139" s="0" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13293,10 +13293,10 @@
         <v>4</v>
       </c>
       <c r="D140" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="E140" s="0" t="s">
         <v>687</v>
-      </c>
-      <c r="E140" s="0" t="s">
-        <v>688</v>
       </c>
       <c r="F140" s="0" t="s">
         <v>423</v>
@@ -13317,7 +13317,7 @@
         <v>402</v>
       </c>
       <c r="P140" s="0" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13331,10 +13331,10 @@
         <v>5</v>
       </c>
       <c r="D141" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="E141" s="0" t="s">
         <v>690</v>
-      </c>
-      <c r="E141" s="0" t="s">
-        <v>691</v>
       </c>
       <c r="F141" s="0" t="s">
         <v>451</v>
@@ -13346,13 +13346,13 @@
         <v>412</v>
       </c>
       <c r="M141" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="O141" s="0" t="s">
         <v>402</v>
       </c>
       <c r="P141" s="0" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13366,10 +13366,10 @@
         <v>6</v>
       </c>
       <c r="D142" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="E142" s="0" t="s">
         <v>693</v>
-      </c>
-      <c r="E142" s="0" t="s">
-        <v>694</v>
       </c>
       <c r="F142" s="0" t="s">
         <v>451</v>
@@ -13384,13 +13384,13 @@
         <v>394</v>
       </c>
       <c r="M142" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="P142" s="0" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
         <v>334</v>
       </c>
@@ -13404,10 +13404,10 @@
         <v>476</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>477</v>
+        <v>293</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G143" s="0" t="s">
         <v>427</v>
@@ -13425,7 +13425,7 @@
         <v>402</v>
       </c>
       <c r="P143" s="0" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13439,10 +13439,10 @@
         <v>1</v>
       </c>
       <c r="D144" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="E144" s="0" t="s">
         <v>696</v>
-      </c>
-      <c r="E144" s="0" t="s">
-        <v>697</v>
       </c>
       <c r="F144" s="0" t="s">
         <v>391</v>
@@ -13469,7 +13469,7 @@
         <v>396</v>
       </c>
       <c r="P144" s="0" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13563,7 +13563,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
         <v>345</v>
       </c>
@@ -13612,10 +13612,10 @@
         <v>5</v>
       </c>
       <c r="D148" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="E148" s="0" t="s">
         <v>699</v>
-      </c>
-      <c r="E148" s="0" t="s">
-        <v>700</v>
       </c>
       <c r="F148" s="0" t="s">
         <v>451</v>
@@ -13636,7 +13636,7 @@
         <v>402</v>
       </c>
       <c r="P148" s="0" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13650,10 +13650,10 @@
         <v>6</v>
       </c>
       <c r="D149" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="E149" s="0" t="s">
         <v>702</v>
-      </c>
-      <c r="E149" s="0" t="s">
-        <v>703</v>
       </c>
       <c r="F149" s="0" t="s">
         <v>406</v>
@@ -13671,10 +13671,10 @@
         <v>408</v>
       </c>
       <c r="P149" s="0" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
         <v>345</v>
       </c>
@@ -13688,10 +13688,10 @@
         <v>476</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>477</v>
+        <v>293</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G150" s="0" t="s">
         <v>427</v>
@@ -13709,7 +13709,7 @@
         <v>402</v>
       </c>
       <c r="P150" s="0" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13767,10 +13767,10 @@
         <v>1</v>
       </c>
       <c r="D152" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="E152" s="0" t="s">
         <v>705</v>
-      </c>
-      <c r="E152" s="0" t="s">
-        <v>706</v>
       </c>
       <c r="F152" s="0" t="s">
         <v>391</v>
@@ -13797,7 +13797,7 @@
         <v>396</v>
       </c>
       <c r="P152" s="0" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13811,10 +13811,10 @@
         <v>2</v>
       </c>
       <c r="D153" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="E153" s="0" t="s">
         <v>696</v>
-      </c>
-      <c r="E153" s="0" t="s">
-        <v>697</v>
       </c>
       <c r="F153" s="0" t="s">
         <v>400</v>
@@ -13844,10 +13844,10 @@
         <v>402</v>
       </c>
       <c r="P153" s="0" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
         <v>345</v>
       </c>
@@ -13858,7 +13858,7 @@
         <v>3</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E154" s="0" t="s">
         <v>32</v>
@@ -13879,7 +13879,7 @@
         <v>1</v>
       </c>
       <c r="P154" s="0" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13893,10 +13893,10 @@
         <v>4</v>
       </c>
       <c r="D155" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="E155" s="0" t="s">
         <v>710</v>
-      </c>
-      <c r="E155" s="0" t="s">
-        <v>711</v>
       </c>
       <c r="F155" s="0" t="s">
         <v>451</v>
@@ -13917,7 +13917,7 @@
         <v>402</v>
       </c>
       <c r="P155" s="0" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13931,10 +13931,10 @@
         <v>5</v>
       </c>
       <c r="D156" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="E156" s="0" t="s">
         <v>712</v>
-      </c>
-      <c r="E156" s="0" t="s">
-        <v>713</v>
       </c>
       <c r="F156" s="0" t="s">
         <v>406</v>
@@ -13955,10 +13955,10 @@
         <v>402</v>
       </c>
       <c r="P156" s="0" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
         <v>345</v>
       </c>
@@ -13972,10 +13972,10 @@
         <v>476</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>477</v>
+        <v>293</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G157" s="0" t="s">
         <v>427</v>
@@ -13993,7 +13993,7 @@
         <v>402</v>
       </c>
       <c r="P157" s="0" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14007,10 +14007,10 @@
         <v>1</v>
       </c>
       <c r="D158" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="E158" s="0" t="s">
         <v>523</v>
-      </c>
-      <c r="E158" s="0" t="s">
-        <v>524</v>
       </c>
       <c r="F158" s="0" t="s">
         <v>391</v>
@@ -14037,7 +14037,7 @@
         <v>396</v>
       </c>
       <c r="P158" s="0" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14051,10 +14051,10 @@
         <v>2</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F159" s="0" t="s">
         <v>391</v>
@@ -14081,10 +14081,10 @@
         <v>419</v>
       </c>
       <c r="P159" s="0" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
         <v>334</v>
       </c>
@@ -14095,7 +14095,7 @@
         <v>3</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E160" s="0" t="s">
         <v>19</v>
@@ -14119,7 +14119,7 @@
         <v>1</v>
       </c>
       <c r="P160" s="0" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14166,7 +14166,7 @@
         <v>402</v>
       </c>
       <c r="P161" s="0" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14195,10 +14195,10 @@
         <v>412</v>
       </c>
       <c r="I162" s="0" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J162" s="0" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K162" s="0" t="n">
         <v>8</v>
@@ -14216,7 +14216,7 @@
         <v>402</v>
       </c>
       <c r="P162" s="0" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14230,10 +14230,10 @@
         <v>6</v>
       </c>
       <c r="D163" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="E163" s="0" t="s">
         <v>720</v>
-      </c>
-      <c r="E163" s="0" t="s">
-        <v>721</v>
       </c>
       <c r="F163" s="0" t="s">
         <v>451</v>
@@ -14245,16 +14245,16 @@
         <v>412</v>
       </c>
       <c r="I163" s="0" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J163" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="P163" s="0" t="s">
         <v>722</v>
       </c>
-      <c r="P163" s="0" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
         <v>334</v>
       </c>
@@ -14268,10 +14268,10 @@
         <v>476</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>477</v>
+        <v>293</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G164" s="0" t="s">
         <v>427</v>
@@ -14280,10 +14280,10 @@
         <v>412</v>
       </c>
       <c r="I164" s="0" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J164" s="0" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="L164" s="0" t="n">
         <v>3</v>
@@ -14292,7 +14292,7 @@
         <v>402</v>
       </c>
       <c r="P164" s="0" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14306,10 +14306,10 @@
         <v>8</v>
       </c>
       <c r="D165" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="E165" s="0" t="s">
         <v>724</v>
-      </c>
-      <c r="E165" s="0" t="s">
-        <v>725</v>
       </c>
       <c r="F165" s="0" t="s">
         <v>406</v>
@@ -14327,7 +14327,7 @@
         <v>408</v>
       </c>
       <c r="P165" s="0" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14341,10 +14341,10 @@
         <v>9</v>
       </c>
       <c r="D166" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="E166" s="0" t="s">
         <v>727</v>
-      </c>
-      <c r="E166" s="0" t="s">
-        <v>728</v>
       </c>
       <c r="F166" s="0" t="s">
         <v>406</v>
@@ -14362,7 +14362,7 @@
         <v>408</v>
       </c>
       <c r="P166" s="0" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14376,10 +14376,10 @@
         <v>1</v>
       </c>
       <c r="D167" s="0" t="s">
+        <v>729</v>
+      </c>
+      <c r="E167" s="0" t="s">
         <v>730</v>
-      </c>
-      <c r="E167" s="0" t="s">
-        <v>731</v>
       </c>
       <c r="F167" s="0" t="s">
         <v>391</v>
@@ -14406,7 +14406,7 @@
         <v>396</v>
       </c>
       <c r="P167" s="0" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14420,10 +14420,10 @@
         <v>2</v>
       </c>
       <c r="D168" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="E168" s="0" t="s">
         <v>606</v>
-      </c>
-      <c r="E168" s="0" t="s">
-        <v>607</v>
       </c>
       <c r="F168" s="0" t="s">
         <v>400</v>
@@ -14453,7 +14453,7 @@
         <v>402</v>
       </c>
       <c r="P168" s="0" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14467,10 +14467,10 @@
         <v>3</v>
       </c>
       <c r="D169" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="E169" s="0" t="s">
         <v>733</v>
-      </c>
-      <c r="E169" s="0" t="s">
-        <v>734</v>
       </c>
       <c r="F169" s="0" t="s">
         <v>423</v>
@@ -14488,7 +14488,7 @@
         <v>402</v>
       </c>
       <c r="P169" s="0" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14502,10 +14502,10 @@
         <v>4</v>
       </c>
       <c r="D170" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="E170" s="0" t="s">
         <v>736</v>
-      </c>
-      <c r="E170" s="0" t="s">
-        <v>737</v>
       </c>
       <c r="F170" s="0" t="s">
         <v>406</v>
@@ -14526,7 +14526,7 @@
         <v>402</v>
       </c>
       <c r="P170" s="0" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14540,10 +14540,10 @@
         <v>5</v>
       </c>
       <c r="D171" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="E171" s="0" t="s">
         <v>532</v>
-      </c>
-      <c r="E171" s="0" t="s">
-        <v>533</v>
       </c>
       <c r="F171" s="0" t="s">
         <v>406</v>
@@ -14558,7 +14558,7 @@
         <v>408</v>
       </c>
       <c r="P171" s="0" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14572,10 +14572,10 @@
         <v>1</v>
       </c>
       <c r="D172" s="0" t="s">
+        <v>739</v>
+      </c>
+      <c r="E172" s="0" t="s">
         <v>740</v>
-      </c>
-      <c r="E172" s="0" t="s">
-        <v>741</v>
       </c>
       <c r="F172" s="0" t="s">
         <v>391</v>
@@ -14602,7 +14602,7 @@
         <v>396</v>
       </c>
       <c r="P172" s="0" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14663,10 +14663,10 @@
         <v>3</v>
       </c>
       <c r="D174" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="E174" s="0" t="s">
         <v>743</v>
-      </c>
-      <c r="E174" s="0" t="s">
-        <v>744</v>
       </c>
       <c r="F174" s="0" t="s">
         <v>406</v>
@@ -14684,7 +14684,7 @@
         <v>408</v>
       </c>
       <c r="P174" s="0" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14698,10 +14698,10 @@
         <v>4</v>
       </c>
       <c r="D175" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="E175" s="0" t="s">
         <v>746</v>
-      </c>
-      <c r="E175" s="0" t="s">
-        <v>747</v>
       </c>
       <c r="F175" s="0" t="s">
         <v>406</v>
@@ -14716,7 +14716,7 @@
         <v>408</v>
       </c>
       <c r="P175" s="0" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14760,7 +14760,7 @@
         <v>402</v>
       </c>
       <c r="P176" s="0" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14774,10 +14774,10 @@
         <v>1</v>
       </c>
       <c r="D177" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="E177" s="0" t="s">
         <v>606</v>
-      </c>
-      <c r="E177" s="0" t="s">
-        <v>607</v>
       </c>
       <c r="F177" s="0" t="s">
         <v>391</v>
@@ -14807,7 +14807,7 @@
         <v>402</v>
       </c>
       <c r="P177" s="0" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14821,10 +14821,10 @@
         <v>2</v>
       </c>
       <c r="D178" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="E178" s="0" t="s">
         <v>751</v>
-      </c>
-      <c r="E178" s="0" t="s">
-        <v>752</v>
       </c>
       <c r="F178" s="0" t="s">
         <v>423</v>
@@ -14842,7 +14842,7 @@
         <v>500</v>
       </c>
       <c r="P178" s="0" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14856,10 +14856,10 @@
         <v>3</v>
       </c>
       <c r="D179" s="0" t="s">
+        <v>753</v>
+      </c>
+      <c r="E179" s="0" t="s">
         <v>754</v>
-      </c>
-      <c r="E179" s="0" t="s">
-        <v>755</v>
       </c>
       <c r="F179" s="0" t="s">
         <v>406</v>
@@ -14880,7 +14880,7 @@
         <v>402</v>
       </c>
       <c r="P179" s="0" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14894,10 +14894,10 @@
         <v>4</v>
       </c>
       <c r="D180" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="E180" s="0" t="s">
         <v>757</v>
-      </c>
-      <c r="E180" s="0" t="s">
-        <v>758</v>
       </c>
       <c r="F180" s="0" t="s">
         <v>406</v>
@@ -14912,10 +14912,10 @@
         <v>402</v>
       </c>
       <c r="P180" s="0" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
         <v>345</v>
       </c>
@@ -14926,7 +14926,7 @@
         <v>5</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E181" s="0" t="s">
         <v>283</v>
@@ -14944,7 +14944,7 @@
         <v>1</v>
       </c>
       <c r="P181" s="0" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14958,10 +14958,10 @@
         <v>6</v>
       </c>
       <c r="D182" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="E182" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="E182" s="0" t="s">
-        <v>763</v>
       </c>
       <c r="F182" s="0" t="s">
         <v>400</v>
@@ -14991,7 +14991,7 @@
         <v>402</v>
       </c>
       <c r="P182" s="0" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15014,13 +15014,13 @@
         <v>426</v>
       </c>
       <c r="G183" s="0" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H183" s="0" t="s">
         <v>412</v>
       </c>
       <c r="P183" s="0" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15034,10 +15034,10 @@
         <v>1</v>
       </c>
       <c r="D184" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="E184" s="0" t="s">
         <v>766</v>
-      </c>
-      <c r="E184" s="0" t="s">
-        <v>767</v>
       </c>
       <c r="F184" s="0" t="s">
         <v>391</v>
@@ -15064,7 +15064,7 @@
         <v>396</v>
       </c>
       <c r="P184" s="0" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15078,10 +15078,10 @@
         <v>2</v>
       </c>
       <c r="D185" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="E185" s="0" t="s">
         <v>606</v>
-      </c>
-      <c r="E185" s="0" t="s">
-        <v>607</v>
       </c>
       <c r="F185" s="0" t="s">
         <v>400</v>
@@ -15111,7 +15111,7 @@
         <v>402</v>
       </c>
       <c r="P185" s="0" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15125,16 +15125,16 @@
         <v>3</v>
       </c>
       <c r="D186" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="E186" s="0" t="s">
         <v>609</v>
-      </c>
-      <c r="E186" s="0" t="s">
-        <v>610</v>
       </c>
       <c r="F186" s="0" t="s">
         <v>451</v>
       </c>
       <c r="G186" s="0" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H186" s="0" t="s">
         <v>393</v>
@@ -15149,7 +15149,7 @@
         <v>402</v>
       </c>
       <c r="P186" s="0" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15163,10 +15163,10 @@
         <v>4</v>
       </c>
       <c r="D187" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="E187" s="0" t="s">
         <v>769</v>
-      </c>
-      <c r="E187" s="0" t="s">
-        <v>770</v>
       </c>
       <c r="F187" s="0" t="s">
         <v>406</v>
@@ -15187,7 +15187,7 @@
         <v>402</v>
       </c>
       <c r="P187" s="0" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15201,10 +15201,10 @@
         <v>1</v>
       </c>
       <c r="D188" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="E188" s="0" t="s">
         <v>772</v>
-      </c>
-      <c r="E188" s="0" t="s">
-        <v>773</v>
       </c>
       <c r="F188" s="0" t="s">
         <v>391</v>
@@ -15231,7 +15231,7 @@
         <v>396</v>
       </c>
       <c r="P188" s="0" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15245,10 +15245,10 @@
         <v>2</v>
       </c>
       <c r="D189" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="E189" s="0" t="s">
         <v>523</v>
-      </c>
-      <c r="E189" s="0" t="s">
-        <v>524</v>
       </c>
       <c r="F189" s="0" t="s">
         <v>400</v>
@@ -15278,7 +15278,7 @@
         <v>402</v>
       </c>
       <c r="P189" s="0" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15292,10 +15292,10 @@
         <v>3</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E190" s="0" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F190" s="0" t="s">
         <v>400</v>
@@ -15325,10 +15325,10 @@
         <v>402</v>
       </c>
       <c r="P190" s="0" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
         <v>334</v>
       </c>
@@ -15339,7 +15339,7 @@
         <v>4</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E191" s="0" t="s">
         <v>138</v>
@@ -15360,10 +15360,10 @@
         <v>1</v>
       </c>
       <c r="P191" s="0" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
         <v>334</v>
       </c>
@@ -15377,10 +15377,10 @@
         <v>476</v>
       </c>
       <c r="E192" s="0" t="s">
-        <v>477</v>
+        <v>293</v>
       </c>
       <c r="F192" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G192" s="0" t="s">
         <v>427</v>
@@ -15398,7 +15398,7 @@
         <v>402</v>
       </c>
       <c r="P192" s="0" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15412,10 +15412,10 @@
         <v>6</v>
       </c>
       <c r="D193" s="0" t="s">
+        <v>776</v>
+      </c>
+      <c r="E193" s="0" t="s">
         <v>777</v>
-      </c>
-      <c r="E193" s="0" t="s">
-        <v>778</v>
       </c>
       <c r="F193" s="0" t="s">
         <v>451</v>
@@ -15433,7 +15433,7 @@
         <v>453</v>
       </c>
       <c r="P193" s="0" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15447,10 +15447,10 @@
         <v>7</v>
       </c>
       <c r="D194" s="0" t="s">
+        <v>779</v>
+      </c>
+      <c r="E194" s="0" t="s">
         <v>780</v>
-      </c>
-      <c r="E194" s="0" t="s">
-        <v>781</v>
       </c>
       <c r="F194" s="0" t="s">
         <v>451</v>
@@ -15468,7 +15468,7 @@
         <v>453</v>
       </c>
       <c r="P194" s="0" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15512,7 +15512,7 @@
         <v>419</v>
       </c>
       <c r="P195" s="0" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15526,10 +15526,10 @@
         <v>2</v>
       </c>
       <c r="D196" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="E196" s="0" t="s">
         <v>784</v>
-      </c>
-      <c r="E196" s="0" t="s">
-        <v>785</v>
       </c>
       <c r="F196" s="0" t="s">
         <v>423</v>
@@ -15547,7 +15547,7 @@
         <v>250</v>
       </c>
       <c r="P196" s="0" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15591,7 +15591,7 @@
         <v>419</v>
       </c>
       <c r="P197" s="0" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15605,10 +15605,10 @@
         <v>2</v>
       </c>
       <c r="D198" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="E198" s="0" t="s">
         <v>784</v>
-      </c>
-      <c r="E198" s="0" t="s">
-        <v>785</v>
       </c>
       <c r="F198" s="0" t="s">
         <v>423</v>
@@ -15629,10 +15629,10 @@
         <v>402</v>
       </c>
       <c r="P198" s="0" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
         <v>334</v>
       </c>
@@ -15643,10 +15643,10 @@
         <v>1</v>
       </c>
       <c r="D199" s="0" t="s">
+        <v>786</v>
+      </c>
+      <c r="E199" s="0" t="s">
         <v>787</v>
-      </c>
-      <c r="E199" s="0" t="s">
-        <v>788</v>
       </c>
       <c r="F199" s="0" t="s">
         <v>391</v>
@@ -15673,10 +15673,10 @@
         <v>396</v>
       </c>
       <c r="P199" s="0" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
         <v>334</v>
       </c>
@@ -15687,10 +15687,10 @@
         <v>2</v>
       </c>
       <c r="D200" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="E200" s="0" t="s">
         <v>523</v>
-      </c>
-      <c r="E200" s="0" t="s">
-        <v>524</v>
       </c>
       <c r="F200" s="0" t="s">
         <v>391</v>
@@ -15717,10 +15717,10 @@
         <v>396</v>
       </c>
       <c r="P200" s="0" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
         <v>334</v>
       </c>
@@ -15731,10 +15731,10 @@
         <v>3</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E201" s="0" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F201" s="0" t="s">
         <v>400</v>
@@ -15764,7 +15764,7 @@
         <v>402</v>
       </c>
       <c r="P201" s="0" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15778,7 +15778,7 @@
         <v>4</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E202" s="0" t="s">
         <v>228</v>
@@ -15799,10 +15799,10 @@
         <v>2</v>
       </c>
       <c r="P202" s="0" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
         <v>334</v>
       </c>
@@ -15813,10 +15813,10 @@
         <v>5</v>
       </c>
       <c r="D203" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="E203" s="0" t="s">
         <v>792</v>
-      </c>
-      <c r="E203" s="0" t="s">
-        <v>793</v>
       </c>
       <c r="F203" s="0" t="s">
         <v>451</v>
@@ -15834,7 +15834,7 @@
         <v>453</v>
       </c>
       <c r="P203" s="0" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15851,10 +15851,10 @@
         <v>476</v>
       </c>
       <c r="E204" s="0" t="s">
-        <v>477</v>
+        <v>293</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G204" s="0" t="s">
         <v>427</v>
@@ -15869,10 +15869,10 @@
         <v>3</v>
       </c>
       <c r="P204" s="0" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
         <v>334</v>
       </c>
@@ -15886,28 +15886,28 @@
         <v>12</v>
       </c>
       <c r="E205" s="0" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G205" s="0" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H205" s="0" t="s">
         <v>412</v>
       </c>
       <c r="I205" s="0" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J205" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="O205" s="0" t="s">
         <v>796</v>
       </c>
-      <c r="O205" s="0" t="s">
+      <c r="P205" s="0" t="s">
         <v>797</v>
-      </c>
-      <c r="P205" s="0" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15921,10 +15921,10 @@
         <v>1</v>
       </c>
       <c r="D206" s="0" t="s">
+        <v>798</v>
+      </c>
+      <c r="E206" s="0" t="s">
         <v>799</v>
-      </c>
-      <c r="E206" s="0" t="s">
-        <v>800</v>
       </c>
       <c r="F206" s="0" t="s">
         <v>391</v>
@@ -15951,7 +15951,7 @@
         <v>396</v>
       </c>
       <c r="P206" s="0" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15965,10 +15965,10 @@
         <v>2</v>
       </c>
       <c r="D207" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="E207" s="0" t="s">
         <v>565</v>
-      </c>
-      <c r="E207" s="0" t="s">
-        <v>566</v>
       </c>
       <c r="F207" s="0" t="s">
         <v>400</v>
@@ -15998,7 +15998,7 @@
         <v>402</v>
       </c>
       <c r="P207" s="0" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16059,10 +16059,10 @@
         <v>4</v>
       </c>
       <c r="D209" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="E209" s="0" t="s">
         <v>803</v>
-      </c>
-      <c r="E209" s="0" t="s">
-        <v>804</v>
       </c>
       <c r="F209" s="0" t="s">
         <v>423</v>
@@ -16080,7 +16080,7 @@
         <v>500</v>
       </c>
       <c r="P209" s="0" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16094,10 +16094,10 @@
         <v>5</v>
       </c>
       <c r="D210" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="E210" s="0" t="s">
         <v>806</v>
-      </c>
-      <c r="E210" s="0" t="s">
-        <v>807</v>
       </c>
       <c r="F210" s="0" t="s">
         <v>451</v>
@@ -16115,7 +16115,7 @@
         <v>402</v>
       </c>
       <c r="P210" s="0" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16129,10 +16129,10 @@
         <v>6</v>
       </c>
       <c r="D211" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="E211" s="0" t="s">
         <v>809</v>
-      </c>
-      <c r="E211" s="0" t="s">
-        <v>810</v>
       </c>
       <c r="F211" s="0" t="s">
         <v>406</v>
@@ -16150,10 +16150,10 @@
         <v>402</v>
       </c>
       <c r="P211" s="0" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
         <v>345</v>
       </c>
@@ -16164,13 +16164,13 @@
         <v>7</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E212" s="0" t="s">
-        <v>813</v>
+        <v>331</v>
       </c>
       <c r="F212" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G212" s="0" t="s">
         <v>427</v>
@@ -16185,7 +16185,7 @@
         <v>402</v>
       </c>
       <c r="P212" s="0" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16199,10 +16199,10 @@
         <v>8</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E213" s="0" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F213" s="0" t="s">
         <v>451</v>
@@ -16220,7 +16220,7 @@
         <v>402</v>
       </c>
       <c r="P213" s="0" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16234,10 +16234,10 @@
         <v>9</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E214" s="0" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F214" s="0" t="s">
         <v>406</v>
@@ -16255,10 +16255,10 @@
         <v>402</v>
       </c>
       <c r="P214" s="0" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
         <v>345</v>
       </c>
@@ -16269,13 +16269,13 @@
         <v>10</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E215" s="0" t="s">
-        <v>822</v>
+        <v>330</v>
       </c>
       <c r="F215" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G215" s="0" t="s">
         <v>427</v>
@@ -16290,7 +16290,7 @@
         <v>402</v>
       </c>
       <c r="P215" s="0" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16304,10 +16304,10 @@
         <v>1</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="E216" s="0" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="F216" s="0" t="s">
         <v>391</v>
@@ -16334,7 +16334,7 @@
         <v>396</v>
       </c>
       <c r="P216" s="0" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16348,10 +16348,10 @@
         <v>2</v>
       </c>
       <c r="D217" s="0" t="s">
+        <v>798</v>
+      </c>
+      <c r="E217" s="0" t="s">
         <v>799</v>
-      </c>
-      <c r="E217" s="0" t="s">
-        <v>800</v>
       </c>
       <c r="F217" s="0" t="s">
         <v>400</v>
@@ -16381,10 +16381,10 @@
         <v>402</v>
       </c>
       <c r="P217" s="0" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
         <v>345</v>
       </c>
@@ -16395,7 +16395,7 @@
         <v>3</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="E218" s="0" t="s">
         <v>188</v>
@@ -16416,7 +16416,7 @@
         <v>2</v>
       </c>
       <c r="P218" s="0" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16430,10 +16430,10 @@
         <v>4</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="E219" s="0" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="F219" s="0" t="s">
         <v>451</v>
@@ -16454,7 +16454,7 @@
         <v>402</v>
       </c>
       <c r="P219" s="0" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16468,10 +16468,10 @@
         <v>5</v>
       </c>
       <c r="D220" s="0" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="E220" s="0" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="F220" s="0" t="s">
         <v>406</v>
@@ -16492,10 +16492,10 @@
         <v>402</v>
       </c>
       <c r="P220" s="0" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
         <v>345</v>
       </c>
@@ -16509,10 +16509,10 @@
         <v>476</v>
       </c>
       <c r="E221" s="0" t="s">
-        <v>477</v>
+        <v>293</v>
       </c>
       <c r="F221" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G221" s="0" t="s">
         <v>427</v>
@@ -16530,7 +16530,7 @@
         <v>402</v>
       </c>
       <c r="P221" s="0" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16544,10 +16544,10 @@
         <v>1</v>
       </c>
       <c r="D222" s="0" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E222" s="0" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="F222" s="0" t="s">
         <v>391</v>
@@ -16574,7 +16574,7 @@
         <v>396</v>
       </c>
       <c r="P222" s="0" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16624,7 +16624,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
         <v>345</v>
       </c>
@@ -16635,7 +16635,7 @@
         <v>3</v>
       </c>
       <c r="D224" s="0" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="E224" s="0" t="s">
         <v>200</v>
@@ -16656,7 +16656,7 @@
         <v>2</v>
       </c>
       <c r="P224" s="0" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16670,10 +16670,10 @@
         <v>4</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="E225" s="0" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="F225" s="0" t="s">
         <v>451</v>
@@ -16685,16 +16685,16 @@
         <v>412</v>
       </c>
       <c r="I225" s="0" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J225" s="0" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="M225" s="0" t="s">
         <v>453</v>
       </c>
       <c r="P225" s="0" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16708,31 +16708,31 @@
         <v>5</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E226" s="0" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="F226" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="G226" s="0" t="s">
         <v>558</v>
-      </c>
-      <c r="G226" s="0" t="s">
-        <v>559</v>
       </c>
       <c r="H226" s="0" t="s">
         <v>412</v>
       </c>
       <c r="I226" s="0" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J226" s="0" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="M226" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="P226" s="0" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16746,31 +16746,31 @@
         <v>6</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="E227" s="0" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="F227" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="G227" s="0" t="s">
         <v>558</v>
-      </c>
-      <c r="G227" s="0" t="s">
-        <v>559</v>
       </c>
       <c r="H227" s="0" t="s">
         <v>412</v>
       </c>
       <c r="I227" s="0" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J227" s="0" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="M227" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="P227" s="0" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16784,10 +16784,10 @@
         <v>7</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="E228" s="0" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="F228" s="0" t="s">
         <v>406</v>
@@ -16805,7 +16805,7 @@
         <v>408</v>
       </c>
       <c r="P228" s="0" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16819,10 +16819,10 @@
         <v>8</v>
       </c>
       <c r="D229" s="0" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="E229" s="0" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="F229" s="0" t="s">
         <v>406</v>
@@ -16840,7 +16840,7 @@
         <v>408</v>
       </c>
       <c r="P229" s="0" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16854,7 +16854,7 @@
         <v>9</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="E230" s="0" t="s">
         <v>195</v>
@@ -16863,16 +16863,16 @@
         <v>426</v>
       </c>
       <c r="G230" s="0" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H230" s="0" t="s">
         <v>412</v>
       </c>
       <c r="P230" s="0" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
         <v>345</v>
       </c>
@@ -16886,10 +16886,10 @@
         <v>476</v>
       </c>
       <c r="E231" s="0" t="s">
-        <v>477</v>
+        <v>293</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G231" s="0" t="s">
         <v>427</v>
@@ -16898,10 +16898,10 @@
         <v>412</v>
       </c>
       <c r="I231" s="0" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J231" s="0" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="L231" s="0" t="n">
         <v>3</v>
@@ -16910,7 +16910,7 @@
         <v>402</v>
       </c>
       <c r="P231" s="0" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16924,10 +16924,10 @@
         <v>1</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="E232" s="0" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F232" s="0" t="s">
         <v>391</v>
@@ -16954,7 +16954,7 @@
         <v>396</v>
       </c>
       <c r="P232" s="0" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16968,10 +16968,10 @@
         <v>2</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E233" s="0" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="F233" s="0" t="s">
         <v>400</v>
@@ -17001,10 +17001,10 @@
         <v>402</v>
       </c>
       <c r="P233" s="0" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
         <v>345</v>
       </c>
@@ -17053,10 +17053,10 @@
         <v>1</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="E235" s="0" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="F235" s="0" t="s">
         <v>391</v>
@@ -17083,7 +17083,7 @@
         <v>396</v>
       </c>
       <c r="P235" s="0" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17097,7 +17097,7 @@
         <v>2</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="E236" s="0" t="s">
         <v>431</v>
@@ -17130,7 +17130,7 @@
         <v>402</v>
       </c>
       <c r="P236" s="0" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17144,10 +17144,10 @@
         <v>3</v>
       </c>
       <c r="D237" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="E237" s="0" t="s">
         <v>565</v>
-      </c>
-      <c r="E237" s="0" t="s">
-        <v>566</v>
       </c>
       <c r="F237" s="0" t="s">
         <v>400</v>
@@ -17174,7 +17174,7 @@
         <v>402</v>
       </c>
       <c r="P237" s="0" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17221,7 +17221,7 @@
         <v>402</v>
       </c>
       <c r="P238" s="0" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17235,10 +17235,10 @@
         <v>1</v>
       </c>
       <c r="D239" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="E239" s="0" t="s">
         <v>484</v>
-      </c>
-      <c r="E239" s="0" t="s">
-        <v>485</v>
       </c>
       <c r="F239" s="0" t="s">
         <v>391</v>
@@ -17265,7 +17265,7 @@
         <v>396</v>
       </c>
       <c r="P239" s="0" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17309,7 +17309,7 @@
         <v>402</v>
       </c>
       <c r="P240" s="0" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17323,10 +17323,10 @@
         <v>3</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E241" s="0" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="F241" s="0" t="s">
         <v>423</v>
@@ -17344,7 +17344,7 @@
         <v>50</v>
       </c>
       <c r="P241" s="0" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17358,10 +17358,10 @@
         <v>4</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="E242" s="0" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="F242" s="0" t="s">
         <v>406</v>
@@ -17382,7 +17382,7 @@
         <v>402</v>
       </c>
       <c r="P242" s="0" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17440,7 +17440,7 @@
         <v>6</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="E244" s="0" t="s">
         <v>223</v>
@@ -17449,7 +17449,7 @@
         <v>426</v>
       </c>
       <c r="G244" s="0" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H244" s="0" t="s">
         <v>393</v>
@@ -17461,7 +17461,7 @@
         <v>402</v>
       </c>
       <c r="P244" s="0" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17475,10 +17475,10 @@
         <v>7</v>
       </c>
       <c r="D245" s="0" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E245" s="0" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="F245" s="0" t="s">
         <v>423</v>
@@ -17496,7 +17496,7 @@
         <v>402</v>
       </c>
       <c r="P245" s="0" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17510,10 +17510,10 @@
         <v>1</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E246" s="0" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="F246" s="0" t="s">
         <v>391</v>
@@ -17540,7 +17540,7 @@
         <v>396</v>
       </c>
       <c r="P246" s="0" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17554,10 +17554,10 @@
         <v>2</v>
       </c>
       <c r="D247" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="E247" s="0" t="s">
         <v>565</v>
-      </c>
-      <c r="E247" s="0" t="s">
-        <v>566</v>
       </c>
       <c r="F247" s="0" t="s">
         <v>400</v>
@@ -17587,7 +17587,7 @@
         <v>402</v>
       </c>
       <c r="P247" s="0" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17601,10 +17601,10 @@
         <v>3</v>
       </c>
       <c r="D248" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="E248" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="E248" s="0" t="s">
-        <v>763</v>
       </c>
       <c r="F248" s="0" t="s">
         <v>400</v>
@@ -17634,7 +17634,7 @@
         <v>402</v>
       </c>
       <c r="P248" s="0" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17648,10 +17648,10 @@
         <v>1</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="E249" s="0" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="F249" s="0" t="s">
         <v>391</v>
@@ -17678,7 +17678,7 @@
         <v>396</v>
       </c>
       <c r="P249" s="0" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17692,10 +17692,10 @@
         <v>2</v>
       </c>
       <c r="D250" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="E250" s="0" t="s">
         <v>565</v>
-      </c>
-      <c r="E250" s="0" t="s">
-        <v>566</v>
       </c>
       <c r="F250" s="0" t="s">
         <v>400</v>
@@ -17725,7 +17725,7 @@
         <v>402</v>
       </c>
       <c r="P250" s="0" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17739,10 +17739,10 @@
         <v>3</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E251" s="0" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="F251" s="0" t="s">
         <v>423</v>
@@ -17763,7 +17763,7 @@
         <v>402</v>
       </c>
       <c r="P251" s="0" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17777,10 +17777,10 @@
         <v>4</v>
       </c>
       <c r="D252" s="0" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E252" s="0" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="F252" s="0" t="s">
         <v>423</v>
@@ -17801,7 +17801,7 @@
         <v>402</v>
       </c>
       <c r="P252" s="0" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17815,10 +17815,10 @@
         <v>5</v>
       </c>
       <c r="D253" s="0" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="E253" s="0" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="F253" s="0" t="s">
         <v>423</v>
@@ -17839,7 +17839,7 @@
         <v>402</v>
       </c>
       <c r="P253" s="0" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17853,10 +17853,10 @@
         <v>6</v>
       </c>
       <c r="D254" s="0" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="E254" s="0" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F254" s="0" t="s">
         <v>451</v>
@@ -17874,7 +17874,7 @@
         <v>402</v>
       </c>
       <c r="P254" s="0" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17888,31 +17888,31 @@
         <v>7</v>
       </c>
       <c r="D255" s="0" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="E255" s="0" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="F255" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="G255" s="0" t="s">
         <v>558</v>
-      </c>
-      <c r="G255" s="0" t="s">
-        <v>559</v>
       </c>
       <c r="H255" s="0" t="s">
         <v>412</v>
       </c>
       <c r="M255" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="O255" s="0" t="s">
         <v>402</v>
       </c>
       <c r="P255" s="0" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
         <v>345</v>
       </c>
@@ -17926,10 +17926,10 @@
         <v>476</v>
       </c>
       <c r="E256" s="0" t="s">
-        <v>477</v>
+        <v>293</v>
       </c>
       <c r="F256" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G256" s="0" t="s">
         <v>427</v>
@@ -17947,7 +17947,7 @@
         <v>402</v>
       </c>
       <c r="P256" s="0" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17961,10 +17961,10 @@
         <v>1</v>
       </c>
       <c r="D257" s="0" t="s">
+        <v>786</v>
+      </c>
+      <c r="E257" s="0" t="s">
         <v>787</v>
-      </c>
-      <c r="E257" s="0" t="s">
-        <v>788</v>
       </c>
       <c r="F257" s="0" t="s">
         <v>391</v>
@@ -17991,7 +17991,7 @@
         <v>396</v>
       </c>
       <c r="P257" s="0" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18052,10 +18052,10 @@
         <v>3</v>
       </c>
       <c r="D259" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="E259" s="0" t="s">
         <v>792</v>
-      </c>
-      <c r="E259" s="0" t="s">
-        <v>793</v>
       </c>
       <c r="F259" s="0" t="s">
         <v>451</v>
@@ -18073,7 +18073,7 @@
         <v>453</v>
       </c>
       <c r="P259" s="0" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18087,10 +18087,10 @@
         <v>4</v>
       </c>
       <c r="D260" s="0" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="E260" s="0" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="F260" s="0" t="s">
         <v>406</v>
@@ -18108,7 +18108,7 @@
         <v>408</v>
       </c>
       <c r="P260" s="0" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18122,16 +18122,16 @@
         <v>5</v>
       </c>
       <c r="D261" s="0" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="E261" s="0" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F261" s="0" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G261" s="0" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H261" s="0" t="s">
         <v>393</v>
@@ -18143,7 +18143,7 @@
         <v>453</v>
       </c>
       <c r="P261" s="0" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18157,10 +18157,10 @@
         <v>1</v>
       </c>
       <c r="D262" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="E262" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="E262" s="0" t="s">
-        <v>763</v>
       </c>
       <c r="F262" s="0" t="s">
         <v>391</v>
@@ -18187,7 +18187,7 @@
         <v>396</v>
       </c>
       <c r="P262" s="0" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18201,10 +18201,10 @@
         <v>2</v>
       </c>
       <c r="D263" s="0" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="E263" s="0" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="F263" s="0" t="s">
         <v>423</v>
@@ -18222,10 +18222,10 @@
         <v>500</v>
       </c>
       <c r="P263" s="0" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
         <v>345</v>
       </c>
@@ -18277,7 +18277,7 @@
         <v>437</v>
       </c>
       <c r="E265" s="0" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F265" s="0" t="s">
         <v>406</v>
@@ -18289,16 +18289,16 @@
         <v>412</v>
       </c>
       <c r="I265" s="0" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J265" s="0" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="N265" s="0" t="s">
         <v>408</v>
       </c>
       <c r="P265" s="0" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18312,10 +18312,10 @@
         <v>5</v>
       </c>
       <c r="D266" s="0" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="E266" s="0" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="F266" s="0" t="s">
         <v>423</v>
@@ -18330,7 +18330,7 @@
         <v>250</v>
       </c>
       <c r="P266" s="0" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18344,10 +18344,10 @@
         <v>6</v>
       </c>
       <c r="D267" s="0" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E267" s="0" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="F267" s="0" t="s">
         <v>400</v>
@@ -18374,7 +18374,7 @@
         <v>402</v>
       </c>
       <c r="P267" s="0" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18435,10 +18435,10 @@
         <v>1</v>
       </c>
       <c r="D269" s="0" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="E269" s="0" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="F269" s="0" t="s">
         <v>391</v>
@@ -18523,10 +18523,10 @@
         <v>3</v>
       </c>
       <c r="D271" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E271" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F271" s="0" t="s">
         <v>400</v>
@@ -18608,10 +18608,10 @@
         <v>6</v>
       </c>
       <c r="D273" s="0" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="E273" s="0" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="F273" s="0" t="s">
         <v>423</v>
@@ -18632,7 +18632,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
         <v>345</v>
       </c>
@@ -18646,10 +18646,10 @@
         <v>476</v>
       </c>
       <c r="E274" s="0" t="s">
-        <v>477</v>
+        <v>293</v>
       </c>
       <c r="F274" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G274" s="0" t="s">
         <v>427</v>
@@ -18666,9 +18666,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:P274">
-    <filterColumn colId="1">
+    <filterColumn colId="6">
       <customFilters and="true">
-        <customFilter operator="equal" val="PSTB_transakce.csv"/>
+        <customFilter operator="equal" val="D_KOD"/>
       </customFilters>
     </filterColumn>
   </autoFilter>

--- a/csv-validator/PackageValidation/ValidationServices/SchemaSource/structured-schema-description.xlsx
+++ b/csv-validator/PackageValidation/ValidationServices/SchemaSource/structured-schema-description.xlsx
@@ -2784,7 +2784,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2811,11 +2811,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2860,7 +2855,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2875,10 +2870,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -7901,7 +7892,7 @@
   <dimension ref="A1:P274"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E212" activeCellId="0" sqref="E212"/>
+      <selection pane="topLeft" activeCell="F37" activeCellId="0" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7926,56 +7917,56 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>345</v>
       </c>
@@ -8019,7 +8010,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>345</v>
       </c>
@@ -8066,7 +8057,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>345</v>
       </c>
@@ -8133,7 +8124,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>334</v>
       </c>
@@ -8177,7 +8168,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>334</v>
       </c>
@@ -8224,7 +8215,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>334</v>
       </c>
@@ -8251,6 +8242,9 @@
       </c>
       <c r="I8" s="0" t="s">
         <v>394</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>250</v>
@@ -8297,7 +8291,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>345</v>
       </c>
@@ -8341,7 +8335,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>345</v>
       </c>
@@ -8369,6 +8363,9 @@
       <c r="I11" s="0" t="s">
         <v>394</v>
       </c>
+      <c r="K11" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="L11" s="0" t="n">
         <v>250</v>
       </c>
@@ -8446,7 +8443,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>345</v>
       </c>
@@ -8493,7 +8490,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>345</v>
       </c>
@@ -8528,7 +8525,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>345</v>
       </c>
@@ -8572,7 +8569,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>345</v>
       </c>
@@ -8619,7 +8616,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>345</v>
       </c>
@@ -8666,7 +8663,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>345</v>
       </c>
@@ -8865,7 +8862,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>345</v>
       </c>
@@ -9242,7 +9239,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>345</v>
       </c>
@@ -9286,7 +9283,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>345</v>
       </c>
@@ -9333,7 +9330,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>345</v>
       </c>
@@ -9380,7 +9377,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>345</v>
       </c>
@@ -9587,7 +9584,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>345</v>
       </c>
@@ -9619,7 +9616,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>345</v>
       </c>
@@ -9663,7 +9660,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>345</v>
       </c>
@@ -9745,7 +9742,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>345</v>
       </c>
@@ -9783,7 +9780,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>345</v>
       </c>
@@ -9856,7 +9853,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>334</v>
       </c>
@@ -9900,7 +9897,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>334</v>
       </c>
@@ -9947,7 +9944,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>334</v>
       </c>
@@ -10029,7 +10026,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>334</v>
       </c>
@@ -10099,7 +10096,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>334</v>
       </c>
@@ -10166,7 +10163,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>334</v>
       </c>
@@ -10446,7 +10443,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>345</v>
       </c>
@@ -10490,7 +10487,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>345</v>
       </c>
@@ -10537,7 +10534,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>345</v>
       </c>
@@ -10814,7 +10811,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>345</v>
       </c>
@@ -10858,7 +10855,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>345</v>
       </c>
@@ -10905,7 +10902,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>345</v>
       </c>
@@ -10943,7 +10940,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>345</v>
       </c>
@@ -10987,7 +10984,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>345</v>
       </c>
@@ -11075,7 +11072,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>345</v>
       </c>
@@ -11107,7 +11104,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>345</v>
       </c>
@@ -11174,7 +11171,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>345</v>
       </c>
@@ -11215,7 +11212,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>345</v>
       </c>
@@ -11259,7 +11256,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>345</v>
       </c>
@@ -11306,7 +11303,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>345</v>
       </c>
@@ -11388,7 +11385,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>334</v>
       </c>
@@ -11432,7 +11429,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>334</v>
       </c>
@@ -11517,7 +11514,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>334</v>
       </c>
@@ -11590,7 +11587,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>334</v>
       </c>
@@ -11625,7 +11622,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>345</v>
       </c>
@@ -11669,7 +11666,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>345</v>
       </c>
@@ -11754,7 +11751,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>345</v>
       </c>
@@ -11827,7 +11824,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>345</v>
       </c>
@@ -11862,7 +11859,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>334</v>
       </c>
@@ -11906,7 +11903,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>334</v>
       </c>
@@ -12023,7 +12020,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>334</v>
       </c>
@@ -12050,6 +12047,9 @@
       </c>
       <c r="I106" s="0" t="s">
         <v>394</v>
+      </c>
+      <c r="K106" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L106" s="0" t="n">
         <v>250</v>
@@ -12183,7 +12183,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>334</v>
       </c>
@@ -12221,7 +12221,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>334</v>
       </c>
@@ -12248,6 +12248,9 @@
       </c>
       <c r="I112" s="0" t="s">
         <v>394</v>
+      </c>
+      <c r="K112" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L112" s="0" t="n">
         <v>250</v>
@@ -12355,7 +12358,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>345</v>
       </c>
@@ -12399,7 +12402,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>345</v>
       </c>
@@ -12688,7 +12691,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>345</v>
       </c>
@@ -12723,7 +12726,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>345</v>
       </c>
@@ -12751,6 +12754,9 @@
       <c r="I126" s="0" t="s">
         <v>394</v>
       </c>
+      <c r="K126" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="L126" s="0" t="n">
         <v>250</v>
       </c>
@@ -12857,7 +12863,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
         <v>334</v>
       </c>
@@ -12901,7 +12907,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
         <v>334</v>
       </c>
@@ -12948,7 +12954,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
         <v>334</v>
       </c>
@@ -12995,7 +13001,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
         <v>334</v>
       </c>
@@ -13033,7 +13039,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
         <v>334</v>
       </c>
@@ -13109,7 +13115,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
         <v>334</v>
       </c>
@@ -13144,7 +13150,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
         <v>334</v>
       </c>
@@ -13188,7 +13194,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
         <v>334</v>
       </c>
@@ -13235,7 +13241,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
         <v>334</v>
       </c>
@@ -13282,7 +13288,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
         <v>334</v>
       </c>
@@ -13309,6 +13315,9 @@
       </c>
       <c r="I140" s="0" t="s">
         <v>394</v>
+      </c>
+      <c r="K140" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L140" s="0" t="n">
         <v>250</v>
@@ -13355,7 +13364,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
         <v>334</v>
       </c>
@@ -13428,7 +13437,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
         <v>345</v>
       </c>
@@ -13472,7 +13481,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
         <v>345</v>
       </c>
@@ -13601,7 +13610,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
         <v>345</v>
       </c>
@@ -13639,7 +13648,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
         <v>345</v>
       </c>
@@ -13756,7 +13765,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
         <v>345</v>
       </c>
@@ -13800,7 +13809,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
         <v>345</v>
       </c>
@@ -13882,7 +13891,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
         <v>345</v>
       </c>
@@ -13920,7 +13929,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
         <v>345</v>
       </c>
@@ -13996,7 +14005,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
         <v>334</v>
       </c>
@@ -14040,7 +14049,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
         <v>334</v>
       </c>
@@ -14122,7 +14131,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
         <v>334</v>
       </c>
@@ -14254,7 +14263,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
         <v>334</v>
       </c>
@@ -14295,7 +14304,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
         <v>334</v>
       </c>
@@ -14330,7 +14339,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
         <v>334</v>
       </c>
@@ -14365,7 +14374,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
         <v>345</v>
       </c>
@@ -14409,7 +14418,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
         <v>345</v>
       </c>
@@ -14491,7 +14500,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
         <v>345</v>
       </c>
@@ -14561,7 +14570,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
         <v>345</v>
       </c>
@@ -14605,7 +14614,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
         <v>345</v>
       </c>
@@ -14652,7 +14661,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
         <v>345</v>
       </c>
@@ -14763,7 +14772,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
         <v>345</v>
       </c>
@@ -14810,7 +14819,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
         <v>345</v>
       </c>
@@ -14838,6 +14847,9 @@
       <c r="I178" s="0" t="s">
         <v>394</v>
       </c>
+      <c r="K178" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="L178" s="0" t="n">
         <v>500</v>
       </c>
@@ -14845,7 +14857,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
         <v>345</v>
       </c>
@@ -14915,7 +14927,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
         <v>345</v>
       </c>
@@ -14947,7 +14959,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
         <v>345</v>
       </c>
@@ -15023,7 +15035,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
         <v>345</v>
       </c>
@@ -15067,7 +15079,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
         <v>345</v>
       </c>
@@ -15114,7 +15126,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
         <v>345</v>
       </c>
@@ -15152,7 +15164,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
         <v>345</v>
       </c>
@@ -15190,7 +15202,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
         <v>334</v>
       </c>
@@ -15234,7 +15246,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
         <v>334</v>
       </c>
@@ -15281,7 +15293,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
         <v>334</v>
       </c>
@@ -15401,7 +15413,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
         <v>334</v>
       </c>
@@ -15436,7 +15448,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
         <v>334</v>
       </c>
@@ -15471,7 +15483,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
         <v>334</v>
       </c>
@@ -15515,7 +15527,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
         <v>334</v>
       </c>
@@ -15543,6 +15555,9 @@
       <c r="I196" s="0" t="s">
         <v>394</v>
       </c>
+      <c r="K196" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="L196" s="0" t="n">
         <v>250</v>
       </c>
@@ -15550,7 +15565,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
         <v>345</v>
       </c>
@@ -15594,7 +15609,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
         <v>345</v>
       </c>
@@ -15622,6 +15637,9 @@
       <c r="I198" s="0" t="s">
         <v>394</v>
       </c>
+      <c r="K198" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="L198" s="0" t="n">
         <v>250</v>
       </c>
@@ -15632,7 +15650,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
         <v>334</v>
       </c>
@@ -15676,7 +15694,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
         <v>334</v>
       </c>
@@ -15720,7 +15738,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
         <v>334</v>
       </c>
@@ -15802,7 +15820,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
         <v>334</v>
       </c>
@@ -15910,7 +15928,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
         <v>345</v>
       </c>
@@ -15954,7 +15972,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
         <v>345</v>
       </c>
@@ -16001,7 +16019,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
         <v>345</v>
       </c>
@@ -16048,7 +16066,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
         <v>345</v>
       </c>
@@ -16076,6 +16094,9 @@
       <c r="I209" s="0" t="s">
         <v>394</v>
       </c>
+      <c r="K209" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="L209" s="0" t="n">
         <v>500</v>
       </c>
@@ -16153,7 +16174,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
         <v>345</v>
       </c>
@@ -16258,7 +16279,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
         <v>345</v>
       </c>
@@ -16293,7 +16314,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
         <v>345</v>
       </c>
@@ -16337,7 +16358,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
         <v>345</v>
       </c>
@@ -16419,7 +16440,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
         <v>345</v>
       </c>
@@ -16457,7 +16478,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
         <v>345</v>
       </c>
@@ -16533,7 +16554,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
         <v>345</v>
       </c>
@@ -16577,7 +16598,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
         <v>345</v>
       </c>
@@ -16773,7 +16794,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
         <v>345</v>
       </c>
@@ -16808,7 +16829,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
         <v>345</v>
       </c>
@@ -16872,7 +16893,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
         <v>345</v>
       </c>
@@ -16913,7 +16934,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
         <v>345</v>
       </c>
@@ -16957,7 +16978,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
         <v>345</v>
       </c>
@@ -17042,7 +17063,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
         <v>345</v>
       </c>
@@ -17086,7 +17107,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
         <v>345</v>
       </c>
@@ -17177,7 +17198,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
         <v>345</v>
       </c>
@@ -17224,7 +17245,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
         <v>345</v>
       </c>
@@ -17312,7 +17333,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
         <v>345</v>
       </c>
@@ -17340,6 +17361,9 @@
       <c r="I241" s="0" t="s">
         <v>394</v>
       </c>
+      <c r="K241" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="L241" s="0" t="n">
         <v>50</v>
       </c>
@@ -17347,7 +17371,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
         <v>345</v>
       </c>
@@ -17429,7 +17453,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
         <v>345</v>
       </c>
@@ -17499,7 +17523,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
         <v>345</v>
       </c>
@@ -17543,7 +17567,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
         <v>345</v>
       </c>
@@ -17590,7 +17614,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
         <v>345</v>
       </c>
@@ -17637,7 +17661,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
         <v>345</v>
       </c>
@@ -17681,7 +17705,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
         <v>345</v>
       </c>
@@ -17728,7 +17752,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
         <v>345</v>
       </c>
@@ -17756,6 +17780,9 @@
       <c r="I251" s="0" t="s">
         <v>394</v>
       </c>
+      <c r="K251" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="L251" s="0" t="n">
         <v>250</v>
       </c>
@@ -17766,7 +17793,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
         <v>345</v>
       </c>
@@ -17794,6 +17821,9 @@
       <c r="I252" s="0" t="s">
         <v>394</v>
       </c>
+      <c r="K252" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="L252" s="0" t="n">
         <v>250</v>
       </c>
@@ -17804,7 +17834,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
         <v>345</v>
       </c>
@@ -17832,6 +17862,9 @@
       <c r="I253" s="0" t="s">
         <v>394</v>
       </c>
+      <c r="K253" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="L253" s="0" t="n">
         <v>250</v>
       </c>
@@ -17950,7 +17983,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
         <v>345</v>
       </c>
@@ -17994,7 +18027,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
         <v>345</v>
       </c>
@@ -18041,7 +18074,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
         <v>345</v>
       </c>
@@ -18076,7 +18109,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
         <v>345</v>
       </c>
@@ -18111,7 +18144,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
         <v>345</v>
       </c>
@@ -18146,7 +18179,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
         <v>345</v>
       </c>
@@ -18190,7 +18223,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
         <v>345</v>
       </c>
@@ -18218,6 +18251,9 @@
       <c r="I263" s="0" t="s">
         <v>394</v>
       </c>
+      <c r="K263" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="L263" s="0" t="n">
         <v>500</v>
       </c>
@@ -18377,7 +18413,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
         <v>345</v>
       </c>
@@ -18424,7 +18460,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
         <v>345</v>
       </c>
@@ -18468,7 +18504,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
         <v>345</v>
       </c>
@@ -18553,7 +18589,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
         <v>345</v>
       </c>
@@ -18597,7 +18633,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
         <v>345</v>
       </c>
@@ -18625,6 +18661,9 @@
       <c r="I273" s="0" t="s">
         <v>394</v>
       </c>
+      <c r="K273" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="L273" s="0" t="n">
         <v>250</v>
       </c>
@@ -18666,9 +18705,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:P274">
-    <filterColumn colId="6">
+    <filterColumn colId="8">
       <customFilters and="true">
-        <customFilter operator="equal" val="D_KOD"/>
+        <customFilter operator="equal" val="mandatory"/>
       </customFilters>
     </filterColumn>
   </autoFilter>

--- a/csv-validator/PackageValidation/ValidationServices/SchemaSource/structured-schema-description.xlsx
+++ b/csv-validator/PackageValidation/ValidationServices/SchemaSource/structured-schema-description.xlsx
@@ -2900,7 +2900,7 @@
   <dimension ref="A1:D221"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="248:248 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6025,7 +6025,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="248:248 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6110,7 +6110,7 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="248:248 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6457,7 +6457,7 @@
   <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="248:248 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7891,8 +7891,8 @@
   </sheetPr>
   <dimension ref="A1:P274"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F37" activeCellId="0" sqref="F37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A144" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A248" activeCellId="0" sqref="248:248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7906,7 +7906,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="61.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="7.95"/>
@@ -8057,7 +8057,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>345</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>334</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>334</v>
       </c>
@@ -8253,7 +8253,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>334</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>345</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>345</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>345</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>345</v>
       </c>
@@ -8490,7 +8490,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>345</v>
       </c>
@@ -8616,7 +8616,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>345</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>345</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>345</v>
       </c>
@@ -8862,7 +8862,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>345</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>345</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>345</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>345</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>345</v>
       </c>
@@ -9742,7 +9742,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>345</v>
       </c>
@@ -9780,7 +9780,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>345</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>345</v>
       </c>
@@ -10026,7 +10026,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>334</v>
       </c>
@@ -10096,7 +10096,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>334</v>
       </c>
@@ -10163,7 +10163,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>334</v>
       </c>
@@ -10335,7 +10335,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>334</v>
       </c>
@@ -10534,7 +10534,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>345</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>345</v>
       </c>
@@ -10902,7 +10902,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>345</v>
       </c>
@@ -11031,7 +11031,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>345</v>
       </c>
@@ -11072,7 +11072,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>345</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>345</v>
       </c>
@@ -11136,7 +11136,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>345</v>
       </c>
@@ -11171,7 +11171,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>345</v>
       </c>
@@ -11476,7 +11476,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>334</v>
       </c>
@@ -11514,7 +11514,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>334</v>
       </c>
@@ -11549,7 +11549,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>334</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>334</v>
       </c>
@@ -11666,7 +11666,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>345</v>
       </c>
@@ -11713,7 +11713,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>345</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>345</v>
       </c>
@@ -11786,7 +11786,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>345</v>
       </c>
@@ -11824,7 +11824,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>345</v>
       </c>
@@ -11903,7 +11903,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>334</v>
       </c>
@@ -12020,7 +12020,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>334</v>
       </c>
@@ -12183,7 +12183,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>334</v>
       </c>
@@ -12221,7 +12221,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>334</v>
       </c>
@@ -12288,7 +12288,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>334</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>345</v>
       </c>
@@ -12525,7 +12525,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>345</v>
       </c>
@@ -12691,7 +12691,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>345</v>
       </c>
@@ -12726,7 +12726,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>345</v>
       </c>
@@ -12796,7 +12796,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>345</v>
       </c>
@@ -13001,7 +13001,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
         <v>334</v>
       </c>
@@ -13039,7 +13039,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
         <v>334</v>
       </c>
@@ -13077,7 +13077,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
         <v>334</v>
       </c>
@@ -13115,7 +13115,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
         <v>334</v>
       </c>
@@ -13288,7 +13288,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
         <v>334</v>
       </c>
@@ -13364,7 +13364,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
         <v>334</v>
       </c>
@@ -13399,7 +13399,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
         <v>334</v>
       </c>
@@ -13481,7 +13481,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
         <v>345</v>
       </c>
@@ -13572,7 +13572,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
         <v>345</v>
       </c>
@@ -13610,7 +13610,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
         <v>345</v>
       </c>
@@ -13648,7 +13648,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
         <v>345</v>
       </c>
@@ -13683,7 +13683,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
         <v>345</v>
       </c>
@@ -13856,7 +13856,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
         <v>345</v>
       </c>
@@ -13891,7 +13891,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
         <v>345</v>
       </c>
@@ -13929,7 +13929,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
         <v>345</v>
       </c>
@@ -13967,7 +13967,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
         <v>345</v>
       </c>
@@ -14087,13 +14087,13 @@
         <v>395</v>
       </c>
       <c r="N159" s="0" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="P159" s="0" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
         <v>334</v>
       </c>
@@ -14304,7 +14304,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
         <v>334</v>
       </c>
@@ -14339,7 +14339,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
         <v>334</v>
       </c>
@@ -14500,7 +14500,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
         <v>345</v>
       </c>
@@ -14661,7 +14661,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
         <v>345</v>
       </c>
@@ -14819,7 +14819,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
         <v>345</v>
       </c>
@@ -14857,7 +14857,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
         <v>345</v>
       </c>
@@ -15126,7 +15126,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
         <v>345</v>
       </c>
@@ -15164,7 +15164,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
         <v>345</v>
       </c>
@@ -15340,7 +15340,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
         <v>334</v>
       </c>
@@ -15375,7 +15375,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
         <v>334</v>
       </c>
@@ -15413,7 +15413,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
         <v>334</v>
       </c>
@@ -15448,7 +15448,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
         <v>334</v>
       </c>
@@ -15483,7 +15483,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
         <v>334</v>
       </c>
@@ -15527,7 +15527,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
         <v>334</v>
       </c>
@@ -15565,7 +15565,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
         <v>345</v>
       </c>
@@ -15609,7 +15609,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
         <v>345</v>
       </c>
@@ -15785,7 +15785,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
         <v>334</v>
       </c>
@@ -15820,7 +15820,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
         <v>334</v>
       </c>
@@ -15855,7 +15855,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
         <v>334</v>
       </c>
@@ -16019,7 +16019,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
         <v>345</v>
       </c>
@@ -16066,7 +16066,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
         <v>345</v>
       </c>
@@ -16405,7 +16405,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
         <v>345</v>
       </c>
@@ -16440,7 +16440,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
         <v>345</v>
       </c>
@@ -16478,7 +16478,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
         <v>345</v>
       </c>
@@ -16516,7 +16516,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
         <v>345</v>
       </c>
@@ -16636,7 +16636,7 @@
         <v>395</v>
       </c>
       <c r="N223" s="0" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="O223" s="0" t="s">
         <v>402</v>
@@ -16645,7 +16645,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
         <v>345</v>
       </c>
@@ -16794,7 +16794,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
         <v>345</v>
       </c>
@@ -16829,7 +16829,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
         <v>345</v>
       </c>
@@ -17025,7 +17025,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
         <v>345</v>
       </c>
@@ -17333,7 +17333,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
         <v>345</v>
       </c>
@@ -17371,7 +17371,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
         <v>345</v>
       </c>
@@ -17453,7 +17453,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
         <v>345</v>
       </c>
@@ -17652,7 +17652,7 @@
         <v>395</v>
       </c>
       <c r="N248" s="0" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="O248" s="0" t="s">
         <v>402</v>
@@ -17752,7 +17752,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
         <v>345</v>
       </c>
@@ -17793,7 +17793,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
         <v>345</v>
       </c>
@@ -17834,7 +17834,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
         <v>345</v>
       </c>
@@ -17945,7 +17945,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
         <v>345</v>
       </c>
@@ -18074,7 +18074,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
         <v>345</v>
       </c>
@@ -18109,7 +18109,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
         <v>345</v>
       </c>
@@ -18144,7 +18144,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
         <v>345</v>
       </c>
@@ -18223,7 +18223,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
         <v>345</v>
       </c>
@@ -18261,7 +18261,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
         <v>345</v>
       </c>
@@ -18413,7 +18413,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
         <v>345</v>
       </c>
@@ -18633,7 +18633,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
         <v>345</v>
       </c>
@@ -18671,7 +18671,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
         <v>345</v>
       </c>
@@ -18708,6 +18708,11 @@
     <filterColumn colId="8">
       <customFilters and="true">
         <customFilter operator="equal" val="mandatory"/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="13">
+      <customFilters and="true">
+        <customFilter operator="equal" val="startsWithOperatorId"/>
       </customFilters>
     </filterColumn>
   </autoFilter>

--- a/csv-validator/PackageValidation/ValidationServices/SchemaSource/structured-schema-description.xlsx
+++ b/csv-validator/PackageValidation/ValidationServices/SchemaSource/structured-schema-description.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4159" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4157" uniqueCount="916">
   <si>
     <t xml:space="preserve">FieldName</t>
   </si>
@@ -2900,7 +2900,7 @@
   <dimension ref="A1:D221"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="248:248 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6025,7 +6025,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="248:248 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6110,7 +6110,7 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="248:248 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6457,7 +6457,7 @@
   <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="248:248 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7886,13 +7886,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:P274"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A144" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A248" activeCellId="0" sqref="248:248"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8057,7 +8057,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>345</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>345</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>334</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>334</v>
       </c>
@@ -8253,7 +8253,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>334</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>345</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>345</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>345</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>345</v>
       </c>
@@ -8490,7 +8490,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>345</v>
       </c>
@@ -8513,10 +8513,7 @@
         <v>407</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="N15" s="0" t="s">
         <v>408</v>
@@ -8616,7 +8613,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>345</v>
       </c>
@@ -8707,7 +8704,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>345</v>
       </c>
@@ -8745,7 +8742,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>345</v>
       </c>
@@ -8780,7 +8777,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>345</v>
       </c>
@@ -8824,7 +8821,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>345</v>
       </c>
@@ -8862,7 +8859,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>345</v>
       </c>
@@ -8903,7 +8900,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>345</v>
       </c>
@@ -8941,7 +8938,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>345</v>
       </c>
@@ -8976,7 +8973,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>345</v>
       </c>
@@ -9011,7 +9008,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>345</v>
       </c>
@@ -9046,7 +9043,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>345</v>
       </c>
@@ -9081,7 +9078,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>345</v>
       </c>
@@ -9113,7 +9110,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>345</v>
       </c>
@@ -9151,7 +9148,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>345</v>
       </c>
@@ -9195,7 +9192,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>345</v>
       </c>
@@ -9377,7 +9374,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>345</v>
       </c>
@@ -9412,7 +9409,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>345</v>
       </c>
@@ -9444,7 +9441,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>345</v>
       </c>
@@ -9482,7 +9479,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>345</v>
       </c>
@@ -9520,7 +9517,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>345</v>
       </c>
@@ -9552,7 +9549,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>345</v>
       </c>
@@ -9584,7 +9581,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>345</v>
       </c>
@@ -9707,7 +9704,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>345</v>
       </c>
@@ -9742,7 +9739,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>345</v>
       </c>
@@ -9780,7 +9777,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>345</v>
       </c>
@@ -9818,7 +9815,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>345</v>
       </c>
@@ -9991,7 +9988,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>334</v>
       </c>
@@ -10026,7 +10023,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>334</v>
       </c>
@@ -10061,7 +10058,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>334</v>
       </c>
@@ -10096,7 +10093,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>334</v>
       </c>
@@ -10131,7 +10128,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>334</v>
       </c>
@@ -10163,7 +10160,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>334</v>
       </c>
@@ -10186,10 +10183,7 @@
         <v>452</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="I58" s="0" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="M58" s="0" t="s">
         <v>453</v>
@@ -10198,7 +10192,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>334</v>
       </c>
@@ -10230,7 +10224,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>334</v>
       </c>
@@ -10265,7 +10259,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>334</v>
       </c>
@@ -10300,7 +10294,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>334</v>
       </c>
@@ -10335,7 +10329,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>334</v>
       </c>
@@ -10373,7 +10367,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>334</v>
       </c>
@@ -10408,7 +10402,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>334</v>
       </c>
@@ -10534,7 +10528,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>345</v>
       </c>
@@ -10569,7 +10563,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>345</v>
       </c>
@@ -10604,7 +10598,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>345</v>
       </c>
@@ -10639,7 +10633,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>345</v>
       </c>
@@ -10674,7 +10668,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>345</v>
       </c>
@@ -10709,7 +10703,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>345</v>
       </c>
@@ -10744,7 +10738,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>345</v>
       </c>
@@ -10779,7 +10773,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>345</v>
       </c>
@@ -10855,7 +10849,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>345</v>
       </c>
@@ -10902,7 +10896,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>345</v>
       </c>
@@ -11031,7 +11025,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>345</v>
       </c>
@@ -11072,7 +11066,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>345</v>
       </c>
@@ -11104,7 +11098,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>345</v>
       </c>
@@ -11136,7 +11130,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>345</v>
       </c>
@@ -11171,7 +11165,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>345</v>
       </c>
@@ -11350,7 +11344,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>345</v>
       </c>
@@ -11476,7 +11470,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>334</v>
       </c>
@@ -11514,7 +11508,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>334</v>
       </c>
@@ -11549,7 +11543,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>334</v>
       </c>
@@ -11587,7 +11581,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>334</v>
       </c>
@@ -11666,7 +11660,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>345</v>
       </c>
@@ -11713,7 +11707,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>345</v>
       </c>
@@ -11751,7 +11745,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>345</v>
       </c>
@@ -11786,7 +11780,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>345</v>
       </c>
@@ -11824,7 +11818,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>345</v>
       </c>
@@ -11903,7 +11897,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>334</v>
       </c>
@@ -11950,7 +11944,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>334</v>
       </c>
@@ -11985,7 +11979,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>334</v>
       </c>
@@ -12020,7 +12014,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>334</v>
       </c>
@@ -12058,7 +12052,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>334</v>
       </c>
@@ -12090,7 +12084,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
         <v>334</v>
       </c>
@@ -12119,7 +12113,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>334</v>
       </c>
@@ -12151,7 +12145,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>334</v>
       </c>
@@ -12183,7 +12177,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>334</v>
       </c>
@@ -12221,7 +12215,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>334</v>
       </c>
@@ -12259,7 +12253,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>334</v>
       </c>
@@ -12288,7 +12282,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>334</v>
       </c>
@@ -12326,7 +12320,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>334</v>
       </c>
@@ -12402,7 +12396,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>345</v>
       </c>
@@ -12449,7 +12443,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>345</v>
       </c>
@@ -12487,7 +12481,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>345</v>
       </c>
@@ -12525,7 +12519,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>345</v>
       </c>
@@ -12563,7 +12557,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>345</v>
       </c>
@@ -12595,7 +12589,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>345</v>
       </c>
@@ -12627,7 +12621,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
         <v>345</v>
       </c>
@@ -12659,7 +12653,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
         <v>345</v>
       </c>
@@ -12691,7 +12685,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>345</v>
       </c>
@@ -12726,7 +12720,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>345</v>
       </c>
@@ -12764,7 +12758,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
         <v>345</v>
       </c>
@@ -12796,7 +12790,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>345</v>
       </c>
@@ -12831,7 +12825,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
         <v>345</v>
       </c>
@@ -13001,7 +12995,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
         <v>334</v>
       </c>
@@ -13039,7 +13033,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
         <v>334</v>
       </c>
@@ -13077,7 +13071,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
         <v>334</v>
       </c>
@@ -13115,7 +13109,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
         <v>334</v>
       </c>
@@ -13288,7 +13282,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
         <v>334</v>
       </c>
@@ -13329,7 +13323,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
         <v>334</v>
       </c>
@@ -13364,7 +13358,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
         <v>334</v>
       </c>
@@ -13399,7 +13393,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
         <v>334</v>
       </c>
@@ -13481,7 +13475,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
         <v>345</v>
       </c>
@@ -13528,7 +13522,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
         <v>345</v>
       </c>
@@ -13572,7 +13566,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
         <v>345</v>
       </c>
@@ -13610,7 +13604,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
         <v>345</v>
       </c>
@@ -13648,7 +13642,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
         <v>345</v>
       </c>
@@ -13683,7 +13677,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
         <v>345</v>
       </c>
@@ -13721,7 +13715,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
         <v>345</v>
       </c>
@@ -13856,7 +13850,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
         <v>345</v>
       </c>
@@ -13891,7 +13885,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
         <v>345</v>
       </c>
@@ -13929,7 +13923,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
         <v>345</v>
       </c>
@@ -13967,7 +13961,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
         <v>345</v>
       </c>
@@ -14093,7 +14087,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
         <v>334</v>
       </c>
@@ -14178,7 +14172,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
         <v>334</v>
       </c>
@@ -14228,7 +14222,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
         <v>334</v>
       </c>
@@ -14263,7 +14257,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
         <v>334</v>
       </c>
@@ -14304,7 +14298,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
         <v>334</v>
       </c>
@@ -14339,7 +14333,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
         <v>334</v>
       </c>
@@ -14465,7 +14459,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
         <v>345</v>
       </c>
@@ -14500,7 +14494,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
         <v>345</v>
       </c>
@@ -14538,7 +14532,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
         <v>345</v>
       </c>
@@ -14661,7 +14655,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
         <v>345</v>
       </c>
@@ -14696,7 +14690,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
         <v>345</v>
       </c>
@@ -14728,7 +14722,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
         <v>345</v>
       </c>
@@ -14763,7 +14757,7 @@
         <v>395</v>
       </c>
       <c r="N176" s="0" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="O176" s="0" t="s">
         <v>402</v>
@@ -14819,7 +14813,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
         <v>345</v>
       </c>
@@ -14857,7 +14851,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
         <v>345</v>
       </c>
@@ -14895,7 +14889,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
         <v>345</v>
       </c>
@@ -14927,7 +14921,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
         <v>345</v>
       </c>
@@ -15006,7 +15000,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
         <v>345</v>
       </c>
@@ -15126,7 +15120,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
         <v>345</v>
       </c>
@@ -15164,7 +15158,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
         <v>345</v>
       </c>
@@ -15340,7 +15334,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
         <v>334</v>
       </c>
@@ -15375,7 +15369,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
         <v>334</v>
       </c>
@@ -15413,7 +15407,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
         <v>334</v>
       </c>
@@ -15448,7 +15442,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
         <v>334</v>
       </c>
@@ -15483,7 +15477,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
         <v>334</v>
       </c>
@@ -15527,7 +15521,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
         <v>334</v>
       </c>
@@ -15565,7 +15559,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
         <v>345</v>
       </c>
@@ -15609,7 +15603,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
         <v>345</v>
       </c>
@@ -15785,7 +15779,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
         <v>334</v>
       </c>
@@ -15820,7 +15814,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
         <v>334</v>
       </c>
@@ -15855,7 +15849,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
         <v>334</v>
       </c>
@@ -15890,7 +15884,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
         <v>334</v>
       </c>
@@ -16019,7 +16013,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
         <v>345</v>
       </c>
@@ -16066,7 +16060,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
         <v>345</v>
       </c>
@@ -16104,7 +16098,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
         <v>345</v>
       </c>
@@ -16139,7 +16133,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
         <v>345</v>
       </c>
@@ -16174,7 +16168,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
         <v>345</v>
       </c>
@@ -16209,7 +16203,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
         <v>345</v>
       </c>
@@ -16244,7 +16238,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
         <v>345</v>
       </c>
@@ -16279,7 +16273,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
         <v>345</v>
       </c>
@@ -16405,7 +16399,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
         <v>345</v>
       </c>
@@ -16440,7 +16434,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
         <v>345</v>
       </c>
@@ -16478,7 +16472,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
         <v>345</v>
       </c>
@@ -16516,7 +16510,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
         <v>345</v>
       </c>
@@ -16645,7 +16639,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
         <v>345</v>
       </c>
@@ -16680,7 +16674,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
         <v>345</v>
       </c>
@@ -16718,7 +16712,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
         <v>345</v>
       </c>
@@ -16756,7 +16750,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
         <v>345</v>
       </c>
@@ -16794,7 +16788,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
         <v>345</v>
       </c>
@@ -16829,7 +16823,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
         <v>345</v>
       </c>
@@ -16864,7 +16858,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
         <v>345</v>
       </c>
@@ -16893,7 +16887,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
         <v>345</v>
       </c>
@@ -17025,7 +17019,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
         <v>345</v>
       </c>
@@ -17154,7 +17148,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
         <v>345</v>
       </c>
@@ -17289,7 +17283,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
         <v>345</v>
       </c>
@@ -17333,7 +17327,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
         <v>345</v>
       </c>
@@ -17371,7 +17365,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
         <v>345</v>
       </c>
@@ -17409,7 +17403,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
         <v>345</v>
       </c>
@@ -17453,7 +17447,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
         <v>345</v>
       </c>
@@ -17488,7 +17482,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
         <v>345</v>
       </c>
@@ -17752,7 +17746,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
         <v>345</v>
       </c>
@@ -17793,7 +17787,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
         <v>345</v>
       </c>
@@ -17834,7 +17828,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
         <v>345</v>
       </c>
@@ -17875,7 +17869,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
         <v>345</v>
       </c>
@@ -17910,7 +17904,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
         <v>345</v>
       </c>
@@ -17945,7 +17939,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
         <v>345</v>
       </c>
@@ -18074,7 +18068,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
         <v>345</v>
       </c>
@@ -18109,7 +18103,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
         <v>345</v>
       </c>
@@ -18144,7 +18138,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
         <v>345</v>
       </c>
@@ -18223,7 +18217,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
         <v>345</v>
       </c>
@@ -18261,7 +18255,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
         <v>345</v>
       </c>
@@ -18299,7 +18293,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
         <v>345</v>
       </c>
@@ -18337,7 +18331,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
         <v>345</v>
       </c>
@@ -18369,7 +18363,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
         <v>345</v>
       </c>
@@ -18404,7 +18398,7 @@
         <v>395</v>
       </c>
       <c r="N267" s="0" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="O267" s="0" t="s">
         <v>402</v>
@@ -18413,7 +18407,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
         <v>345</v>
       </c>
@@ -18548,7 +18542,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
         <v>345</v>
       </c>
@@ -18633,7 +18627,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
         <v>345</v>
       </c>
@@ -18671,7 +18665,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
         <v>345</v>
       </c>
@@ -18704,18 +18698,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P274">
-    <filterColumn colId="8">
-      <customFilters and="true">
-        <customFilter operator="equal" val="mandatory"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="13">
-      <customFilters and="true">
-        <customFilter operator="equal" val="startsWithOperatorId"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P274"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/csv-validator/PackageValidation/ValidationServices/SchemaSource/structured-schema-description.xlsx
+++ b/csv-validator/PackageValidation/ValidationServices/SchemaSource/structured-schema-description.xlsx
@@ -7892,7 +7892,7 @@
   <dimension ref="A1:P274"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="L73" activeCellId="0" sqref="L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10728,9 +10728,6 @@
       <c r="H73" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="L73" s="0" t="n">
-        <v>250</v>
-      </c>
       <c r="O73" s="0" t="s">
         <v>402</v>
       </c>

--- a/csv-validator/PackageValidation/ValidationServices/SchemaSource/structured-schema-description.xlsx
+++ b/csv-validator/PackageValidation/ValidationServices/SchemaSource/structured-schema-description.xlsx
@@ -10728,6 +10728,9 @@
       <c r="H73" s="0" t="s">
         <v>412</v>
       </c>
+      <c r="L73" s="0" t="n">
+        <v>32000</v>
+      </c>
       <c r="O73" s="0" t="s">
         <v>402</v>
       </c>
